--- a/name/vnindex/20230201/VNINDEX_HOSE_5p_20230201.xlsx
+++ b/name/vnindex/20230201/VNINDEX_HOSE_5p_20230201.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5757 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1675242600000</v>
+        <v>1675242840000</v>
       </c>
       <c r="B2">
-        <v>13100</v>
+        <v>4065600</v>
       </c>
       <c r="C2">
-        <v>41500</v>
+        <v>3715800</v>
       </c>
       <c r="D2">
-        <v>354000</v>
+        <v>4391900</v>
       </c>
       <c r="E2">
-        <v>86803000</v>
+        <v>60541325000</v>
       </c>
       <c r="F2">
-        <v>904164000</v>
+        <v>69804856000</v>
       </c>
       <c r="G2">
-        <v>4794271000</v>
+        <v>53260357000</v>
       </c>
       <c r="H2">
-        <v>408600</v>
+        <v>12173300</v>
       </c>
       <c r="I2">
-        <v>5785238000</v>
+        <v>183606538000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-02-01T09:10:00.000Z</v>
+        <v>2023-02-01T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>5785238000</v>
+        <v>183606538000</v>
       </c>
       <c r="L2">
-        <v>408600</v>
+        <v>12173300</v>
       </c>
       <c r="M2">
-        <v>28400</v>
+        <v>-349800</v>
       </c>
       <c r="N2">
-        <v>817361000</v>
+        <v>9263531000</v>
       </c>
       <c r="O2">
-        <v>28400</v>
+        <v>-349800</v>
       </c>
       <c r="P2">
-        <v>817361000</v>
+        <v>9263531000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1675242900000</v>
+        <v>1675242960000</v>
       </c>
       <c r="B3">
-        <v>9212500</v>
+        <v>1918600</v>
       </c>
       <c r="C3">
-        <v>11187600</v>
+        <v>3592900</v>
       </c>
       <c r="D3">
-        <v>4068800</v>
+        <v>5600</v>
       </c>
       <c r="E3">
-        <v>150350068000</v>
+        <v>33237591000</v>
       </c>
       <c r="F3">
-        <v>193809783000</v>
+        <v>60807715000</v>
       </c>
       <c r="G3">
-        <v>48969622000</v>
+        <v>105905000</v>
       </c>
       <c r="H3">
-        <v>24468900</v>
+        <v>5517100</v>
       </c>
       <c r="I3">
-        <v>393129473000</v>
+        <v>94151211000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-02-01T09:15:00.000Z</v>
+        <v>2023-02-01T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>398914711000</v>
+        <v>277757749000</v>
       </c>
       <c r="L3">
-        <v>24877500</v>
+        <v>17690400</v>
       </c>
       <c r="M3">
-        <v>1975100</v>
+        <v>1674300</v>
       </c>
       <c r="N3">
-        <v>43459715000</v>
+        <v>27570124000</v>
       </c>
       <c r="O3">
-        <v>2003500</v>
+        <v>1324500</v>
       </c>
       <c r="P3">
-        <v>44277076000</v>
+        <v>36833655000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1675243200000</v>
+        <v>1675243080000</v>
       </c>
       <c r="B4">
-        <v>10019400</v>
+        <v>3241400</v>
       </c>
       <c r="C4">
-        <v>7150900</v>
+        <v>3920400</v>
       </c>
       <c r="D4">
-        <v>117600</v>
+        <v>25300</v>
       </c>
       <c r="E4">
-        <v>174004349000</v>
+        <v>56657955000</v>
       </c>
       <c r="F4">
-        <v>116061564000</v>
+        <v>64101376000</v>
       </c>
       <c r="G4">
-        <v>1996989000</v>
+        <v>397631000</v>
       </c>
       <c r="H4">
-        <v>17287900</v>
+        <v>7187100</v>
       </c>
       <c r="I4">
-        <v>292062902000</v>
+        <v>121156962000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-02-01T09:20:00.000Z</v>
+        <v>2023-02-01T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>690977613000</v>
+        <v>398914711000</v>
       </c>
       <c r="L4">
-        <v>42165400</v>
+        <v>24877500</v>
       </c>
       <c r="M4">
-        <v>-2868500</v>
+        <v>679000</v>
       </c>
       <c r="N4">
-        <v>-57942785000</v>
+        <v>7443421000</v>
       </c>
       <c r="O4">
-        <v>-865000</v>
+        <v>2003500</v>
       </c>
       <c r="P4">
-        <v>-13665709000</v>
+        <v>44277076000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1675243500000</v>
+        <v>1675243200000</v>
       </c>
       <c r="B5">
-        <v>9041600</v>
+        <v>3297500</v>
       </c>
       <c r="C5">
-        <v>5009200</v>
+        <v>3857900</v>
       </c>
       <c r="D5">
-        <v>37900</v>
+        <v>82600</v>
       </c>
       <c r="E5">
-        <v>161526583000</v>
+        <v>57374576000</v>
       </c>
       <c r="F5">
-        <v>87503489000</v>
+        <v>63549596000</v>
       </c>
       <c r="G5">
-        <v>666822000</v>
+        <v>1176957000</v>
       </c>
       <c r="H5">
-        <v>14088700</v>
+        <v>7238000</v>
       </c>
       <c r="I5">
-        <v>249696894000</v>
+        <v>122101129000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-02-01T09:25:00.000Z</v>
+        <v>2023-02-01T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>940674507000</v>
+        <v>521015840000</v>
       </c>
       <c r="L5">
-        <v>56254100</v>
+        <v>32115500</v>
       </c>
       <c r="M5">
-        <v>-4032400</v>
+        <v>560400</v>
       </c>
       <c r="N5">
-        <v>-74023094000</v>
+        <v>6175020000</v>
       </c>
       <c r="O5">
-        <v>-4897400</v>
+        <v>2563900</v>
       </c>
       <c r="P5">
-        <v>-87688803000</v>
+        <v>50452096000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1675243800000</v>
+        <v>1675243320000</v>
       </c>
       <c r="B6">
-        <v>5686800</v>
+        <v>4687900</v>
       </c>
       <c r="C6">
-        <v>6514900</v>
+        <v>2330700</v>
       </c>
       <c r="D6">
-        <v>32200</v>
+        <v>11300</v>
       </c>
       <c r="E6">
-        <v>96120670000</v>
+        <v>79403033000</v>
       </c>
       <c r="F6">
-        <v>136245439000</v>
+        <v>38808731000</v>
       </c>
       <c r="G6">
-        <v>455871000</v>
+        <v>349177000</v>
       </c>
       <c r="H6">
-        <v>12233900</v>
+        <v>7029900</v>
       </c>
       <c r="I6">
-        <v>232821980000</v>
+        <v>118560941000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-02-01T09:30:00.000Z</v>
+        <v>2023-02-01T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1173496487000</v>
+        <v>639576781000</v>
       </c>
       <c r="L6">
-        <v>68488000</v>
+        <v>39145400</v>
       </c>
       <c r="M6">
-        <v>828100</v>
+        <v>-2357200</v>
       </c>
       <c r="N6">
-        <v>40124769000</v>
+        <v>-40594302000</v>
       </c>
       <c r="O6">
-        <v>-4069300</v>
+        <v>206700</v>
       </c>
       <c r="P6">
-        <v>-47564034000</v>
+        <v>9857794000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1675244100000</v>
+        <v>1675243440000</v>
       </c>
       <c r="B7">
-        <v>4805800</v>
+        <v>4682900</v>
       </c>
       <c r="C7">
-        <v>11825600</v>
+        <v>2141400</v>
       </c>
       <c r="D7">
-        <v>24700</v>
+        <v>32800</v>
       </c>
       <c r="E7">
-        <v>79898360000</v>
+        <v>85144514000</v>
       </c>
       <c r="F7">
-        <v>217823853000</v>
+        <v>31768415000</v>
       </c>
       <c r="G7">
-        <v>339009000</v>
+        <v>625740000</v>
       </c>
       <c r="H7">
-        <v>16656100</v>
+        <v>6857100</v>
       </c>
       <c r="I7">
-        <v>298061222000</v>
+        <v>117538669000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-02-01T09:35:00.000Z</v>
+        <v>2023-02-01T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1471557709000</v>
+        <v>757115450000</v>
       </c>
       <c r="L7">
-        <v>85144100</v>
+        <v>46002500</v>
       </c>
       <c r="M7">
-        <v>7019800</v>
+        <v>-2541500</v>
       </c>
       <c r="N7">
-        <v>137925493000</v>
+        <v>-53376099000</v>
       </c>
       <c r="O7">
-        <v>2950500</v>
+        <v>-2334800</v>
       </c>
       <c r="P7">
-        <v>90361459000</v>
+        <v>-43518305000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1675244400000</v>
+        <v>1675243560000</v>
       </c>
       <c r="B8">
-        <v>5136000</v>
+        <v>3686300</v>
       </c>
       <c r="C8">
-        <v>15825900</v>
+        <v>2220700</v>
       </c>
       <c r="D8">
-        <v>75700</v>
+        <v>3900</v>
       </c>
       <c r="E8">
-        <v>93634530000</v>
+        <v>63855063000</v>
       </c>
       <c r="F8">
-        <v>287769118000</v>
+        <v>41357697000</v>
       </c>
       <c r="G8">
-        <v>2402057000</v>
+        <v>144711000</v>
       </c>
       <c r="H8">
-        <v>21037600</v>
+        <v>5910900</v>
       </c>
       <c r="I8">
-        <v>383805705000</v>
+        <v>105357471000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-02-01T09:40:00.000Z</v>
+        <v>2023-02-01T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1855363414000</v>
+        <v>862472921000</v>
       </c>
       <c r="L8">
-        <v>106181700</v>
+        <v>51913400</v>
       </c>
       <c r="M8">
-        <v>10689900</v>
+        <v>-1465600</v>
       </c>
       <c r="N8">
-        <v>194134588000</v>
+        <v>-22497366000</v>
       </c>
       <c r="O8">
-        <v>13640400</v>
+        <v>-3800400</v>
       </c>
       <c r="P8">
-        <v>284496047000</v>
+        <v>-66015671000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1675244700000</v>
+        <v>1675243680000</v>
       </c>
       <c r="B9">
-        <v>10590500</v>
+        <v>2706400</v>
       </c>
       <c r="C9">
-        <v>6696300</v>
+        <v>1609400</v>
       </c>
       <c r="D9">
-        <v>23100</v>
+        <v>24900</v>
       </c>
       <c r="E9">
-        <v>202986880000</v>
+        <v>49753746000</v>
       </c>
       <c r="F9">
-        <v>121256744000</v>
+        <v>28080614000</v>
       </c>
       <c r="G9">
-        <v>522551000</v>
+        <v>367226000</v>
       </c>
       <c r="H9">
-        <v>17309900</v>
+        <v>4340700</v>
       </c>
       <c r="I9">
-        <v>324766175000</v>
+        <v>78201586000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-02-01T09:45:00.000Z</v>
+        <v>2023-02-01T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2180129589000</v>
+        <v>940674507000</v>
       </c>
       <c r="L9">
-        <v>123491600</v>
+        <v>56254100</v>
       </c>
       <c r="M9">
-        <v>-3894200</v>
+        <v>-1097000</v>
       </c>
       <c r="N9">
-        <v>-81730136000</v>
+        <v>-21673132000</v>
       </c>
       <c r="O9">
-        <v>9746200</v>
+        <v>-4897400</v>
       </c>
       <c r="P9">
-        <v>202765911000</v>
+        <v>-87688803000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1675245000000</v>
+        <v>1675243800000</v>
       </c>
       <c r="B10">
-        <v>7847700</v>
+        <v>2678500</v>
       </c>
       <c r="C10">
-        <v>4912100</v>
+        <v>2094700</v>
       </c>
       <c r="D10">
-        <v>46300</v>
+        <v>10800</v>
       </c>
       <c r="E10">
-        <v>134635090000</v>
+        <v>44352739000</v>
       </c>
       <c r="F10">
-        <v>87859293000</v>
+        <v>41807905000</v>
       </c>
       <c r="G10">
-        <v>999176000</v>
+        <v>211050000</v>
       </c>
       <c r="H10">
-        <v>12806100</v>
+        <v>4784000</v>
       </c>
       <c r="I10">
-        <v>223493559000</v>
+        <v>86371694000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-02-01T09:50:00.000Z</v>
+        <v>2023-02-01T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2403623148000</v>
+        <v>1027046201000</v>
       </c>
       <c r="L10">
-        <v>136297700</v>
+        <v>61038100</v>
       </c>
       <c r="M10">
-        <v>-2935600</v>
+        <v>-583800</v>
       </c>
       <c r="N10">
-        <v>-46775797000</v>
+        <v>-2544834000</v>
       </c>
       <c r="O10">
-        <v>6810600</v>
+        <v>-5481200</v>
       </c>
       <c r="P10">
-        <v>155990114000</v>
+        <v>-90233637000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1675245300000</v>
+        <v>1675243920000</v>
       </c>
       <c r="B11">
-        <v>6931100</v>
+        <v>1898300</v>
       </c>
       <c r="C11">
-        <v>4576100</v>
+        <v>2819400</v>
       </c>
       <c r="D11">
-        <v>43900</v>
+        <v>19300</v>
       </c>
       <c r="E11">
-        <v>120645430000</v>
+        <v>34206386000</v>
       </c>
       <c r="F11">
-        <v>90172369000</v>
+        <v>59616352000</v>
       </c>
       <c r="G11">
-        <v>1242578000</v>
+        <v>228348000</v>
       </c>
       <c r="H11">
-        <v>11551100</v>
+        <v>4737000</v>
       </c>
       <c r="I11">
-        <v>212060377000</v>
+        <v>94051086000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-02-01T09:55:00.000Z</v>
+        <v>2023-02-01T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2615683525000</v>
+        <v>1121097287000</v>
       </c>
       <c r="L11">
-        <v>147848800</v>
+        <v>65775100</v>
       </c>
       <c r="M11">
-        <v>-2355000</v>
+        <v>921100</v>
       </c>
       <c r="N11">
-        <v>-30473061000</v>
+        <v>25409966000</v>
       </c>
       <c r="O11">
-        <v>4455600</v>
+        <v>-4560100</v>
       </c>
       <c r="P11">
-        <v>125517053000</v>
+        <v>-64823671000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1675245600000</v>
+        <v>1675244040000</v>
       </c>
       <c r="B12">
-        <v>4621900</v>
+        <v>1785200</v>
       </c>
       <c r="C12">
-        <v>5117500</v>
+        <v>3106200</v>
       </c>
       <c r="D12">
-        <v>14700</v>
+        <v>5700</v>
       </c>
       <c r="E12">
-        <v>85398098000</v>
+        <v>29855819000</v>
       </c>
       <c r="F12">
-        <v>92519115000</v>
+        <v>63766056000</v>
       </c>
       <c r="G12">
-        <v>287099000</v>
+        <v>96043000</v>
       </c>
       <c r="H12">
-        <v>9754100</v>
+        <v>4897100</v>
       </c>
       <c r="I12">
-        <v>178204312000</v>
+        <v>93717918000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-02-01T10:00:00.000Z</v>
+        <v>2023-02-01T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2793887837000</v>
+        <v>1214815205000</v>
       </c>
       <c r="L12">
-        <v>157602900</v>
+        <v>70672200</v>
       </c>
       <c r="M12">
-        <v>495600</v>
+        <v>1321000</v>
       </c>
       <c r="N12">
-        <v>7121017000</v>
+        <v>33910237000</v>
       </c>
       <c r="O12">
-        <v>4951200</v>
+        <v>-3239100</v>
       </c>
       <c r="P12">
-        <v>132638070000</v>
+        <v>-30913434000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1675245900000</v>
+        <v>1675244160000</v>
       </c>
       <c r="B13">
-        <v>7774700</v>
+        <v>1807300</v>
       </c>
       <c r="C13">
-        <v>3558800</v>
+        <v>5083500</v>
       </c>
       <c r="D13">
-        <v>29500</v>
+        <v>19600</v>
       </c>
       <c r="E13">
-        <v>139429189000</v>
+        <v>27237787000</v>
       </c>
       <c r="F13">
-        <v>60641393000</v>
+        <v>93022698000</v>
       </c>
       <c r="G13">
-        <v>484654000</v>
+        <v>232991000</v>
       </c>
       <c r="H13">
-        <v>11363000</v>
+        <v>6910400</v>
       </c>
       <c r="I13">
-        <v>200555236000</v>
+        <v>120493476000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-02-01T10:05:00.000Z</v>
+        <v>2023-02-01T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2994443073000</v>
+        <v>1335308681000</v>
       </c>
       <c r="L13">
-        <v>168965900</v>
+        <v>77582600</v>
       </c>
       <c r="M13">
-        <v>-4215900</v>
+        <v>3276200</v>
       </c>
       <c r="N13">
-        <v>-78787796000</v>
+        <v>65784911000</v>
       </c>
       <c r="O13">
-        <v>735300</v>
+        <v>37100</v>
       </c>
       <c r="P13">
-        <v>53850274000</v>
+        <v>34871477000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1675246200000</v>
+        <v>1675244280000</v>
       </c>
       <c r="B14">
-        <v>4918700</v>
+        <v>2323300</v>
       </c>
       <c r="C14">
-        <v>4121700</v>
+        <v>5236700</v>
       </c>
       <c r="D14">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="E14">
-        <v>83170819000</v>
+        <v>40366299000</v>
       </c>
       <c r="F14">
-        <v>70618429000</v>
+        <v>95856281000</v>
       </c>
       <c r="G14">
-        <v>86808000</v>
+        <v>26448000</v>
       </c>
       <c r="H14">
-        <v>9045400</v>
+        <v>7561500</v>
       </c>
       <c r="I14">
-        <v>153876056000</v>
+        <v>136249028000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-02-01T10:10:00.000Z</v>
+        <v>2023-02-01T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3148319129000</v>
+        <v>1471557709000</v>
       </c>
       <c r="L14">
-        <v>178011300</v>
+        <v>85144100</v>
       </c>
       <c r="M14">
-        <v>-797000</v>
+        <v>2913400</v>
       </c>
       <c r="N14">
-        <v>-12552390000</v>
+        <v>55489982000</v>
       </c>
       <c r="O14">
-        <v>-61700</v>
+        <v>2950500</v>
       </c>
       <c r="P14">
-        <v>41297884000</v>
+        <v>90361459000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1675246500000</v>
+        <v>1675244400000</v>
       </c>
       <c r="B15">
-        <v>4314800</v>
+        <v>2056500</v>
       </c>
       <c r="C15">
-        <v>5496700</v>
+        <v>5580300</v>
       </c>
       <c r="D15">
-        <v>14100</v>
+        <v>44800</v>
       </c>
       <c r="E15">
-        <v>77425010000</v>
+        <v>38487383000</v>
       </c>
       <c r="F15">
-        <v>100850540000</v>
+        <v>101461796000</v>
       </c>
       <c r="G15">
-        <v>364146000</v>
+        <v>2106939000</v>
       </c>
       <c r="H15">
-        <v>9825600</v>
+        <v>7681600</v>
       </c>
       <c r="I15">
-        <v>178639696000</v>
+        <v>142056118000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-02-01T10:15:00.000Z</v>
+        <v>2023-02-01T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3326958825000</v>
+        <v>1613613827000</v>
       </c>
       <c r="L15">
-        <v>187836900</v>
+        <v>92825700</v>
       </c>
       <c r="M15">
-        <v>1181900</v>
+        <v>3523800</v>
       </c>
       <c r="N15">
-        <v>23425530000</v>
+        <v>62974413000</v>
       </c>
       <c r="O15">
-        <v>1120200</v>
+        <v>6474300</v>
       </c>
       <c r="P15">
-        <v>64723414000</v>
+        <v>153335872000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1675246800000</v>
+        <v>1675244520000</v>
       </c>
       <c r="B16">
-        <v>3892100</v>
+        <v>1930500</v>
       </c>
       <c r="C16">
-        <v>5133700</v>
+        <v>7451800</v>
       </c>
       <c r="D16">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="E16">
-        <v>70378171000</v>
+        <v>35747448000</v>
       </c>
       <c r="F16">
-        <v>97647107000</v>
+        <v>139192359000</v>
       </c>
       <c r="G16">
-        <v>241785000</v>
+        <v>79430000</v>
       </c>
       <c r="H16">
-        <v>9035300</v>
+        <v>9384300</v>
       </c>
       <c r="I16">
-        <v>168267063000</v>
+        <v>175019237000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-02-01T10:20:00.000Z</v>
+        <v>2023-02-01T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3495225888000</v>
+        <v>1788633064000</v>
       </c>
       <c r="L16">
-        <v>196872200</v>
+        <v>102210000</v>
       </c>
       <c r="M16">
-        <v>1241600</v>
+        <v>5521300</v>
       </c>
       <c r="N16">
-        <v>27268936000</v>
+        <v>103444911000</v>
       </c>
       <c r="O16">
-        <v>2361800</v>
+        <v>11995600</v>
       </c>
       <c r="P16">
-        <v>91992350000</v>
+        <v>256780783000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1675247100000</v>
+        <v>1675244640000</v>
       </c>
       <c r="B17">
-        <v>4071800</v>
+        <v>2864900</v>
       </c>
       <c r="C17">
-        <v>7170000</v>
+        <v>4379900</v>
       </c>
       <c r="D17">
-        <v>5200</v>
+        <v>38600</v>
       </c>
       <c r="E17">
-        <v>78631363000</v>
+        <v>58709967000</v>
       </c>
       <c r="F17">
-        <v>123919926000</v>
+        <v>75301960000</v>
       </c>
       <c r="G17">
-        <v>265448000</v>
+        <v>560210000</v>
       </c>
       <c r="H17">
-        <v>11247000</v>
+        <v>7283400</v>
       </c>
       <c r="I17">
-        <v>202816737000</v>
+        <v>134572137000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-02-01T10:25:00.000Z</v>
+        <v>2023-02-01T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3698042625000</v>
+        <v>1923205201000</v>
       </c>
       <c r="L17">
-        <v>208119200</v>
+        <v>109493400</v>
       </c>
       <c r="M17">
-        <v>3098200</v>
+        <v>1515000</v>
       </c>
       <c r="N17">
-        <v>45288563000</v>
+        <v>16591993000</v>
       </c>
       <c r="O17">
-        <v>5460000</v>
+        <v>13510600</v>
       </c>
       <c r="P17">
-        <v>137280913000</v>
+        <v>273372776000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675247400000</v>
+        <v>1675244760000</v>
       </c>
       <c r="B18">
-        <v>6216100</v>
+        <v>4066400</v>
       </c>
       <c r="C18">
-        <v>8115700</v>
+        <v>3054100</v>
       </c>
       <c r="D18">
-        <v>132900</v>
+        <v>10900</v>
       </c>
       <c r="E18">
-        <v>118025899000</v>
+        <v>67677653000</v>
       </c>
       <c r="F18">
-        <v>108985963000</v>
+        <v>53351824000</v>
       </c>
       <c r="G18">
-        <v>1876136000</v>
+        <v>112144000</v>
       </c>
       <c r="H18">
-        <v>14464700</v>
+        <v>7131400</v>
       </c>
       <c r="I18">
-        <v>228887998000</v>
+        <v>121141621000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-02-01T10:30:00.000Z</v>
+        <v>2023-02-01T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3926930623000</v>
+        <v>2044346822000</v>
       </c>
       <c r="L18">
-        <v>222583900</v>
+        <v>116624800</v>
       </c>
       <c r="M18">
-        <v>1899600</v>
+        <v>-1012300</v>
       </c>
       <c r="N18">
-        <v>-9039936000</v>
+        <v>-14325829000</v>
       </c>
       <c r="O18">
-        <v>7359600</v>
+        <v>12498300</v>
       </c>
       <c r="P18">
-        <v>128240977000</v>
+        <v>259046947000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1675247700000</v>
+        <v>1675244880000</v>
       </c>
       <c r="B19">
-        <v>5069100</v>
+        <v>4808200</v>
       </c>
       <c r="C19">
-        <v>8353600</v>
+        <v>2056100</v>
       </c>
       <c r="D19">
-        <v>58900</v>
+        <v>2500</v>
       </c>
       <c r="E19">
-        <v>91173908000</v>
+        <v>95998959000</v>
       </c>
       <c r="F19">
-        <v>143309232000</v>
+        <v>39717923000</v>
       </c>
       <c r="G19">
-        <v>1115938000</v>
+        <v>65885000</v>
       </c>
       <c r="H19">
-        <v>13481600</v>
+        <v>6866800</v>
       </c>
       <c r="I19">
-        <v>235599078000</v>
+        <v>135782767000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-02-01T10:35:00.000Z</v>
+        <v>2023-02-01T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4162529701000</v>
+        <v>2180129589000</v>
       </c>
       <c r="L19">
-        <v>236065500</v>
+        <v>123491600</v>
       </c>
       <c r="M19">
-        <v>3284500</v>
+        <v>-2752100</v>
       </c>
       <c r="N19">
-        <v>52135324000</v>
+        <v>-56281036000</v>
       </c>
       <c r="O19">
-        <v>10644100</v>
+        <v>9746200</v>
       </c>
       <c r="P19">
-        <v>180376301000</v>
+        <v>202765911000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1675248000000</v>
+        <v>1675245000000</v>
       </c>
       <c r="B20">
-        <v>13106600</v>
+        <v>3605700</v>
       </c>
       <c r="C20">
-        <v>5114200</v>
+        <v>2333300</v>
       </c>
       <c r="D20">
-        <v>118500</v>
+        <v>5800</v>
       </c>
       <c r="E20">
-        <v>255134610000</v>
+        <v>60773410000</v>
       </c>
       <c r="F20">
-        <v>74325778000</v>
+        <v>43062796000</v>
       </c>
       <c r="G20">
-        <v>2237470000</v>
+        <v>211665000</v>
       </c>
       <c r="H20">
-        <v>18339300</v>
+        <v>5944800</v>
       </c>
       <c r="I20">
-        <v>331697858000</v>
+        <v>104047871000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-02-01T10:40:00.000Z</v>
+        <v>2023-02-01T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4494227559000</v>
+        <v>2284177460000</v>
       </c>
       <c r="L20">
-        <v>254404800</v>
+        <v>129436400</v>
       </c>
       <c r="M20">
-        <v>-7992400</v>
+        <v>-1272400</v>
       </c>
       <c r="N20">
-        <v>-180808832000</v>
+        <v>-17710614000</v>
       </c>
       <c r="O20">
-        <v>2651700</v>
+        <v>8473800</v>
       </c>
       <c r="P20">
-        <v>-432531000</v>
+        <v>185055297000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1675248300000</v>
+        <v>1675245120000</v>
       </c>
       <c r="B21">
-        <v>10902900</v>
+        <v>3001900</v>
       </c>
       <c r="C21">
-        <v>4241300</v>
+        <v>1642200</v>
       </c>
       <c r="D21">
-        <v>14100</v>
+        <v>25500</v>
       </c>
       <c r="E21">
-        <v>168396437000</v>
+        <v>51760149000</v>
       </c>
       <c r="F21">
-        <v>71223477000</v>
+        <v>30568186000</v>
       </c>
       <c r="G21">
-        <v>379745000</v>
+        <v>593861000</v>
       </c>
       <c r="H21">
-        <v>15158300</v>
+        <v>4669600</v>
       </c>
       <c r="I21">
-        <v>239999659000</v>
+        <v>82922196000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-02-01T10:45:00.000Z</v>
+        <v>2023-02-01T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4734227218000</v>
+        <v>2367099656000</v>
       </c>
       <c r="L21">
-        <v>269563100</v>
+        <v>134106000</v>
       </c>
       <c r="M21">
-        <v>-6661600</v>
+        <v>-1359700</v>
       </c>
       <c r="N21">
-        <v>-97172960000</v>
+        <v>-21191963000</v>
       </c>
       <c r="O21">
-        <v>-4009900</v>
+        <v>7114100</v>
       </c>
       <c r="P21">
-        <v>-97605491000</v>
+        <v>163863334000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1675248600000</v>
+        <v>1675245240000</v>
       </c>
       <c r="B22">
-        <v>9546500</v>
+        <v>2834100</v>
       </c>
       <c r="C22">
-        <v>4229400</v>
+        <v>1729100</v>
       </c>
       <c r="D22">
-        <v>15600</v>
+        <v>17800</v>
       </c>
       <c r="E22">
-        <v>163748980000</v>
+        <v>51629610000</v>
       </c>
       <c r="F22">
-        <v>70848095000</v>
+        <v>27237192000</v>
       </c>
       <c r="G22">
-        <v>267577000</v>
+        <v>259370000</v>
       </c>
       <c r="H22">
-        <v>13791500</v>
+        <v>4581000</v>
       </c>
       <c r="I22">
-        <v>234864652000</v>
+        <v>79126172000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-02-01T10:50:00.000Z</v>
+        <v>2023-02-01T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4969091870000</v>
+        <v>2446225828000</v>
       </c>
       <c r="L22">
-        <v>283354600</v>
+        <v>138687000</v>
       </c>
       <c r="M22">
-        <v>-5317100</v>
+        <v>-1105000</v>
       </c>
       <c r="N22">
-        <v>-92900885000</v>
+        <v>-24392418000</v>
       </c>
       <c r="O22">
-        <v>-9327000</v>
+        <v>6009100</v>
       </c>
       <c r="P22">
-        <v>-190506376000</v>
+        <v>139470916000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1675248900000</v>
+        <v>1675245360000</v>
       </c>
       <c r="B23">
-        <v>6669400</v>
+        <v>2981300</v>
       </c>
       <c r="C23">
-        <v>3791400</v>
+        <v>1949100</v>
       </c>
       <c r="D23">
-        <v>11200</v>
+        <v>32200</v>
       </c>
       <c r="E23">
-        <v>117855381000</v>
+        <v>53313398000</v>
       </c>
       <c r="F23">
-        <v>65495038000</v>
+        <v>35780697000</v>
       </c>
       <c r="G23">
-        <v>339515000</v>
+        <v>824488000</v>
       </c>
       <c r="H23">
-        <v>10472000</v>
+        <v>4962600</v>
       </c>
       <c r="I23">
-        <v>183689934000</v>
+        <v>89918583000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-02-01T10:55:00.000Z</v>
+        <v>2023-02-01T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>5152781804000</v>
+        <v>2536144411000</v>
       </c>
       <c r="L23">
-        <v>293826600</v>
+        <v>143649600</v>
       </c>
       <c r="M23">
-        <v>-2878000</v>
+        <v>-1032200</v>
       </c>
       <c r="N23">
-        <v>-52360343000</v>
+        <v>-17532701000</v>
       </c>
       <c r="O23">
-        <v>-12205000</v>
+        <v>4976900</v>
       </c>
       <c r="P23">
-        <v>-242866719000</v>
+        <v>121938215000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1675249200000</v>
+        <v>1675245480000</v>
       </c>
       <c r="B24">
-        <v>5726900</v>
+        <v>2355800</v>
       </c>
       <c r="C24">
-        <v>3522600</v>
+        <v>1834500</v>
       </c>
       <c r="D24">
-        <v>11400</v>
+        <v>8900</v>
       </c>
       <c r="E24">
-        <v>104398079000</v>
+        <v>37803953000</v>
       </c>
       <c r="F24">
-        <v>63722631000</v>
+        <v>41382791000</v>
       </c>
       <c r="G24">
-        <v>164637000</v>
+        <v>352370000</v>
       </c>
       <c r="H24">
-        <v>9260900</v>
+        <v>4199200</v>
       </c>
       <c r="I24">
-        <v>168285347000</v>
+        <v>79539114000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-02-01T11:00:00.000Z</v>
+        <v>2023-02-01T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>5321067151000</v>
+        <v>2615683525000</v>
       </c>
       <c r="L24">
-        <v>303087500</v>
+        <v>147848800</v>
       </c>
       <c r="M24">
-        <v>-2204300</v>
+        <v>-521300</v>
       </c>
       <c r="N24">
-        <v>-40675448000</v>
+        <v>3578838000</v>
       </c>
       <c r="O24">
-        <v>-14409300</v>
+        <v>4455600</v>
       </c>
       <c r="P24">
-        <v>-283542167000</v>
+        <v>125517053000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1675249500000</v>
+        <v>1675245600000</v>
       </c>
       <c r="B25">
-        <v>4904000</v>
+        <v>2086900</v>
       </c>
       <c r="C25">
-        <v>3935000</v>
+        <v>2295500</v>
       </c>
       <c r="D25">
-        <v>129100</v>
+        <v>3400</v>
       </c>
       <c r="E25">
-        <v>82489883000</v>
+        <v>33867686000</v>
       </c>
       <c r="F25">
-        <v>70346069000</v>
+        <v>42505937000</v>
       </c>
       <c r="G25">
-        <v>1065313000</v>
+        <v>41394000</v>
       </c>
       <c r="H25">
-        <v>8968100</v>
+        <v>4385800</v>
       </c>
       <c r="I25">
-        <v>153901265000</v>
+        <v>76415017000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-02-01T11:05:00.000Z</v>
+        <v>2023-02-01T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>5474968416000</v>
+        <v>2692098542000</v>
       </c>
       <c r="L25">
-        <v>312055600</v>
+        <v>152234600</v>
       </c>
       <c r="M25">
-        <v>-969000</v>
+        <v>208600</v>
       </c>
       <c r="N25">
-        <v>-12143814000</v>
+        <v>8638251000</v>
       </c>
       <c r="O25">
-        <v>-15378300</v>
+        <v>4664200</v>
       </c>
       <c r="P25">
-        <v>-295685981000</v>
+        <v>134155304000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1675249800000</v>
+        <v>1675245720000</v>
       </c>
       <c r="B26">
-        <v>3849900</v>
+        <v>1720200</v>
       </c>
       <c r="C26">
-        <v>5058800</v>
+        <v>2142400</v>
       </c>
       <c r="D26">
-        <v>24700</v>
+        <v>9700</v>
       </c>
       <c r="E26">
-        <v>64209239000</v>
+        <v>36594889000</v>
       </c>
       <c r="F26">
-        <v>97046193000</v>
+        <v>37344999000</v>
       </c>
       <c r="G26">
-        <v>553461000</v>
+        <v>213900000</v>
       </c>
       <c r="H26">
-        <v>8933400</v>
+        <v>3872300</v>
       </c>
       <c r="I26">
-        <v>161808893000</v>
+        <v>74153788000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-02-01T11:10:00.000Z</v>
+        <v>2023-02-01T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>5636777309000</v>
+        <v>2766252330000</v>
       </c>
       <c r="L26">
-        <v>320989000</v>
+        <v>156106900</v>
       </c>
       <c r="M26">
-        <v>1208900</v>
+        <v>422200</v>
       </c>
       <c r="N26">
-        <v>32836954000</v>
+        <v>750110000</v>
       </c>
       <c r="O26">
-        <v>-14169400</v>
+        <v>5086400</v>
       </c>
       <c r="P26">
-        <v>-262849027000</v>
+        <v>134905414000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1675250100000</v>
+        <v>1675245840000</v>
       </c>
       <c r="B27">
-        <v>4907100</v>
+        <v>2148700</v>
       </c>
       <c r="C27">
-        <v>2750100</v>
+        <v>1415900</v>
       </c>
       <c r="D27">
-        <v>26200</v>
+        <v>2000</v>
       </c>
       <c r="E27">
-        <v>90499351000</v>
+        <v>44114501000</v>
       </c>
       <c r="F27">
-        <v>48564001000</v>
+        <v>24563533000</v>
       </c>
       <c r="G27">
-        <v>199391000</v>
+        <v>42290000</v>
       </c>
       <c r="H27">
-        <v>7683400</v>
+        <v>3566600</v>
       </c>
       <c r="I27">
-        <v>139262743000</v>
+        <v>68720324000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-02-01T11:15:00.000Z</v>
+        <v>2023-02-01T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>5776040052000</v>
+        <v>2834972654000</v>
       </c>
       <c r="L27">
-        <v>328672400</v>
+        <v>159673500</v>
       </c>
       <c r="M27">
-        <v>-2157000</v>
+        <v>-732800</v>
       </c>
       <c r="N27">
-        <v>-41935350000</v>
+        <v>-19550968000</v>
       </c>
       <c r="O27">
-        <v>-16326400</v>
+        <v>4353600</v>
       </c>
       <c r="P27">
-        <v>-304784377000</v>
+        <v>115354446000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1675250400000</v>
+        <v>1675245960000</v>
       </c>
       <c r="B28">
-        <v>6371900</v>
+        <v>3055300</v>
       </c>
       <c r="C28">
-        <v>2540200</v>
+        <v>1332700</v>
       </c>
       <c r="D28">
-        <v>12000</v>
+        <v>4800</v>
       </c>
       <c r="E28">
-        <v>117362375000</v>
+        <v>56308039000</v>
       </c>
       <c r="F28">
-        <v>42363819000</v>
+        <v>19804468000</v>
       </c>
       <c r="G28">
-        <v>191427000</v>
+        <v>50539000</v>
       </c>
       <c r="H28">
-        <v>8924100</v>
+        <v>4392800</v>
       </c>
       <c r="I28">
-        <v>159917621000</v>
+        <v>76163046000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-02-01T11:20:00.000Z</v>
+        <v>2023-02-01T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>5935957673000</v>
+        <v>2911135700000</v>
       </c>
       <c r="L28">
-        <v>337596500</v>
+        <v>164066300</v>
       </c>
       <c r="M28">
-        <v>-3831700</v>
+        <v>-1722600</v>
       </c>
       <c r="N28">
-        <v>-74998556000</v>
+        <v>-36503571000</v>
       </c>
       <c r="O28">
-        <v>-20158100</v>
+        <v>2631000</v>
       </c>
       <c r="P28">
-        <v>-379782933000</v>
+        <v>78850875000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1675250700000</v>
+        <v>1675246080000</v>
       </c>
       <c r="B29">
-        <v>8862400</v>
+        <v>3385500</v>
       </c>
       <c r="C29">
-        <v>2040600</v>
+        <v>1489800</v>
       </c>
       <c r="D29">
-        <v>25600</v>
+        <v>24300</v>
       </c>
       <c r="E29">
-        <v>165908902000</v>
+        <v>53942172000</v>
       </c>
       <c r="F29">
-        <v>40194396000</v>
+        <v>28941571000</v>
       </c>
       <c r="G29">
-        <v>627664000</v>
+        <v>423630000</v>
       </c>
       <c r="H29">
-        <v>10928600</v>
+        <v>4899600</v>
       </c>
       <c r="I29">
-        <v>206730962000</v>
+        <v>83307373000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-02-01T11:25:00.000Z</v>
+        <v>2023-02-01T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>6142688635000</v>
+        <v>2994443073000</v>
       </c>
       <c r="L29">
-        <v>348525100</v>
+        <v>168965900</v>
       </c>
       <c r="M29">
-        <v>-6821800</v>
+        <v>-1895700</v>
       </c>
       <c r="N29">
-        <v>-125714506000</v>
+        <v>-25000601000</v>
       </c>
       <c r="O29">
-        <v>-26979900</v>
+        <v>735300</v>
       </c>
       <c r="P29">
-        <v>-505497439000</v>
+        <v>53850274000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1675256400000</v>
+        <v>1675246200000</v>
       </c>
       <c r="B30">
-        <v>18272600</v>
+        <v>2498900</v>
       </c>
       <c r="C30">
-        <v>7693400</v>
+        <v>1249900</v>
       </c>
       <c r="D30">
-        <v>368800</v>
+        <v>2000</v>
       </c>
       <c r="E30">
-        <v>305650316000</v>
+        <v>39518200000</v>
       </c>
       <c r="F30">
-        <v>139071412000</v>
+        <v>22696246000</v>
       </c>
       <c r="G30">
-        <v>7009892000</v>
+        <v>18743000.000000004</v>
       </c>
       <c r="H30">
-        <v>26334800</v>
+        <v>3750800</v>
       </c>
       <c r="I30">
-        <v>451731620000</v>
+        <v>62233189000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-02-01T13:00:00.000Z</v>
+        <v>2023-02-01T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>6594420255000</v>
+        <v>3056676262000</v>
       </c>
       <c r="L30">
-        <v>374859900</v>
+        <v>172716700</v>
       </c>
       <c r="M30">
-        <v>-10579200</v>
+        <v>-1249000</v>
       </c>
       <c r="N30">
-        <v>-166578904000</v>
+        <v>-16821954000</v>
       </c>
       <c r="O30">
-        <v>-37559100</v>
+        <v>-513700</v>
       </c>
       <c r="P30">
-        <v>-672076343000</v>
+        <v>37028320000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1675256700000</v>
+        <v>1675246320000</v>
       </c>
       <c r="B31">
-        <v>6835200</v>
+        <v>1826700</v>
       </c>
       <c r="C31">
-        <v>5729900</v>
+        <v>2019800</v>
       </c>
       <c r="D31">
-        <v>18700</v>
+        <v>2500</v>
       </c>
       <c r="E31">
-        <v>118441366000</v>
+        <v>33709088000</v>
       </c>
       <c r="F31">
-        <v>107195740000</v>
+        <v>33632573000</v>
       </c>
       <c r="G31">
-        <v>225977000</v>
+        <v>59890000</v>
       </c>
       <c r="H31">
-        <v>12583800</v>
+        <v>3849000</v>
       </c>
       <c r="I31">
-        <v>225863083000</v>
+        <v>67401551000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-02-01T13:05:00.000Z</v>
+        <v>2023-02-01T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>6820283338000</v>
+        <v>3124077813000</v>
       </c>
       <c r="L31">
-        <v>387443700</v>
+        <v>176565700</v>
       </c>
       <c r="M31">
-        <v>-1105300</v>
+        <v>193100</v>
       </c>
       <c r="N31">
-        <v>-11245626000</v>
+        <v>-76515000</v>
       </c>
       <c r="O31">
-        <v>-38664400</v>
+        <v>-320600</v>
       </c>
       <c r="P31">
-        <v>-683321969000</v>
+        <v>36951805000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675257000000</v>
+        <v>1675246440000</v>
       </c>
       <c r="B32">
-        <v>6678400</v>
+        <v>1648600</v>
       </c>
       <c r="C32">
-        <v>6620200</v>
+        <v>1519300</v>
       </c>
       <c r="D32">
-        <v>20600</v>
+        <v>10400</v>
       </c>
       <c r="E32">
-        <v>117128087000</v>
+        <v>28107425000</v>
       </c>
       <c r="F32">
-        <v>127106264000</v>
+        <v>24988774000</v>
       </c>
       <c r="G32">
-        <v>521850000</v>
+        <v>212927000</v>
       </c>
       <c r="H32">
-        <v>13319200</v>
+        <v>3178300</v>
       </c>
       <c r="I32">
-        <v>244756201000</v>
+        <v>53309126000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-02-01T13:10:00.000Z</v>
+        <v>2023-02-01T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>7065039539000</v>
+        <v>3177386939000</v>
       </c>
       <c r="L32">
-        <v>400762900</v>
+        <v>179744000</v>
       </c>
       <c r="M32">
-        <v>-58200</v>
+        <v>-129300</v>
       </c>
       <c r="N32">
-        <v>9978177000</v>
+        <v>-3118651000</v>
       </c>
       <c r="O32">
-        <v>-38722600</v>
+        <v>-449900</v>
       </c>
       <c r="P32">
-        <v>-673343792000</v>
+        <v>33833154000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675257300000</v>
+        <v>1675246560000</v>
       </c>
       <c r="B33">
-        <v>3977200</v>
+        <v>1805300</v>
       </c>
       <c r="C33">
-        <v>5881100</v>
+        <v>2633500</v>
       </c>
       <c r="D33">
-        <v>47000</v>
+        <v>500</v>
       </c>
       <c r="E33">
-        <v>75310107000</v>
+        <v>31550600000</v>
       </c>
       <c r="F33">
-        <v>100322079000</v>
+        <v>47623676000</v>
       </c>
       <c r="G33">
-        <v>874170000</v>
+        <v>15530000</v>
       </c>
       <c r="H33">
-        <v>9905300</v>
+        <v>4439300</v>
       </c>
       <c r="I33">
-        <v>176506356000</v>
+        <v>79189806000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-02-01T13:15:00.000Z</v>
+        <v>2023-02-01T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>7241545895000</v>
+        <v>3256576745000</v>
       </c>
       <c r="L33">
-        <v>410668200</v>
+        <v>184183300</v>
       </c>
       <c r="M33">
-        <v>1903900</v>
+        <v>828200</v>
       </c>
       <c r="N33">
-        <v>25011972000</v>
+        <v>16073076000</v>
       </c>
       <c r="O33">
-        <v>-36818700</v>
+        <v>378300</v>
       </c>
       <c r="P33">
-        <v>-648331820000</v>
+        <v>49906230000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675257600000</v>
+        <v>1675246680000</v>
       </c>
       <c r="B34">
-        <v>5164500</v>
+        <v>1454000</v>
       </c>
       <c r="C34">
-        <v>7228800</v>
+        <v>2195900</v>
       </c>
       <c r="D34">
-        <v>19200</v>
+        <v>3700</v>
       </c>
       <c r="E34">
-        <v>92790937000</v>
+        <v>27710516000</v>
       </c>
       <c r="F34">
-        <v>124269941000</v>
+        <v>42527700000</v>
       </c>
       <c r="G34">
-        <v>260005000</v>
+        <v>143864000</v>
       </c>
       <c r="H34">
-        <v>12412500</v>
+        <v>3653600</v>
       </c>
       <c r="I34">
-        <v>217320883000</v>
+        <v>70382080000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-02-01T13:20:00.000Z</v>
+        <v>2023-02-01T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>7458866778000</v>
+        <v>3326958825000</v>
       </c>
       <c r="L34">
-        <v>423080700</v>
+        <v>187836900</v>
       </c>
       <c r="M34">
-        <v>2064300</v>
+        <v>741900</v>
       </c>
       <c r="N34">
-        <v>31479004000</v>
+        <v>14817184000</v>
       </c>
       <c r="O34">
-        <v>-34754400</v>
+        <v>1120200</v>
       </c>
       <c r="P34">
-        <v>-616852816000</v>
+        <v>64723414000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675257900000</v>
+        <v>1675246800000</v>
       </c>
       <c r="B35">
-        <v>3767600</v>
+        <v>1619800</v>
       </c>
       <c r="C35">
-        <v>6125900</v>
+        <v>2588900</v>
       </c>
       <c r="D35">
-        <v>56700</v>
+        <v>4800</v>
       </c>
       <c r="E35">
-        <v>72069062000</v>
+        <v>27048894000</v>
       </c>
       <c r="F35">
-        <v>121491705000</v>
+        <v>47603452000</v>
       </c>
       <c r="G35">
-        <v>1301647000</v>
+        <v>151100000</v>
       </c>
       <c r="H35">
-        <v>9950200</v>
+        <v>4213500</v>
       </c>
       <c r="I35">
-        <v>194862414000</v>
+        <v>74803446000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-02-01T13:25:00.000Z</v>
+        <v>2023-02-01T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>7653729192000</v>
+        <v>3401762271000</v>
       </c>
       <c r="L35">
-        <v>433030900</v>
+        <v>192050400</v>
       </c>
       <c r="M35">
-        <v>2358300</v>
+        <v>969100</v>
       </c>
       <c r="N35">
-        <v>49422643000</v>
+        <v>20554558000</v>
       </c>
       <c r="O35">
-        <v>-32396100</v>
+        <v>2089300</v>
       </c>
       <c r="P35">
-        <v>-567430173000</v>
+        <v>85277972000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675258200000</v>
+        <v>1675246920000</v>
       </c>
       <c r="B36">
-        <v>3092800</v>
+        <v>1545200</v>
       </c>
       <c r="C36">
-        <v>12811200</v>
+        <v>1675200</v>
       </c>
       <c r="D36">
-        <v>34400</v>
+        <v>3600</v>
       </c>
       <c r="E36">
-        <v>60927798000</v>
+        <v>31016215000</v>
       </c>
       <c r="F36">
-        <v>237087951000</v>
+        <v>33403217000</v>
       </c>
       <c r="G36">
-        <v>692773000</v>
+        <v>80770000</v>
       </c>
       <c r="H36">
-        <v>15938400</v>
+        <v>3224000</v>
       </c>
       <c r="I36">
-        <v>298708522000</v>
+        <v>64500202000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-02-01T13:30:00.000Z</v>
+        <v>2023-02-01T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>7952437714000</v>
+        <v>3466262473000</v>
       </c>
       <c r="L36">
-        <v>448969300</v>
+        <v>195274400</v>
       </c>
       <c r="M36">
-        <v>9718400</v>
+        <v>130000</v>
       </c>
       <c r="N36">
-        <v>176160153000</v>
+        <v>2387002000</v>
       </c>
       <c r="O36">
-        <v>-22677700</v>
+        <v>2219300</v>
       </c>
       <c r="P36">
-        <v>-391270020000</v>
+        <v>87664974000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675258500000</v>
+        <v>1675247040000</v>
       </c>
       <c r="B37">
-        <v>5216800</v>
+        <v>1369800</v>
       </c>
       <c r="C37">
-        <v>9459700</v>
+        <v>1801400</v>
       </c>
       <c r="D37">
-        <v>40300</v>
+        <v>4700</v>
       </c>
       <c r="E37">
-        <v>91759176000</v>
+        <v>24865372000</v>
       </c>
       <c r="F37">
-        <v>169691112000</v>
+        <v>34186200000</v>
       </c>
       <c r="G37">
-        <v>442918000</v>
+        <v>250520000</v>
       </c>
       <c r="H37">
-        <v>14716800</v>
+        <v>3175900</v>
       </c>
       <c r="I37">
-        <v>261893206000</v>
+        <v>59302092000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-02-01T13:35:00.000Z</v>
+        <v>2023-02-01T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>8214330920000</v>
+        <v>3525564565000</v>
       </c>
       <c r="L37">
-        <v>463686100</v>
+        <v>198450300</v>
       </c>
       <c r="M37">
-        <v>4242900</v>
+        <v>431600</v>
       </c>
       <c r="N37">
-        <v>77931936000</v>
+        <v>9320828000</v>
       </c>
       <c r="O37">
-        <v>-18434800</v>
+        <v>2650900</v>
       </c>
       <c r="P37">
-        <v>-313338084000</v>
+        <v>96985802000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675258800000</v>
+        <v>1675247160000</v>
       </c>
       <c r="B38">
-        <v>7341400</v>
+        <v>1797700</v>
       </c>
       <c r="C38">
-        <v>6908700</v>
+        <v>3302800</v>
       </c>
       <c r="D38">
-        <v>149000</v>
+        <v>300</v>
       </c>
       <c r="E38">
-        <v>142699133000</v>
+        <v>32610973000</v>
       </c>
       <c r="F38">
-        <v>144026685000</v>
+        <v>52018770000</v>
       </c>
       <c r="G38">
-        <v>2117480000</v>
+        <v>2498000</v>
       </c>
       <c r="H38">
-        <v>14399100</v>
+        <v>5100800</v>
       </c>
       <c r="I38">
-        <v>288843298000</v>
+        <v>84632241000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-02-01T13:40:00.000Z</v>
+        <v>2023-02-01T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>8503174218000</v>
+        <v>3610196806000</v>
       </c>
       <c r="L38">
-        <v>478085200</v>
+        <v>203551100</v>
       </c>
       <c r="M38">
-        <v>-432700</v>
+        <v>1505100</v>
       </c>
       <c r="N38">
-        <v>1327552000</v>
+        <v>19407797000</v>
       </c>
       <c r="O38">
-        <v>-18867500</v>
+        <v>4156000</v>
       </c>
       <c r="P38">
-        <v>-312010532000</v>
+        <v>116393599000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675259100000</v>
+        <v>1675247280000</v>
       </c>
       <c r="B39">
-        <v>6456900</v>
+        <v>1631400</v>
       </c>
       <c r="C39">
-        <v>7355600</v>
+        <v>2935400</v>
       </c>
       <c r="D39">
-        <v>110000</v>
+        <v>1300</v>
       </c>
       <c r="E39">
-        <v>121417756000</v>
+        <v>33468080000</v>
       </c>
       <c r="F39">
-        <v>155474273000</v>
+        <v>54355394000</v>
       </c>
       <c r="G39">
-        <v>2406218000</v>
+        <v>22345000</v>
       </c>
       <c r="H39">
-        <v>13922500</v>
+        <v>4568100</v>
       </c>
       <c r="I39">
-        <v>279298247000</v>
+        <v>87845819000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-02-01T13:45:00.000Z</v>
+        <v>2023-02-01T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>8782472465000</v>
+        <v>3698042625000</v>
       </c>
       <c r="L39">
-        <v>492007700</v>
+        <v>208119200</v>
       </c>
       <c r="M39">
-        <v>898700</v>
+        <v>1304000</v>
       </c>
       <c r="N39">
-        <v>34056517000</v>
+        <v>20887314000</v>
       </c>
       <c r="O39">
-        <v>-17968800</v>
+        <v>5460000</v>
       </c>
       <c r="P39">
-        <v>-277954015000</v>
+        <v>137280913000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675259400000</v>
+        <v>1675247400000</v>
       </c>
       <c r="B40">
-        <v>27098200</v>
+        <v>2487500</v>
       </c>
       <c r="C40">
-        <v>4905700</v>
+        <v>2070500</v>
       </c>
       <c r="D40">
-        <v>131100</v>
+        <v>9800</v>
       </c>
       <c r="E40">
-        <v>488650882000</v>
+        <v>47998967000</v>
       </c>
       <c r="F40">
-        <v>88700270000</v>
+        <v>33406780000</v>
       </c>
       <c r="G40">
-        <v>2602559000</v>
+        <v>159080000</v>
       </c>
       <c r="H40">
-        <v>32135000</v>
+        <v>4567800</v>
       </c>
       <c r="I40">
-        <v>579953711000</v>
+        <v>81564827000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-02-01T13:50:00.000Z</v>
+        <v>2023-02-01T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>9362426176000</v>
+        <v>3779607452000</v>
       </c>
       <c r="L40">
-        <v>524142700</v>
+        <v>212687000</v>
       </c>
       <c r="M40">
-        <v>-22192500</v>
+        <v>-417000</v>
       </c>
       <c r="N40">
-        <v>-399950612000</v>
+        <v>-14592187000</v>
       </c>
       <c r="O40">
-        <v>-40161300</v>
+        <v>5043000</v>
       </c>
       <c r="P40">
-        <v>-677904627000</v>
+        <v>122688726000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675259700000</v>
+        <v>1675247520000</v>
       </c>
       <c r="B41">
-        <v>15035800</v>
+        <v>2251400</v>
       </c>
       <c r="C41">
-        <v>7298600</v>
+        <v>4423300</v>
       </c>
       <c r="D41">
-        <v>154500</v>
+        <v>122900</v>
       </c>
       <c r="E41">
-        <v>257669886000</v>
+        <v>43696334000</v>
       </c>
       <c r="F41">
-        <v>137772010000</v>
+        <v>47408348000</v>
       </c>
       <c r="G41">
-        <v>2454515000</v>
+        <v>1715460000</v>
       </c>
       <c r="H41">
-        <v>22488900</v>
+        <v>6797600</v>
       </c>
       <c r="I41">
-        <v>397896411000</v>
+        <v>92820142000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-02-01T13:55:00.000Z</v>
+        <v>2023-02-01T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>9760322587000</v>
+        <v>3872427594000</v>
       </c>
       <c r="L41">
-        <v>546631600</v>
+        <v>219484600</v>
       </c>
       <c r="M41">
-        <v>-7737200</v>
+        <v>2171900</v>
       </c>
       <c r="N41">
-        <v>-119897876000</v>
+        <v>3712014000</v>
       </c>
       <c r="O41">
-        <v>-47898500</v>
+        <v>7214900</v>
       </c>
       <c r="P41">
-        <v>-797802503000</v>
+        <v>126400740000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675260000000</v>
+        <v>1675247640000</v>
       </c>
       <c r="B42">
-        <v>41608900</v>
+        <v>2310200</v>
       </c>
       <c r="C42">
-        <v>7687600</v>
+        <v>3161300</v>
       </c>
       <c r="D42">
-        <v>414700</v>
+        <v>9700</v>
       </c>
       <c r="E42">
-        <v>738199962000</v>
+        <v>39984290000</v>
       </c>
       <c r="F42">
-        <v>141996116000</v>
+        <v>62797007000</v>
       </c>
       <c r="G42">
-        <v>8252675000</v>
+        <v>363346000</v>
       </c>
       <c r="H42">
-        <v>49711200</v>
+        <v>5481200</v>
       </c>
       <c r="I42">
-        <v>888448753000</v>
+        <v>103144643000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-02-01T14:00:00.000Z</v>
+        <v>2023-02-01T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>10648771340000</v>
+        <v>3975572237000</v>
       </c>
       <c r="L42">
-        <v>596342800</v>
+        <v>224965800</v>
       </c>
       <c r="M42">
-        <v>-33921300</v>
+        <v>851100</v>
       </c>
       <c r="N42">
-        <v>-596203846000</v>
+        <v>22812717000</v>
       </c>
       <c r="O42">
-        <v>-81819800</v>
+        <v>8066000</v>
       </c>
       <c r="P42">
-        <v>-1394006349000</v>
+        <v>149213457000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675260300000</v>
+        <v>1675247760000</v>
       </c>
       <c r="B43">
-        <v>23854300</v>
+        <v>1961700</v>
       </c>
       <c r="C43">
-        <v>14754700</v>
+        <v>3085700</v>
       </c>
       <c r="D43">
-        <v>266500</v>
+        <v>5000</v>
       </c>
       <c r="E43">
-        <v>377143605000</v>
+        <v>35778413000</v>
       </c>
       <c r="F43">
-        <v>235099560000</v>
+        <v>48052379000</v>
       </c>
       <c r="G43">
-        <v>6115133000</v>
+        <v>70840000</v>
       </c>
       <c r="H43">
-        <v>38875500</v>
+        <v>5052400</v>
       </c>
       <c r="I43">
-        <v>618358298000</v>
+        <v>83901632000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-02-01T14:05:00.000Z</v>
+        <v>2023-02-01T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>11267129638000</v>
+        <v>4059473869000</v>
       </c>
       <c r="L43">
-        <v>635218300</v>
+        <v>230018200</v>
       </c>
       <c r="M43">
-        <v>-9099600</v>
+        <v>1124000</v>
       </c>
       <c r="N43">
-        <v>-142044045000</v>
+        <v>12273966000</v>
       </c>
       <c r="O43">
-        <v>-90919400</v>
+        <v>9190000</v>
       </c>
       <c r="P43">
-        <v>-1536050394000</v>
+        <v>161487423000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675260600000</v>
+        <v>1675247880000</v>
       </c>
       <c r="B44">
-        <v>15673200</v>
+        <v>2274400</v>
       </c>
       <c r="C44">
-        <v>10250700</v>
+        <v>3728500</v>
       </c>
       <c r="D44">
-        <v>131800</v>
+        <v>44400</v>
       </c>
       <c r="E44">
-        <v>289509527000</v>
+        <v>41741803000</v>
       </c>
       <c r="F44">
-        <v>177030478000</v>
+        <v>60630681000</v>
       </c>
       <c r="G44">
-        <v>2082122000</v>
+        <v>683348000</v>
       </c>
       <c r="H44">
-        <v>26055700</v>
+        <v>6047300</v>
       </c>
       <c r="I44">
-        <v>468622127000</v>
+        <v>103055832000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-02-01T14:10:00.000Z</v>
+        <v>2023-02-01T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>11735751765000</v>
+        <v>4162529701000</v>
       </c>
       <c r="L44">
-        <v>661274000</v>
+        <v>236065500</v>
       </c>
       <c r="M44">
-        <v>-5422500</v>
+        <v>1454100</v>
       </c>
       <c r="N44">
-        <v>-112479049000</v>
+        <v>18888878000</v>
       </c>
       <c r="O44">
-        <v>-96341900</v>
+        <v>10644100</v>
       </c>
       <c r="P44">
-        <v>-1648529443000</v>
+        <v>180376301000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675260900000</v>
+        <v>1675248000000</v>
       </c>
       <c r="B45">
-        <v>78331600</v>
+        <v>3963000</v>
       </c>
       <c r="C45">
-        <v>14847400</v>
+        <v>3448500</v>
       </c>
       <c r="D45">
-        <v>1679900</v>
+        <v>75300</v>
       </c>
       <c r="E45">
-        <v>1290329218000</v>
+        <v>92901022000</v>
       </c>
       <c r="F45">
-        <v>242388421000</v>
+        <v>48473727000</v>
       </c>
       <c r="G45">
-        <v>30312168000</v>
+        <v>1475103000</v>
       </c>
       <c r="H45">
-        <v>94858900</v>
+        <v>7486800</v>
       </c>
       <c r="I45">
-        <v>1563029807000</v>
+        <v>142849852000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-02-01T14:15:00.000Z</v>
+        <v>2023-02-01T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>13298781572000</v>
+        <v>4305379553000</v>
       </c>
       <c r="L45">
-        <v>756132900</v>
+        <v>243552300</v>
       </c>
       <c r="M45">
-        <v>-63484200</v>
+        <v>-514500</v>
       </c>
       <c r="N45">
-        <v>-1047940797000</v>
+        <v>-44427295000</v>
       </c>
       <c r="O45">
-        <v>-159826100</v>
+        <v>10129600</v>
       </c>
       <c r="P45">
-        <v>-2696470240000</v>
+        <v>135949006000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675261200000</v>
+        <v>1675248120000</v>
       </c>
       <c r="B46">
-        <v>33354100</v>
+        <v>6631600</v>
       </c>
       <c r="C46">
-        <v>23107400</v>
+        <v>1102500</v>
       </c>
       <c r="D46">
-        <v>447300</v>
+        <v>21200</v>
       </c>
       <c r="E46">
-        <v>548816875000</v>
+        <v>121473156000</v>
       </c>
       <c r="F46">
-        <v>368943368000</v>
+        <v>16587360000</v>
       </c>
       <c r="G46">
-        <v>7186103000</v>
+        <v>511205000</v>
       </c>
       <c r="H46">
-        <v>56908800</v>
+        <v>7755300</v>
       </c>
       <c r="I46">
-        <v>924946346000</v>
+        <v>138571721000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-02-01T14:20:00.000Z</v>
+        <v>2023-02-01T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>14223727918000</v>
+        <v>4443951274000</v>
       </c>
       <c r="L46">
-        <v>813041700</v>
+        <v>251307600</v>
       </c>
       <c r="M46">
-        <v>-10246700</v>
+        <v>-5529100</v>
       </c>
       <c r="N46">
-        <v>-179873507000</v>
+        <v>-104885796000</v>
       </c>
       <c r="O46">
-        <v>-170072800</v>
+        <v>4600500</v>
       </c>
       <c r="P46">
-        <v>-2876343747000</v>
+        <v>31063210000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1675261500000</v>
+        <v>1675248240000</v>
       </c>
       <c r="B47">
-        <v>24485600</v>
+        <v>6869000</v>
       </c>
       <c r="C47">
-        <v>21477100</v>
+        <v>1300200</v>
       </c>
       <c r="D47">
-        <v>513700</v>
+        <v>23900</v>
       </c>
       <c r="E47">
-        <v>412136314000</v>
+        <v>103054759000</v>
       </c>
       <c r="F47">
-        <v>341824377000</v>
+        <v>20691870000</v>
       </c>
       <c r="G47">
-        <v>9835998000</v>
+        <v>276944000</v>
       </c>
       <c r="H47">
-        <v>46476400</v>
+        <v>8193100</v>
       </c>
       <c r="I47">
-        <v>763796689000</v>
+        <v>124023573000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-02-01T14:25:00.000Z</v>
+        <v>2023-02-01T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>14987524607000</v>
+        <v>4567974847000</v>
       </c>
       <c r="L47">
-        <v>859518100</v>
+        <v>259500700</v>
       </c>
       <c r="M47">
-        <v>-3008500</v>
+        <v>-5568800</v>
       </c>
       <c r="N47">
-        <v>-70311937000</v>
+        <v>-82362889000</v>
       </c>
       <c r="O47">
-        <v>-173081300</v>
+        <v>-968300</v>
       </c>
       <c r="P47">
-        <v>-2946655684000</v>
+        <v>-51299679000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1675261800000</v>
+        <v>1675248360000</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>3350900</v>
       </c>
       <c r="C48">
-        <v>400</v>
+        <v>1247600</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E48">
-        <v>1275000</v>
+        <v>54785181000</v>
       </c>
       <c r="F48">
-        <v>14675000</v>
+        <v>21619012000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>221797000</v>
       </c>
       <c r="H48">
-        <v>500</v>
+        <v>4604100</v>
       </c>
       <c r="I48">
-        <v>15950000</v>
+        <v>76625990000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-02-01T14:30:00.000Z</v>
+        <v>2023-02-01T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>14987540557000</v>
+        <v>4644600837000</v>
       </c>
       <c r="L48">
-        <v>859518600</v>
+        <v>264104800</v>
       </c>
       <c r="M48">
-        <v>300</v>
+        <v>-2103300</v>
       </c>
       <c r="N48">
-        <v>13400000</v>
+        <v>-33166169000</v>
       </c>
       <c r="O48">
-        <v>-173081000</v>
+        <v>-3071600</v>
       </c>
       <c r="P48">
-        <v>-2946642284000</v>
+        <v>-84465848000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1675262700000</v>
+        <v>1675248480000</v>
       </c>
       <c r="B49">
+        <v>3195000</v>
+      </c>
+      <c r="C49">
+        <v>2256700</v>
+      </c>
+      <c r="D49">
+        <v>6600</v>
+      </c>
+      <c r="E49">
+        <v>51316929000</v>
+      </c>
+      <c r="F49">
+        <v>38177286000</v>
+      </c>
+      <c r="G49">
+        <v>132166000</v>
+      </c>
+      <c r="H49">
+        <v>5458300</v>
+      </c>
+      <c r="I49">
+        <v>89626381000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-02-01T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>4734227218000</v>
+      </c>
+      <c r="L49">
+        <v>269563100</v>
+      </c>
+      <c r="M49">
+        <v>-938300</v>
+      </c>
+      <c r="N49">
+        <v>-13139643000</v>
+      </c>
+      <c r="O49">
+        <v>-4009900</v>
+      </c>
+      <c r="P49">
+        <v>-97605491000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1675248600000</v>
+      </c>
+      <c r="B50">
+        <v>3337200</v>
+      </c>
+      <c r="C50">
+        <v>1773900</v>
+      </c>
+      <c r="D50">
+        <v>6700</v>
+      </c>
+      <c r="E50">
+        <v>62893036000</v>
+      </c>
+      <c r="F50">
+        <v>30091641000</v>
+      </c>
+      <c r="G50">
+        <v>121639000</v>
+      </c>
+      <c r="H50">
+        <v>5117800</v>
+      </c>
+      <c r="I50">
+        <v>93106316000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-02-01T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>4827333534000</v>
+      </c>
+      <c r="L50">
+        <v>274680900</v>
+      </c>
+      <c r="M50">
+        <v>-1563300</v>
+      </c>
+      <c r="N50">
+        <v>-32801395000</v>
+      </c>
+      <c r="O50">
+        <v>-5573200</v>
+      </c>
+      <c r="P50">
+        <v>-130406886000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1675248720000</v>
+      </c>
+      <c r="B51">
+        <v>4401300</v>
+      </c>
+      <c r="C51">
+        <v>1585600</v>
+      </c>
+      <c r="D51">
+        <v>8000</v>
+      </c>
+      <c r="E51">
+        <v>75678678000</v>
+      </c>
+      <c r="F51">
+        <v>25006689000</v>
+      </c>
+      <c r="G51">
+        <v>117728000</v>
+      </c>
+      <c r="H51">
+        <v>5994900</v>
+      </c>
+      <c r="I51">
+        <v>100803095000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-02-01T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>4928136629000</v>
+      </c>
+      <c r="L51">
+        <v>280675800</v>
+      </c>
+      <c r="M51">
+        <v>-2815700</v>
+      </c>
+      <c r="N51">
+        <v>-50671989000</v>
+      </c>
+      <c r="O51">
+        <v>-8388900</v>
+      </c>
+      <c r="P51">
+        <v>-181078875000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1675248840000</v>
+      </c>
+      <c r="B52">
+        <v>3299100</v>
+      </c>
+      <c r="C52">
+        <v>1639200</v>
+      </c>
+      <c r="D52">
+        <v>1700</v>
+      </c>
+      <c r="E52">
+        <v>58737660000</v>
+      </c>
+      <c r="F52">
+        <v>28819967000</v>
+      </c>
+      <c r="G52">
+        <v>85875000</v>
+      </c>
+      <c r="H52">
+        <v>4940000</v>
+      </c>
+      <c r="I52">
+        <v>87643502000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-02-01T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>5015780131000</v>
+      </c>
+      <c r="L52">
+        <v>285615800</v>
+      </c>
+      <c r="M52">
+        <v>-1659900</v>
+      </c>
+      <c r="N52">
+        <v>-29917693000</v>
+      </c>
+      <c r="O52">
+        <v>-10048800</v>
+      </c>
+      <c r="P52">
+        <v>-210996568000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1675248960000</v>
+      </c>
+      <c r="B53">
+        <v>3116300</v>
+      </c>
+      <c r="C53">
+        <v>1594700</v>
+      </c>
+      <c r="D53">
+        <v>8000</v>
+      </c>
+      <c r="E53">
+        <v>50760404000</v>
+      </c>
+      <c r="F53">
+        <v>24428055000</v>
+      </c>
+      <c r="G53">
+        <v>162390000</v>
+      </c>
+      <c r="H53">
+        <v>4719000</v>
+      </c>
+      <c r="I53">
+        <v>75350849000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-02-01T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>5091130980000</v>
+      </c>
+      <c r="L53">
+        <v>290334800</v>
+      </c>
+      <c r="M53">
+        <v>-1521600</v>
+      </c>
+      <c r="N53">
+        <v>-26332349000</v>
+      </c>
+      <c r="O53">
+        <v>-11570400</v>
+      </c>
+      <c r="P53">
+        <v>-237328917000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1675249080000</v>
+      </c>
+      <c r="B54">
+        <v>2062000</v>
+      </c>
+      <c r="C54">
+        <v>1427400</v>
+      </c>
+      <c r="D54">
+        <v>2400</v>
+      </c>
+      <c r="E54">
+        <v>33534583000</v>
+      </c>
+      <c r="F54">
+        <v>27996781000</v>
+      </c>
+      <c r="G54">
+        <v>119460000</v>
+      </c>
+      <c r="H54">
+        <v>3491800</v>
+      </c>
+      <c r="I54">
+        <v>61650824000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-02-01T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>5152781804000</v>
+      </c>
+      <c r="L54">
+        <v>293826600</v>
+      </c>
+      <c r="M54">
+        <v>-634600</v>
+      </c>
+      <c r="N54">
+        <v>-5537802000</v>
+      </c>
+      <c r="O54">
+        <v>-12205000</v>
+      </c>
+      <c r="P54">
+        <v>-242866719000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1675249200000</v>
+      </c>
+      <c r="B55">
+        <v>2489700</v>
+      </c>
+      <c r="C55">
+        <v>1264100</v>
+      </c>
+      <c r="D55">
+        <v>8000</v>
+      </c>
+      <c r="E55">
+        <v>46794529000</v>
+      </c>
+      <c r="F55">
+        <v>23619301000</v>
+      </c>
+      <c r="G55">
+        <v>31212000</v>
+      </c>
+      <c r="H55">
+        <v>3761800</v>
+      </c>
+      <c r="I55">
+        <v>70445042000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-02-01T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>5223226846000</v>
+      </c>
+      <c r="L55">
+        <v>297588400</v>
+      </c>
+      <c r="M55">
+        <v>-1225600</v>
+      </c>
+      <c r="N55">
+        <v>-23175228000</v>
+      </c>
+      <c r="O55">
+        <v>-13430600</v>
+      </c>
+      <c r="P55">
+        <v>-266041947000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1675249320000</v>
+      </c>
+      <c r="B56">
+        <v>1602300</v>
+      </c>
+      <c r="C56">
+        <v>1903500</v>
+      </c>
+      <c r="D56">
+        <v>2900</v>
+      </c>
+      <c r="E56">
+        <v>28261707000</v>
+      </c>
+      <c r="F56">
+        <v>32357247000</v>
+      </c>
+      <c r="G56">
+        <v>127550000</v>
+      </c>
+      <c r="H56">
+        <v>3508700</v>
+      </c>
+      <c r="I56">
+        <v>60746504000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-02-01T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>5283973350000</v>
+      </c>
+      <c r="L56">
+        <v>301097100</v>
+      </c>
+      <c r="M56">
+        <v>301200</v>
+      </c>
+      <c r="N56">
+        <v>4095540000</v>
+      </c>
+      <c r="O56">
+        <v>-13129400</v>
+      </c>
+      <c r="P56">
+        <v>-261946407000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1675249440000</v>
+      </c>
+      <c r="B57">
+        <v>3014200</v>
+      </c>
+      <c r="C57">
+        <v>702500</v>
+      </c>
+      <c r="D57">
+        <v>2600</v>
+      </c>
+      <c r="E57">
+        <v>54318859000</v>
+      </c>
+      <c r="F57">
+        <v>15001445000</v>
+      </c>
+      <c r="G57">
+        <v>66565000</v>
+      </c>
+      <c r="H57">
+        <v>3719300</v>
+      </c>
+      <c r="I57">
+        <v>69386869000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-02-01T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>5353360219000</v>
+      </c>
+      <c r="L57">
+        <v>304816400</v>
+      </c>
+      <c r="M57">
+        <v>-2311700</v>
+      </c>
+      <c r="N57">
+        <v>-39317414000</v>
+      </c>
+      <c r="O57">
+        <v>-15441100</v>
+      </c>
+      <c r="P57">
+        <v>-301263821000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1675249560000</v>
+      </c>
+      <c r="B58">
+        <v>1621800</v>
+      </c>
+      <c r="C58">
+        <v>1889200</v>
+      </c>
+      <c r="D58">
+        <v>108600</v>
+      </c>
+      <c r="E58">
+        <v>28322632000</v>
+      </c>
+      <c r="F58">
+        <v>32217270000</v>
+      </c>
+      <c r="G58">
+        <v>765220000</v>
+      </c>
+      <c r="H58">
+        <v>3619600</v>
+      </c>
+      <c r="I58">
+        <v>61305122000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-02-01T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>5414665341000</v>
+      </c>
+      <c r="L58">
+        <v>308436000</v>
+      </c>
+      <c r="M58">
+        <v>267400</v>
+      </c>
+      <c r="N58">
+        <v>3894638000</v>
+      </c>
+      <c r="O58">
+        <v>-15173700</v>
+      </c>
+      <c r="P58">
+        <v>-297369183000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1675249680000</v>
+      </c>
+      <c r="B59">
+        <v>1902900</v>
+      </c>
+      <c r="C59">
+        <v>1698300</v>
+      </c>
+      <c r="D59">
+        <v>18400</v>
+      </c>
+      <c r="E59">
+        <v>29190235000</v>
+      </c>
+      <c r="F59">
+        <v>30873437000</v>
+      </c>
+      <c r="G59">
+        <v>239403000</v>
+      </c>
+      <c r="H59">
+        <v>3619600</v>
+      </c>
+      <c r="I59">
+        <v>60303075000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-02-01T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>5474968416000</v>
+      </c>
+      <c r="L59">
+        <v>312055600</v>
+      </c>
+      <c r="M59">
+        <v>-204600</v>
+      </c>
+      <c r="N59">
+        <v>1683202000</v>
+      </c>
+      <c r="O59">
+        <v>-15378300</v>
+      </c>
+      <c r="P59">
+        <v>-295685981000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1675249800000</v>
+      </c>
+      <c r="B60">
+        <v>1551200</v>
+      </c>
+      <c r="C60">
+        <v>2390400</v>
+      </c>
+      <c r="D60">
+        <v>14900</v>
+      </c>
+      <c r="E60">
+        <v>25140594000</v>
+      </c>
+      <c r="F60">
+        <v>45067594000</v>
+      </c>
+      <c r="G60">
+        <v>311916000</v>
+      </c>
+      <c r="H60">
+        <v>3956500</v>
+      </c>
+      <c r="I60">
+        <v>70520104000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-02-01T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>5545488520000</v>
+      </c>
+      <c r="L60">
+        <v>316012100</v>
+      </c>
+      <c r="M60">
+        <v>839200</v>
+      </c>
+      <c r="N60">
+        <v>19927000000</v>
+      </c>
+      <c r="O60">
+        <v>-14539100</v>
+      </c>
+      <c r="P60">
+        <v>-275758981000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1675249920000</v>
+      </c>
+      <c r="B61">
+        <v>1552100</v>
+      </c>
+      <c r="C61">
+        <v>2165300</v>
+      </c>
+      <c r="D61">
+        <v>8200</v>
+      </c>
+      <c r="E61">
+        <v>26221587000</v>
+      </c>
+      <c r="F61">
+        <v>43039136000</v>
+      </c>
+      <c r="G61">
+        <v>200030000</v>
+      </c>
+      <c r="H61">
+        <v>3725600</v>
+      </c>
+      <c r="I61">
+        <v>69460753000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-02-01T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>5614949273000</v>
+      </c>
+      <c r="L61">
+        <v>319737700</v>
+      </c>
+      <c r="M61">
+        <v>613200</v>
+      </c>
+      <c r="N61">
+        <v>16817549000</v>
+      </c>
+      <c r="O61">
+        <v>-13925900</v>
+      </c>
+      <c r="P61">
+        <v>-258941432000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1675250040000</v>
+      </c>
+      <c r="B62">
+        <v>1707700</v>
+      </c>
+      <c r="C62">
+        <v>1172300</v>
+      </c>
+      <c r="D62">
+        <v>1700</v>
+      </c>
+      <c r="E62">
+        <v>31620027000</v>
+      </c>
+      <c r="F62">
+        <v>18877016000</v>
+      </c>
+      <c r="G62">
+        <v>44545000</v>
+      </c>
+      <c r="H62">
+        <v>2881700</v>
+      </c>
+      <c r="I62">
+        <v>50541588000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-02-01T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>5665490861000</v>
+      </c>
+      <c r="L62">
+        <v>322619400</v>
+      </c>
+      <c r="M62">
+        <v>-535400</v>
+      </c>
+      <c r="N62">
+        <v>-12743011000</v>
+      </c>
+      <c r="O62">
+        <v>-14461300</v>
+      </c>
+      <c r="P62">
+        <v>-271684443000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1675250160000</v>
+      </c>
+      <c r="B63">
+        <v>1709900</v>
+      </c>
+      <c r="C63">
+        <v>1003700</v>
+      </c>
+      <c r="D63">
+        <v>23800</v>
+      </c>
+      <c r="E63">
+        <v>28994611000</v>
+      </c>
+      <c r="F63">
+        <v>20239074000</v>
+      </c>
+      <c r="G63">
+        <v>168221000</v>
+      </c>
+      <c r="H63">
+        <v>2737400</v>
+      </c>
+      <c r="I63">
+        <v>49401906000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-02-01T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>5714892767000</v>
+      </c>
+      <c r="L63">
+        <v>325356800</v>
+      </c>
+      <c r="M63">
+        <v>-706200</v>
+      </c>
+      <c r="N63">
+        <v>-8755537000</v>
+      </c>
+      <c r="O63">
+        <v>-15167500</v>
+      </c>
+      <c r="P63">
+        <v>-280439980000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1675250280000</v>
+      </c>
+      <c r="B64">
+        <v>2236100</v>
+      </c>
+      <c r="C64">
+        <v>1077200</v>
+      </c>
+      <c r="D64">
+        <v>2300</v>
+      </c>
+      <c r="E64">
+        <v>42731771000</v>
+      </c>
+      <c r="F64">
+        <v>18387374000</v>
+      </c>
+      <c r="G64">
+        <v>28140000</v>
+      </c>
+      <c r="H64">
+        <v>3315600</v>
+      </c>
+      <c r="I64">
+        <v>61147285000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-02-01T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>5776040052000</v>
+      </c>
+      <c r="L64">
+        <v>328672400</v>
+      </c>
+      <c r="M64">
+        <v>-1158900</v>
+      </c>
+      <c r="N64">
+        <v>-24344397000</v>
+      </c>
+      <c r="O64">
+        <v>-16326400</v>
+      </c>
+      <c r="P64">
+        <v>-304784377000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1675250400000</v>
+      </c>
+      <c r="B65">
+        <v>3236900</v>
+      </c>
+      <c r="C65">
+        <v>1013000</v>
+      </c>
+      <c r="D65">
+        <v>8200</v>
+      </c>
+      <c r="E65">
+        <v>63082648000</v>
+      </c>
+      <c r="F65">
+        <v>14007851000</v>
+      </c>
+      <c r="G65">
+        <v>118902000</v>
+      </c>
+      <c r="H65">
+        <v>4258100</v>
+      </c>
+      <c r="I65">
+        <v>77209401000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-02-01T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>5853249453000</v>
+      </c>
+      <c r="L65">
+        <v>332930500</v>
+      </c>
+      <c r="M65">
+        <v>-2223900</v>
+      </c>
+      <c r="N65">
+        <v>-49074797000</v>
+      </c>
+      <c r="O65">
+        <v>-18550300</v>
+      </c>
+      <c r="P65">
+        <v>-353859174000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1675250520000</v>
+      </c>
+      <c r="B66">
+        <v>1800800</v>
+      </c>
+      <c r="C66">
+        <v>1243600</v>
+      </c>
+      <c r="D66">
+        <v>3800</v>
+      </c>
+      <c r="E66">
+        <v>32459939000</v>
+      </c>
+      <c r="F66">
+        <v>22632948000</v>
+      </c>
+      <c r="G66">
+        <v>72525000</v>
+      </c>
+      <c r="H66">
+        <v>3048200</v>
+      </c>
+      <c r="I66">
+        <v>55165412000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-02-01T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>5908414865000</v>
+      </c>
+      <c r="L66">
+        <v>335978700</v>
+      </c>
+      <c r="M66">
+        <v>-557200</v>
+      </c>
+      <c r="N66">
+        <v>-9826991000</v>
+      </c>
+      <c r="O66">
+        <v>-19107500</v>
+      </c>
+      <c r="P66">
+        <v>-363686165000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1675250640000</v>
+      </c>
+      <c r="B67">
+        <v>2917800</v>
+      </c>
+      <c r="C67">
+        <v>615000</v>
+      </c>
+      <c r="D67">
+        <v>10300</v>
+      </c>
+      <c r="E67">
+        <v>52848859000</v>
+      </c>
+      <c r="F67">
+        <v>11397569000</v>
+      </c>
+      <c r="G67">
+        <v>218753000</v>
+      </c>
+      <c r="H67">
+        <v>3543100</v>
+      </c>
+      <c r="I67">
+        <v>64465181000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-02-01T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>5972880046000</v>
+      </c>
+      <c r="L67">
+        <v>339521800</v>
+      </c>
+      <c r="M67">
+        <v>-2302800</v>
+      </c>
+      <c r="N67">
+        <v>-41451290000</v>
+      </c>
+      <c r="O67">
+        <v>-21410300</v>
+      </c>
+      <c r="P67">
+        <v>-405137455000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1675250760000</v>
+      </c>
+      <c r="B68">
+        <v>3956400</v>
+      </c>
+      <c r="C68">
+        <v>762800</v>
+      </c>
+      <c r="D68">
+        <v>12700</v>
+      </c>
+      <c r="E68">
+        <v>75211967000</v>
+      </c>
+      <c r="F68">
+        <v>13742806000</v>
+      </c>
+      <c r="G68">
+        <v>356884000</v>
+      </c>
+      <c r="H68">
+        <v>4731900</v>
+      </c>
+      <c r="I68">
+        <v>89311657000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-02-01T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>6062191703000</v>
+      </c>
+      <c r="L68">
+        <v>344253700</v>
+      </c>
+      <c r="M68">
+        <v>-3193600</v>
+      </c>
+      <c r="N68">
+        <v>-61469161000</v>
+      </c>
+      <c r="O68">
+        <v>-24603900</v>
+      </c>
+      <c r="P68">
+        <v>-466606616000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1675250880000</v>
+      </c>
+      <c r="B69">
+        <v>3322400</v>
+      </c>
+      <c r="C69">
+        <v>946400</v>
+      </c>
+      <c r="D69">
+        <v>2600</v>
+      </c>
+      <c r="E69">
+        <v>59667864000</v>
+      </c>
+      <c r="F69">
+        <v>20777041000</v>
+      </c>
+      <c r="G69">
+        <v>52027000</v>
+      </c>
+      <c r="H69">
+        <v>4271400</v>
+      </c>
+      <c r="I69">
+        <v>80496932000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-02-01T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>6142688635000</v>
+      </c>
+      <c r="L69">
+        <v>348525100</v>
+      </c>
+      <c r="M69">
+        <v>-2376000</v>
+      </c>
+      <c r="N69">
+        <v>-38890823000</v>
+      </c>
+      <c r="O69">
+        <v>-26979900</v>
+      </c>
+      <c r="P69">
+        <v>-505497439000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1675256400000</v>
+      </c>
+      <c r="B70">
+        <v>12230700</v>
+      </c>
+      <c r="C70">
+        <v>4721900</v>
+      </c>
+      <c r="D70">
+        <v>350000</v>
+      </c>
+      <c r="E70">
+        <v>206668682000</v>
+      </c>
+      <c r="F70">
+        <v>81029624000</v>
+      </c>
+      <c r="G70">
+        <v>6413510000</v>
+      </c>
+      <c r="H70">
+        <v>17302600</v>
+      </c>
+      <c r="I70">
+        <v>294111816000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-02-01T13:00:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>6436800451000</v>
+      </c>
+      <c r="L70">
+        <v>365827700</v>
+      </c>
+      <c r="M70">
+        <v>-7508800</v>
+      </c>
+      <c r="N70">
+        <v>-125639058000</v>
+      </c>
+      <c r="O70">
+        <v>-34488700</v>
+      </c>
+      <c r="P70">
+        <v>-631136497000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1675256520000</v>
+      </c>
+      <c r="B71">
+        <v>4644600</v>
+      </c>
+      <c r="C71">
+        <v>2106200</v>
+      </c>
+      <c r="D71">
+        <v>16600</v>
+      </c>
+      <c r="E71">
+        <v>75673100000</v>
+      </c>
+      <c r="F71">
+        <v>39186483000</v>
+      </c>
+      <c r="G71">
+        <v>522036000</v>
+      </c>
+      <c r="H71">
+        <v>6767400</v>
+      </c>
+      <c r="I71">
+        <v>115381619000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-02-01T13:02:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>6552182070000</v>
+      </c>
+      <c r="L71">
+        <v>372595100</v>
+      </c>
+      <c r="M71">
+        <v>-2538400</v>
+      </c>
+      <c r="N71">
+        <v>-36486617000</v>
+      </c>
+      <c r="O71">
+        <v>-37027100</v>
+      </c>
+      <c r="P71">
+        <v>-667623114000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1675256640000</v>
+      </c>
+      <c r="B72">
+        <v>2998300</v>
+      </c>
+      <c r="C72">
+        <v>2654300</v>
+      </c>
+      <c r="D72">
+        <v>2300</v>
+      </c>
+      <c r="E72">
+        <v>48338124000</v>
+      </c>
+      <c r="F72">
+        <v>52462176000</v>
+      </c>
+      <c r="G72">
+        <v>75136000</v>
+      </c>
+      <c r="H72">
+        <v>5654900</v>
+      </c>
+      <c r="I72">
+        <v>100875436000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-02-01T13:04:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>6653057506000</v>
+      </c>
+      <c r="L72">
+        <v>378250000</v>
+      </c>
+      <c r="M72">
+        <v>-344000</v>
+      </c>
+      <c r="N72">
+        <v>4124052000</v>
+      </c>
+      <c r="O72">
+        <v>-37371100</v>
+      </c>
+      <c r="P72">
+        <v>-663499062000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1675256760000</v>
+      </c>
+      <c r="B73">
+        <v>3016700</v>
+      </c>
+      <c r="C73">
+        <v>2112400</v>
+      </c>
+      <c r="D73">
+        <v>18300</v>
+      </c>
+      <c r="E73">
+        <v>54962058000</v>
+      </c>
+      <c r="F73">
+        <v>38616136000</v>
+      </c>
+      <c r="G73">
+        <v>211612000</v>
+      </c>
+      <c r="H73">
+        <v>5147400</v>
+      </c>
+      <c r="I73">
+        <v>93789806000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-02-01T13:06:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>6746847312000</v>
+      </c>
+      <c r="L73">
+        <v>383397400</v>
+      </c>
+      <c r="M73">
+        <v>-904300</v>
+      </c>
+      <c r="N73">
+        <v>-16345922000</v>
+      </c>
+      <c r="O73">
+        <v>-38275400</v>
+      </c>
+      <c r="P73">
+        <v>-679844984000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1675256880000</v>
+      </c>
+      <c r="B74">
+        <v>2217500</v>
+      </c>
+      <c r="C74">
+        <v>1828500</v>
+      </c>
+      <c r="D74">
+        <v>300</v>
+      </c>
+      <c r="E74">
+        <v>38449718000</v>
+      </c>
+      <c r="F74">
+        <v>34972733000</v>
+      </c>
+      <c r="G74">
+        <v>13575000</v>
+      </c>
+      <c r="H74">
+        <v>4046300</v>
+      </c>
+      <c r="I74">
+        <v>73436026000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-02-01T13:08:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>6820283338000</v>
+      </c>
+      <c r="L74">
+        <v>387443700</v>
+      </c>
+      <c r="M74">
+        <v>-389000</v>
+      </c>
+      <c r="N74">
+        <v>-3476985000</v>
+      </c>
+      <c r="O74">
+        <v>-38664400</v>
+      </c>
+      <c r="P74">
+        <v>-683321969000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1675257000000</v>
+      </c>
+      <c r="B75">
+        <v>2790900</v>
+      </c>
+      <c r="C75">
+        <v>2918800</v>
+      </c>
+      <c r="D75">
+        <v>7000</v>
+      </c>
+      <c r="E75">
+        <v>49267362000</v>
+      </c>
+      <c r="F75">
+        <v>56228429000</v>
+      </c>
+      <c r="G75">
+        <v>133314000</v>
+      </c>
+      <c r="H75">
+        <v>5716700</v>
+      </c>
+      <c r="I75">
+        <v>105629105000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-02-01T13:10:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>6925912443000</v>
+      </c>
+      <c r="L75">
+        <v>393160400</v>
+      </c>
+      <c r="M75">
+        <v>127900</v>
+      </c>
+      <c r="N75">
+        <v>6961067000</v>
+      </c>
+      <c r="O75">
+        <v>-38536500</v>
+      </c>
+      <c r="P75">
+        <v>-676360902000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1675257120000</v>
+      </c>
+      <c r="B76">
+        <v>2896400</v>
+      </c>
+      <c r="C76">
+        <v>1973200</v>
+      </c>
+      <c r="D76">
+        <v>7500</v>
+      </c>
+      <c r="E76">
+        <v>49555557000</v>
+      </c>
+      <c r="F76">
+        <v>35273803000</v>
+      </c>
+      <c r="G76">
+        <v>126670000</v>
+      </c>
+      <c r="H76">
+        <v>4877100</v>
+      </c>
+      <c r="I76">
+        <v>84956030000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-02-01T13:12:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>7010868473000</v>
+      </c>
+      <c r="L76">
+        <v>398037500</v>
+      </c>
+      <c r="M76">
+        <v>-923200</v>
+      </c>
+      <c r="N76">
+        <v>-14281754000</v>
+      </c>
+      <c r="O76">
+        <v>-39459700</v>
+      </c>
+      <c r="P76">
+        <v>-690642656000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1675257240000</v>
+      </c>
+      <c r="B77">
+        <v>1672800</v>
+      </c>
+      <c r="C77">
+        <v>2939600</v>
+      </c>
+      <c r="D77">
+        <v>14900</v>
+      </c>
+      <c r="E77">
+        <v>29422025000</v>
+      </c>
+      <c r="F77">
+        <v>56061243000</v>
+      </c>
+      <c r="G77">
+        <v>618646000</v>
+      </c>
+      <c r="H77">
+        <v>4627300</v>
+      </c>
+      <c r="I77">
+        <v>86101914000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-02-01T13:14:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>7096970387000</v>
+      </c>
+      <c r="L77">
+        <v>402664800</v>
+      </c>
+      <c r="M77">
+        <v>1266800</v>
+      </c>
+      <c r="N77">
+        <v>26639218000</v>
+      </c>
+      <c r="O77">
+        <v>-38192900</v>
+      </c>
+      <c r="P77">
+        <v>-664003438000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1675257360000</v>
+      </c>
+      <c r="B78">
+        <v>1609500</v>
+      </c>
+      <c r="C78">
+        <v>2464600</v>
+      </c>
+      <c r="D78">
+        <v>23700</v>
+      </c>
+      <c r="E78">
+        <v>29257681000</v>
+      </c>
+      <c r="F78">
+        <v>43179422000</v>
+      </c>
+      <c r="G78">
+        <v>301330000</v>
+      </c>
+      <c r="H78">
+        <v>4097800</v>
+      </c>
+      <c r="I78">
+        <v>72738433000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-02-01T13:16:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>7169708820000</v>
+      </c>
+      <c r="L78">
+        <v>406762600</v>
+      </c>
+      <c r="M78">
+        <v>855100</v>
+      </c>
+      <c r="N78">
+        <v>13921741000</v>
+      </c>
+      <c r="O78">
+        <v>-37337800</v>
+      </c>
+      <c r="P78">
+        <v>-650081697000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1675257480000</v>
+      </c>
+      <c r="B79">
+        <v>1686000</v>
+      </c>
+      <c r="C79">
+        <v>2205100</v>
+      </c>
+      <c r="D79">
+        <v>14500</v>
+      </c>
+      <c r="E79">
+        <v>34935569000</v>
+      </c>
+      <c r="F79">
+        <v>36685446000</v>
+      </c>
+      <c r="G79">
+        <v>216060000</v>
+      </c>
+      <c r="H79">
+        <v>3905600</v>
+      </c>
+      <c r="I79">
+        <v>71837075000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-02-01T13:18:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>7241545895000</v>
+      </c>
+      <c r="L79">
+        <v>410668200</v>
+      </c>
+      <c r="M79">
+        <v>519100</v>
+      </c>
+      <c r="N79">
+        <v>1749877000</v>
+      </c>
+      <c r="O79">
+        <v>-36818700</v>
+      </c>
+      <c r="P79">
+        <v>-648331820000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1675257600000</v>
+      </c>
+      <c r="B80">
+        <v>2275900</v>
+      </c>
+      <c r="C80">
+        <v>3278500</v>
+      </c>
+      <c r="D80">
+        <v>4800</v>
+      </c>
+      <c r="E80">
+        <v>42782255000</v>
+      </c>
+      <c r="F80">
+        <v>53067673000</v>
+      </c>
+      <c r="G80">
+        <v>41475000</v>
+      </c>
+      <c r="H80">
+        <v>5559200</v>
+      </c>
+      <c r="I80">
+        <v>95891403000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-02-01T13:20:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>7337437298000</v>
+      </c>
+      <c r="L80">
+        <v>416227400</v>
+      </c>
+      <c r="M80">
+        <v>1002600</v>
+      </c>
+      <c r="N80">
+        <v>10285418000</v>
+      </c>
+      <c r="O80">
+        <v>-35816100</v>
+      </c>
+      <c r="P80">
+        <v>-638046402000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1675257720000</v>
+      </c>
+      <c r="B81">
+        <v>1860000</v>
+      </c>
+      <c r="C81">
+        <v>2789300</v>
+      </c>
+      <c r="D81">
+        <v>9400</v>
+      </c>
+      <c r="E81">
+        <v>31909050000</v>
+      </c>
+      <c r="F81">
+        <v>51161487000</v>
+      </c>
+      <c r="G81">
+        <v>188240000</v>
+      </c>
+      <c r="H81">
+        <v>4658700</v>
+      </c>
+      <c r="I81">
+        <v>83258777000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-02-01T13:22:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>7420696075000</v>
+      </c>
+      <c r="L81">
+        <v>420886100</v>
+      </c>
+      <c r="M81">
+        <v>929300</v>
+      </c>
+      <c r="N81">
+        <v>19252437000</v>
+      </c>
+      <c r="O81">
+        <v>-34886800</v>
+      </c>
+      <c r="P81">
+        <v>-618793965000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1675257840000</v>
+      </c>
+      <c r="B82">
+        <v>1776400</v>
+      </c>
+      <c r="C82">
+        <v>2137700</v>
+      </c>
+      <c r="D82">
+        <v>45000</v>
+      </c>
+      <c r="E82">
+        <v>32604787000</v>
+      </c>
+      <c r="F82">
+        <v>39196414000</v>
+      </c>
+      <c r="G82">
+        <v>886991000</v>
+      </c>
+      <c r="H82">
+        <v>3959100</v>
+      </c>
+      <c r="I82">
+        <v>72688192000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-02-01T13:24:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>7493384267000</v>
+      </c>
+      <c r="L82">
+        <v>424845200</v>
+      </c>
+      <c r="M82">
+        <v>361300</v>
+      </c>
+      <c r="N82">
+        <v>6591627000</v>
+      </c>
+      <c r="O82">
+        <v>-34525500</v>
+      </c>
+      <c r="P82">
+        <v>-612202338000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1675257960000</v>
+      </c>
+      <c r="B83">
+        <v>1407100</v>
+      </c>
+      <c r="C83">
+        <v>2838500</v>
+      </c>
+      <c r="D83">
+        <v>2800</v>
+      </c>
+      <c r="E83">
+        <v>26981551000</v>
+      </c>
+      <c r="F83">
+        <v>51775134000</v>
+      </c>
+      <c r="G83">
+        <v>72171000</v>
+      </c>
+      <c r="H83">
+        <v>4248400</v>
+      </c>
+      <c r="I83">
+        <v>78828856000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-02-01T13:26:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>7572213123000</v>
+      </c>
+      <c r="L83">
+        <v>429093600</v>
+      </c>
+      <c r="M83">
+        <v>1431400</v>
+      </c>
+      <c r="N83">
+        <v>24793583000</v>
+      </c>
+      <c r="O83">
+        <v>-33094100</v>
+      </c>
+      <c r="P83">
+        <v>-587408755000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1675258080000</v>
+      </c>
+      <c r="B84">
+        <v>1612700</v>
+      </c>
+      <c r="C84">
+        <v>2310700</v>
+      </c>
+      <c r="D84">
+        <v>13900</v>
+      </c>
+      <c r="E84">
+        <v>30582356000</v>
+      </c>
+      <c r="F84">
+        <v>50560938000</v>
+      </c>
+      <c r="G84">
+        <v>372775000</v>
+      </c>
+      <c r="H84">
+        <v>3937300</v>
+      </c>
+      <c r="I84">
+        <v>81516069000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-02-01T13:28:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>7653729192000</v>
+      </c>
+      <c r="L84">
+        <v>433030900</v>
+      </c>
+      <c r="M84">
+        <v>698000</v>
+      </c>
+      <c r="N84">
+        <v>19978582000</v>
+      </c>
+      <c r="O84">
+        <v>-32396100</v>
+      </c>
+      <c r="P84">
+        <v>-567430173000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1675258200000</v>
+      </c>
+      <c r="B85">
+        <v>1258500</v>
+      </c>
+      <c r="C85">
+        <v>3836200</v>
+      </c>
+      <c r="D85">
+        <v>2100</v>
+      </c>
+      <c r="E85">
+        <v>24735537000</v>
+      </c>
+      <c r="F85">
+        <v>81199484000</v>
+      </c>
+      <c r="G85">
+        <v>15992000</v>
+      </c>
+      <c r="H85">
+        <v>5096800</v>
+      </c>
+      <c r="I85">
+        <v>105951013000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-02-01T13:30:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>7759680205000</v>
+      </c>
+      <c r="L85">
+        <v>438127700</v>
+      </c>
+      <c r="M85">
+        <v>2577700</v>
+      </c>
+      <c r="N85">
+        <v>56463947000</v>
+      </c>
+      <c r="O85">
+        <v>-29818400</v>
+      </c>
+      <c r="P85">
+        <v>-510966226000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1675258320000</v>
+      </c>
+      <c r="B86">
+        <v>1038700</v>
+      </c>
+      <c r="C86">
+        <v>6176100</v>
+      </c>
+      <c r="D86">
+        <v>27300</v>
+      </c>
+      <c r="E86">
+        <v>21202163000</v>
+      </c>
+      <c r="F86">
+        <v>109675454000</v>
+      </c>
+      <c r="G86">
+        <v>597270000</v>
+      </c>
+      <c r="H86">
+        <v>7242100</v>
+      </c>
+      <c r="I86">
+        <v>131474887000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-02-01T13:32:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>7891155092000</v>
+      </c>
+      <c r="L86">
+        <v>445369800</v>
+      </c>
+      <c r="M86">
+        <v>5137400</v>
+      </c>
+      <c r="N86">
+        <v>88473291000</v>
+      </c>
+      <c r="O86">
+        <v>-24681000</v>
+      </c>
+      <c r="P86">
+        <v>-422492935000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1675258440000</v>
+      </c>
+      <c r="B87">
+        <v>1448500</v>
+      </c>
+      <c r="C87">
+        <v>4612900</v>
+      </c>
+      <c r="D87">
+        <v>8400</v>
+      </c>
+      <c r="E87">
+        <v>27096343000</v>
+      </c>
+      <c r="F87">
+        <v>78412380000</v>
+      </c>
+      <c r="G87">
+        <v>171733000</v>
+      </c>
+      <c r="H87">
+        <v>6069800</v>
+      </c>
+      <c r="I87">
+        <v>105680456000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-02-01T13:34:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>7996835548000</v>
+      </c>
+      <c r="L87">
+        <v>451439600</v>
+      </c>
+      <c r="M87">
+        <v>3164400</v>
+      </c>
+      <c r="N87">
+        <v>51316037000</v>
+      </c>
+      <c r="O87">
+        <v>-21516600</v>
+      </c>
+      <c r="P87">
+        <v>-371176898000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1675258560000</v>
+      </c>
+      <c r="B88">
+        <v>1602500</v>
+      </c>
+      <c r="C88">
+        <v>4499800</v>
+      </c>
+      <c r="D88">
+        <v>9900</v>
+      </c>
+      <c r="E88">
+        <v>30659362000</v>
+      </c>
+      <c r="F88">
+        <v>78530341000</v>
+      </c>
+      <c r="G88">
+        <v>117904000</v>
+      </c>
+      <c r="H88">
+        <v>6112200</v>
+      </c>
+      <c r="I88">
+        <v>109307607000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-02-01T13:36:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>8106143155000</v>
+      </c>
+      <c r="L88">
+        <v>457551800</v>
+      </c>
+      <c r="M88">
+        <v>2897300</v>
+      </c>
+      <c r="N88">
+        <v>47870979000</v>
+      </c>
+      <c r="O88">
+        <v>-18619300</v>
+      </c>
+      <c r="P88">
+        <v>-323305919000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1675258680000</v>
+      </c>
+      <c r="B89">
+        <v>2961400</v>
+      </c>
+      <c r="C89">
+        <v>3145900</v>
+      </c>
+      <c r="D89">
+        <v>27000</v>
+      </c>
+      <c r="E89">
+        <v>48993569000</v>
+      </c>
+      <c r="F89">
+        <v>58961404000</v>
+      </c>
+      <c r="G89">
+        <v>232792000</v>
+      </c>
+      <c r="H89">
+        <v>6134300</v>
+      </c>
+      <c r="I89">
+        <v>108187765000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-02-01T13:38:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>8214330920000</v>
+      </c>
+      <c r="L89">
+        <v>463686100</v>
+      </c>
+      <c r="M89">
+        <v>184500</v>
+      </c>
+      <c r="N89">
+        <v>9967835000</v>
+      </c>
+      <c r="O89">
+        <v>-18434800</v>
+      </c>
+      <c r="P89">
+        <v>-313338084000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1675258800000</v>
+      </c>
+      <c r="B90">
+        <v>2670500</v>
+      </c>
+      <c r="C90">
+        <v>2927100</v>
+      </c>
+      <c r="D90">
+        <v>33000</v>
+      </c>
+      <c r="E90">
+        <v>45623118000</v>
+      </c>
+      <c r="F90">
+        <v>55531687000</v>
+      </c>
+      <c r="G90">
+        <v>355600000</v>
+      </c>
+      <c r="H90">
+        <v>5630600</v>
+      </c>
+      <c r="I90">
+        <v>101510405000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-02-01T13:40:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>8315841325000</v>
+      </c>
+      <c r="L90">
+        <v>469316700</v>
+      </c>
+      <c r="M90">
+        <v>256600</v>
+      </c>
+      <c r="N90">
+        <v>9908569000</v>
+      </c>
+      <c r="O90">
+        <v>-18178200</v>
+      </c>
+      <c r="P90">
+        <v>-303429515000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1675258920000</v>
+      </c>
+      <c r="B91">
+        <v>2862000</v>
+      </c>
+      <c r="C91">
+        <v>2670000</v>
+      </c>
+      <c r="D91">
+        <v>105600</v>
+      </c>
+      <c r="E91">
+        <v>56503031000</v>
+      </c>
+      <c r="F91">
+        <v>55899854000</v>
+      </c>
+      <c r="G91">
+        <v>1663159000</v>
+      </c>
+      <c r="H91">
+        <v>5637600</v>
+      </c>
+      <c r="I91">
+        <v>114066044000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-02-01T13:42:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>8429907369000</v>
+      </c>
+      <c r="L91">
+        <v>474954300</v>
+      </c>
+      <c r="M91">
+        <v>-192000</v>
+      </c>
+      <c r="N91">
+        <v>-603177000</v>
+      </c>
+      <c r="O91">
+        <v>-18370200</v>
+      </c>
+      <c r="P91">
+        <v>-304032692000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1675259040000</v>
+      </c>
+      <c r="B92">
+        <v>3223200</v>
+      </c>
+      <c r="C92">
+        <v>3261900</v>
+      </c>
+      <c r="D92">
+        <v>92100</v>
+      </c>
+      <c r="E92">
+        <v>68697442000</v>
+      </c>
+      <c r="F92">
+        <v>74468110000</v>
+      </c>
+      <c r="G92">
+        <v>1587726000</v>
+      </c>
+      <c r="H92">
+        <v>6577200</v>
+      </c>
+      <c r="I92">
+        <v>144753278000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-02-01T13:44:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>8574660647000</v>
+      </c>
+      <c r="L92">
+        <v>481531500</v>
+      </c>
+      <c r="M92">
+        <v>38700</v>
+      </c>
+      <c r="N92">
+        <v>5770668000</v>
+      </c>
+      <c r="O92">
+        <v>-18331500</v>
+      </c>
+      <c r="P92">
+        <v>-298262024000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1675259160000</v>
+      </c>
+      <c r="B93">
+        <v>2302500</v>
+      </c>
+      <c r="C93">
+        <v>2728600</v>
+      </c>
+      <c r="D93">
+        <v>13500</v>
+      </c>
+      <c r="E93">
+        <v>40433186000</v>
+      </c>
+      <c r="F93">
+        <v>54579880000</v>
+      </c>
+      <c r="G93">
+        <v>247833000</v>
+      </c>
+      <c r="H93">
+        <v>5044600</v>
+      </c>
+      <c r="I93">
+        <v>95260899000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-02-01T13:46:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>8669921546000</v>
+      </c>
+      <c r="L93">
+        <v>486576100</v>
+      </c>
+      <c r="M93">
+        <v>426100</v>
+      </c>
+      <c r="N93">
+        <v>14146694000</v>
+      </c>
+      <c r="O93">
+        <v>-17905400</v>
+      </c>
+      <c r="P93">
+        <v>-284115330000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1675259280000</v>
+      </c>
+      <c r="B94">
+        <v>2740100</v>
+      </c>
+      <c r="C94">
+        <v>2676700</v>
+      </c>
+      <c r="D94">
+        <v>14800</v>
+      </c>
+      <c r="E94">
+        <v>52860112000</v>
+      </c>
+      <c r="F94">
+        <v>59021427000</v>
+      </c>
+      <c r="G94">
+        <v>669380000</v>
+      </c>
+      <c r="H94">
+        <v>5431600</v>
+      </c>
+      <c r="I94">
+        <v>112550919000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-02-01T13:48:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>8782472465000</v>
+      </c>
+      <c r="L94">
+        <v>492007700</v>
+      </c>
+      <c r="M94">
+        <v>-63400</v>
+      </c>
+      <c r="N94">
+        <v>6161315000</v>
+      </c>
+      <c r="O94">
+        <v>-17968800</v>
+      </c>
+      <c r="P94">
+        <v>-277954015000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1675259400000</v>
+      </c>
+      <c r="B95">
+        <v>8660400</v>
+      </c>
+      <c r="C95">
+        <v>1740900</v>
+      </c>
+      <c r="D95">
+        <v>42700</v>
+      </c>
+      <c r="E95">
+        <v>170123781000</v>
+      </c>
+      <c r="F95">
+        <v>32219930000</v>
+      </c>
+      <c r="G95">
+        <v>989018000</v>
+      </c>
+      <c r="H95">
+        <v>10444000</v>
+      </c>
+      <c r="I95">
+        <v>203332729000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-02-01T13:50:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>8985805194000</v>
+      </c>
+      <c r="L95">
+        <v>502451700</v>
+      </c>
+      <c r="M95">
+        <v>-6919500</v>
+      </c>
+      <c r="N95">
+        <v>-137903851000</v>
+      </c>
+      <c r="O95">
+        <v>-24888300</v>
+      </c>
+      <c r="P95">
+        <v>-415857866000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1675259520000</v>
+      </c>
+      <c r="B96">
+        <v>13382600</v>
+      </c>
+      <c r="C96">
+        <v>1938300</v>
+      </c>
+      <c r="D96">
+        <v>40900</v>
+      </c>
+      <c r="E96">
+        <v>226409581000</v>
+      </c>
+      <c r="F96">
+        <v>34590655000</v>
+      </c>
+      <c r="G96">
+        <v>842721000</v>
+      </c>
+      <c r="H96">
+        <v>15361800</v>
+      </c>
+      <c r="I96">
+        <v>261842957000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-02-01T13:52:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>9247648151000</v>
+      </c>
+      <c r="L96">
+        <v>517813500</v>
+      </c>
+      <c r="M96">
+        <v>-11444300</v>
+      </c>
+      <c r="N96">
+        <v>-191818926000</v>
+      </c>
+      <c r="O96">
+        <v>-36332600</v>
+      </c>
+      <c r="P96">
+        <v>-607676792000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1675259640000</v>
+      </c>
+      <c r="B97">
+        <v>10515500</v>
+      </c>
+      <c r="C97">
+        <v>2411200</v>
+      </c>
+      <c r="D97">
+        <v>133400</v>
+      </c>
+      <c r="E97">
+        <v>183959272000</v>
+      </c>
+      <c r="F97">
+        <v>43198736000</v>
+      </c>
+      <c r="G97">
+        <v>2453633000</v>
+      </c>
+      <c r="H97">
+        <v>13060100</v>
+      </c>
+      <c r="I97">
+        <v>229611641000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-02-01T13:54:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>9477259792000</v>
+      </c>
+      <c r="L97">
+        <v>530873600</v>
+      </c>
+      <c r="M97">
+        <v>-8104300</v>
+      </c>
+      <c r="N97">
+        <v>-140760536000</v>
+      </c>
+      <c r="O97">
+        <v>-44436900</v>
+      </c>
+      <c r="P97">
+        <v>-748437328000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1675259760000</v>
+      </c>
+      <c r="B98">
+        <v>6649000</v>
+      </c>
+      <c r="C98">
+        <v>2864600</v>
+      </c>
+      <c r="D98">
+        <v>56700</v>
+      </c>
+      <c r="E98">
+        <v>112481274000</v>
+      </c>
+      <c r="F98">
+        <v>54688192000</v>
+      </c>
+      <c r="G98">
+        <v>639364000</v>
+      </c>
+      <c r="H98">
+        <v>9570300</v>
+      </c>
+      <c r="I98">
+        <v>167808830000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-02-01T13:56:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>9645068622000</v>
+      </c>
+      <c r="L98">
+        <v>540443900</v>
+      </c>
+      <c r="M98">
+        <v>-3784400</v>
+      </c>
+      <c r="N98">
+        <v>-57793082000</v>
+      </c>
+      <c r="O98">
+        <v>-48221300</v>
+      </c>
+      <c r="P98">
+        <v>-806230410000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1675259880000</v>
+      </c>
+      <c r="B99">
+        <v>2926500</v>
+      </c>
+      <c r="C99">
+        <v>3249300</v>
+      </c>
+      <c r="D99">
+        <v>11900</v>
+      </c>
+      <c r="E99">
+        <v>53346860000</v>
+      </c>
+      <c r="F99">
+        <v>61774767000</v>
+      </c>
+      <c r="G99">
+        <v>132338000</v>
+      </c>
+      <c r="H99">
+        <v>6187700</v>
+      </c>
+      <c r="I99">
+        <v>115253965000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-02-01T13:58:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>9760322587000</v>
+      </c>
+      <c r="L99">
+        <v>546631600</v>
+      </c>
+      <c r="M99">
+        <v>322800</v>
+      </c>
+      <c r="N99">
+        <v>8427907000</v>
+      </c>
+      <c r="O99">
+        <v>-47898500</v>
+      </c>
+      <c r="P99">
+        <v>-797802503000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1675260000000</v>
+      </c>
+      <c r="B100">
+        <v>15283100</v>
+      </c>
+      <c r="C100">
+        <v>2626300</v>
+      </c>
+      <c r="D100">
+        <v>70900</v>
+      </c>
+      <c r="E100">
+        <v>303772291000</v>
+      </c>
+      <c r="F100">
+        <v>48611360000</v>
+      </c>
+      <c r="G100">
+        <v>2624303000</v>
+      </c>
+      <c r="H100">
+        <v>17980300</v>
+      </c>
+      <c r="I100">
+        <v>355007954000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-02-01T14:00:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>10115330541000</v>
+      </c>
+      <c r="L100">
+        <v>564611900</v>
+      </c>
+      <c r="M100">
+        <v>-12656800</v>
+      </c>
+      <c r="N100">
+        <v>-255160931000</v>
+      </c>
+      <c r="O100">
+        <v>-60555300</v>
+      </c>
+      <c r="P100">
+        <v>-1052963434000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1675260120000</v>
+      </c>
+      <c r="B101">
+        <v>20307900</v>
+      </c>
+      <c r="C101">
+        <v>3098100</v>
+      </c>
+      <c r="D101">
+        <v>228500</v>
+      </c>
+      <c r="E101">
+        <v>331210468000</v>
+      </c>
+      <c r="F101">
+        <v>60197823000</v>
+      </c>
+      <c r="G101">
+        <v>3860810000</v>
+      </c>
+      <c r="H101">
+        <v>23634500</v>
+      </c>
+      <c r="I101">
+        <v>395269101000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-02-01T14:02:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>10510599642000</v>
+      </c>
+      <c r="L101">
+        <v>588246400</v>
+      </c>
+      <c r="M101">
+        <v>-17209800</v>
+      </c>
+      <c r="N101">
+        <v>-271012645000</v>
+      </c>
+      <c r="O101">
+        <v>-77765100</v>
+      </c>
+      <c r="P101">
+        <v>-1323976079000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1675260240000</v>
+      </c>
+      <c r="B102">
+        <v>12981800</v>
+      </c>
+      <c r="C102">
+        <v>4291300</v>
+      </c>
+      <c r="D102">
+        <v>175600</v>
+      </c>
+      <c r="E102">
+        <v>212959864000</v>
+      </c>
+      <c r="F102">
+        <v>68266685000</v>
+      </c>
+      <c r="G102">
+        <v>3025870000</v>
+      </c>
+      <c r="H102">
+        <v>17448700</v>
+      </c>
+      <c r="I102">
+        <v>284252419000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-02-01T14:04:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>10794852061000</v>
+      </c>
+      <c r="L102">
+        <v>605695100</v>
+      </c>
+      <c r="M102">
+        <v>-8690500</v>
+      </c>
+      <c r="N102">
+        <v>-144693179000</v>
+      </c>
+      <c r="O102">
+        <v>-86455600</v>
+      </c>
+      <c r="P102">
+        <v>-1468669258000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1675260360000</v>
+      </c>
+      <c r="B103">
+        <v>12178900</v>
+      </c>
+      <c r="C103">
+        <v>5773900</v>
+      </c>
+      <c r="D103">
+        <v>112700</v>
+      </c>
+      <c r="E103">
+        <v>186501334000</v>
+      </c>
+      <c r="F103">
+        <v>92571186000</v>
+      </c>
+      <c r="G103">
+        <v>3028070000</v>
+      </c>
+      <c r="H103">
+        <v>18065500</v>
+      </c>
+      <c r="I103">
+        <v>282100590000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-02-01T14:06:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>11076952651000</v>
+      </c>
+      <c r="L103">
+        <v>623760600</v>
+      </c>
+      <c r="M103">
+        <v>-6405000</v>
+      </c>
+      <c r="N103">
+        <v>-93930148000</v>
+      </c>
+      <c r="O103">
+        <v>-92860600</v>
+      </c>
+      <c r="P103">
+        <v>-1562599406000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1675260480000</v>
+      </c>
+      <c r="B104">
+        <v>4711500</v>
+      </c>
+      <c r="C104">
+        <v>6652700</v>
+      </c>
+      <c r="D104">
+        <v>93500</v>
+      </c>
+      <c r="E104">
+        <v>80899610000</v>
+      </c>
+      <c r="F104">
+        <v>107448622000</v>
+      </c>
+      <c r="G104">
+        <v>1828755000</v>
+      </c>
+      <c r="H104">
+        <v>11457700</v>
+      </c>
+      <c r="I104">
+        <v>190176987000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-02-01T14:08:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>11267129638000</v>
+      </c>
+      <c r="L104">
+        <v>635218300</v>
+      </c>
+      <c r="M104">
+        <v>1941200</v>
+      </c>
+      <c r="N104">
+        <v>26549012000</v>
+      </c>
+      <c r="O104">
+        <v>-90919400</v>
+      </c>
+      <c r="P104">
+        <v>-1536050394000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1675260600000</v>
+      </c>
+      <c r="B105">
+        <v>2938500</v>
+      </c>
+      <c r="C105">
+        <v>5392200</v>
+      </c>
+      <c r="D105">
+        <v>38300</v>
+      </c>
+      <c r="E105">
+        <v>52772016000</v>
+      </c>
+      <c r="F105">
+        <v>93098451000</v>
+      </c>
+      <c r="G105">
+        <v>445754000</v>
+      </c>
+      <c r="H105">
+        <v>8369000</v>
+      </c>
+      <c r="I105">
+        <v>146316221000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-02-01T14:10:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>11413445859000</v>
+      </c>
+      <c r="L105">
+        <v>643587300</v>
+      </c>
+      <c r="M105">
+        <v>2453700</v>
+      </c>
+      <c r="N105">
+        <v>40326435000</v>
+      </c>
+      <c r="O105">
+        <v>-88465700</v>
+      </c>
+      <c r="P105">
+        <v>-1495723959000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1675260720000</v>
+      </c>
+      <c r="B106">
+        <v>6159200</v>
+      </c>
+      <c r="C106">
+        <v>3810100</v>
+      </c>
+      <c r="D106">
+        <v>35100</v>
+      </c>
+      <c r="E106">
+        <v>117061830000</v>
+      </c>
+      <c r="F106">
+        <v>64831179000</v>
+      </c>
+      <c r="G106">
+        <v>680127000</v>
+      </c>
+      <c r="H106">
+        <v>10004400</v>
+      </c>
+      <c r="I106">
+        <v>182573136000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-02-01T14:12:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>11596018995000</v>
+      </c>
+      <c r="L106">
+        <v>653591700</v>
+      </c>
+      <c r="M106">
+        <v>-2349100</v>
+      </c>
+      <c r="N106">
+        <v>-52230651000</v>
+      </c>
+      <c r="O106">
+        <v>-90814800</v>
+      </c>
+      <c r="P106">
+        <v>-1547954610000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1675260840000</v>
+      </c>
+      <c r="B107">
+        <v>15587000</v>
+      </c>
+      <c r="C107">
+        <v>1962800</v>
+      </c>
+      <c r="D107">
+        <v>225100</v>
+      </c>
+      <c r="E107">
+        <v>289233693000</v>
+      </c>
+      <c r="F107">
+        <v>35366143000</v>
+      </c>
+      <c r="G107">
+        <v>4551529000</v>
+      </c>
+      <c r="H107">
+        <v>17774900</v>
+      </c>
+      <c r="I107">
+        <v>329151365000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-02-01T14:14:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>11925170360000</v>
+      </c>
+      <c r="L107">
+        <v>671366600</v>
+      </c>
+      <c r="M107">
+        <v>-13624200</v>
+      </c>
+      <c r="N107">
+        <v>-253867550000</v>
+      </c>
+      <c r="O107">
+        <v>-104439000</v>
+      </c>
+      <c r="P107">
+        <v>-1801822160000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1675260960000</v>
+      </c>
+      <c r="B108">
+        <v>33877800</v>
+      </c>
+      <c r="C108">
+        <v>5312200</v>
+      </c>
+      <c r="D108">
+        <v>594700</v>
+      </c>
+      <c r="E108">
+        <v>555425919000</v>
+      </c>
+      <c r="F108">
+        <v>85506388000</v>
+      </c>
+      <c r="G108">
+        <v>10869611000</v>
+      </c>
+      <c r="H108">
+        <v>39784700</v>
+      </c>
+      <c r="I108">
+        <v>651801918000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-02-01T14:16:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>12576972278000</v>
+      </c>
+      <c r="L108">
+        <v>711151300</v>
+      </c>
+      <c r="M108">
+        <v>-28565600</v>
+      </c>
+      <c r="N108">
+        <v>-469919531000</v>
+      </c>
+      <c r="O108">
+        <v>-133004600</v>
+      </c>
+      <c r="P108">
+        <v>-2271741691000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1675261080000</v>
+      </c>
+      <c r="B109">
+        <v>35442300</v>
+      </c>
+      <c r="C109">
+        <v>8620800</v>
+      </c>
+      <c r="D109">
+        <v>918500</v>
+      </c>
+      <c r="E109">
+        <v>565345287000</v>
+      </c>
+      <c r="F109">
+        <v>140616738000</v>
+      </c>
+      <c r="G109">
+        <v>15847269000</v>
+      </c>
+      <c r="H109">
+        <v>44981600</v>
+      </c>
+      <c r="I109">
+        <v>721809294000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-02-01T14:18:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>13298781572000</v>
+      </c>
+      <c r="L109">
+        <v>756132900</v>
+      </c>
+      <c r="M109">
+        <v>-26821500</v>
+      </c>
+      <c r="N109">
+        <v>-424728549000</v>
+      </c>
+      <c r="O109">
+        <v>-159826100</v>
+      </c>
+      <c r="P109">
+        <v>-2696470240000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1675261200000</v>
+      </c>
+      <c r="B110">
+        <v>17961700</v>
+      </c>
+      <c r="C110">
+        <v>8457500</v>
+      </c>
+      <c r="D110">
+        <v>241400</v>
+      </c>
+      <c r="E110">
+        <v>298689635000</v>
+      </c>
+      <c r="F110">
+        <v>129797454000</v>
+      </c>
+      <c r="G110">
+        <v>3892790000</v>
+      </c>
+      <c r="H110">
+        <v>26660600</v>
+      </c>
+      <c r="I110">
+        <v>432379879000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-02-01T14:20:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>13731161451000</v>
+      </c>
+      <c r="L110">
+        <v>782793500</v>
+      </c>
+      <c r="M110">
+        <v>-9504200</v>
+      </c>
+      <c r="N110">
+        <v>-168892181000</v>
+      </c>
+      <c r="O110">
+        <v>-169330300</v>
+      </c>
+      <c r="P110">
+        <v>-2865362421000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1675261320000</v>
+      </c>
+      <c r="B111">
+        <v>10927300</v>
+      </c>
+      <c r="C111">
+        <v>10380300</v>
+      </c>
+      <c r="D111">
+        <v>158000</v>
+      </c>
+      <c r="E111">
+        <v>179031234000</v>
+      </c>
+      <c r="F111">
+        <v>170872542000</v>
+      </c>
+      <c r="G111">
+        <v>2745201000</v>
+      </c>
+      <c r="H111">
+        <v>21465600</v>
+      </c>
+      <c r="I111">
+        <v>352648977000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-02-01T14:22:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>14083810428000</v>
+      </c>
+      <c r="L111">
+        <v>804259100</v>
+      </c>
+      <c r="M111">
+        <v>-547000</v>
+      </c>
+      <c r="N111">
+        <v>-8158692000</v>
+      </c>
+      <c r="O111">
+        <v>-169877300</v>
+      </c>
+      <c r="P111">
+        <v>-2873521113000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1675261440000</v>
+      </c>
+      <c r="B112">
+        <v>7889200</v>
+      </c>
+      <c r="C112">
+        <v>9991400</v>
+      </c>
+      <c r="D112">
+        <v>117800</v>
+      </c>
+      <c r="E112">
+        <v>123752154000</v>
+      </c>
+      <c r="F112">
+        <v>152706988000</v>
+      </c>
+      <c r="G112">
+        <v>1504603000</v>
+      </c>
+      <c r="H112">
+        <v>17998400</v>
+      </c>
+      <c r="I112">
+        <v>277963745000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-02-01T14:24:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>14361774173000</v>
+      </c>
+      <c r="L112">
+        <v>822257500</v>
+      </c>
+      <c r="M112">
+        <v>2102200</v>
+      </c>
+      <c r="N112">
+        <v>28954834000</v>
+      </c>
+      <c r="O112">
+        <v>-167775100</v>
+      </c>
+      <c r="P112">
+        <v>-2844566279000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1675261560000</v>
+      </c>
+      <c r="B113">
+        <v>7638600</v>
+      </c>
+      <c r="C113">
+        <v>8518300</v>
+      </c>
+      <c r="D113">
+        <v>178800</v>
+      </c>
+      <c r="E113">
+        <v>127368231000</v>
+      </c>
+      <c r="F113">
+        <v>140424224000</v>
+      </c>
+      <c r="G113">
+        <v>3784112000</v>
+      </c>
+      <c r="H113">
+        <v>16335700</v>
+      </c>
+      <c r="I113">
+        <v>271576567000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-02-01T14:26:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>14633350740000</v>
+      </c>
+      <c r="L113">
+        <v>838593200</v>
+      </c>
+      <c r="M113">
+        <v>879700</v>
+      </c>
+      <c r="N113">
+        <v>13055993000</v>
+      </c>
+      <c r="O113">
+        <v>-166895400</v>
+      </c>
+      <c r="P113">
+        <v>-2831510286000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1675261680000</v>
+      </c>
+      <c r="B114">
+        <v>13422900</v>
+      </c>
+      <c r="C114">
+        <v>7237000</v>
+      </c>
+      <c r="D114">
+        <v>265000</v>
+      </c>
+      <c r="E114">
+        <v>232111935000</v>
+      </c>
+      <c r="F114">
+        <v>116966537000</v>
+      </c>
+      <c r="G114">
+        <v>5095395000</v>
+      </c>
+      <c r="H114">
+        <v>20924900</v>
+      </c>
+      <c r="I114">
+        <v>354173867000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-02-01T14:28:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>14987524607000</v>
+      </c>
+      <c r="L114">
+        <v>859518100</v>
+      </c>
+      <c r="M114">
+        <v>-6185900</v>
+      </c>
+      <c r="N114">
+        <v>-115145398000</v>
+      </c>
+      <c r="O114">
+        <v>-173081300</v>
+      </c>
+      <c r="P114">
+        <v>-2946655684000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1675261800000</v>
+      </c>
+      <c r="B115">
+        <v>100</v>
+      </c>
+      <c r="C115">
+        <v>400</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1275000</v>
+      </c>
+      <c r="F115">
+        <v>14675000</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>500</v>
+      </c>
+      <c r="I115">
+        <v>15950000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-02-01T14:30:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>14987540557000</v>
+      </c>
+      <c r="L115">
+        <v>859518600</v>
+      </c>
+      <c r="M115">
+        <v>300</v>
+      </c>
+      <c r="N115">
+        <v>13400000</v>
+      </c>
+      <c r="O115">
+        <v>-173081000</v>
+      </c>
+      <c r="P115">
+        <v>-2946642284000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1675262640000</v>
+      </c>
+      <c r="B116">
         <v>15528500</v>
       </c>
-      <c r="C49">
+      <c r="C116">
         <v>16913600</v>
       </c>
-      <c r="D49">
+      <c r="D116">
         <v>44748100</v>
       </c>
-      <c r="E49">
+      <c r="E116">
         <v>301809082000</v>
       </c>
-      <c r="F49">
+      <c r="F116">
         <v>313299761000</v>
       </c>
-      <c r="G49">
+      <c r="G116">
         <v>741498981000</v>
       </c>
-      <c r="H49">
+      <c r="H116">
         <v>77190200</v>
       </c>
-      <c r="I49">
+      <c r="I116">
         <v>1356607824000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-02-01T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J116" t="str">
+        <v>2023-02-01T14:44:00.000Z</v>
+      </c>
+      <c r="K116">
         <v>16344148381000</v>
       </c>
-      <c r="L49">
+      <c r="L116">
         <v>936708800</v>
       </c>
-      <c r="M49">
+      <c r="M116">
         <v>1385100</v>
       </c>
-      <c r="N49">
+      <c r="N116">
         <v>11490679000</v>
       </c>
-      <c r="O49">
+      <c r="O116">
         <v>-171695900</v>
       </c>
-      <c r="P49">
+      <c r="P116">
         <v>-2935151605000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230201/VNINDEX_HOSE_5p_20230201.xlsx
+++ b/name/vnindex/20230201/VNINDEX_HOSE_5p_20230201.xlsx
@@ -466,25 +466,25 @@
         <v>4391900</v>
       </c>
       <c r="E2">
-        <v>60541325000</v>
+        <v>49740636500</v>
       </c>
       <c r="F2">
-        <v>69804856000</v>
+        <v>65828136700</v>
       </c>
       <c r="G2">
-        <v>53260357000</v>
+        <v>46180344100</v>
       </c>
       <c r="H2">
         <v>12173300</v>
       </c>
       <c r="I2">
-        <v>183606538000</v>
+        <v>161749117300</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-01T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>183606538000</v>
+        <v>161749117300</v>
       </c>
       <c r="L2">
         <v>12173300</v>
@@ -493,13 +493,13 @@
         <v>-349800</v>
       </c>
       <c r="N2">
-        <v>9263531000</v>
+        <v>16087500200</v>
       </c>
       <c r="O2">
         <v>-349800</v>
       </c>
       <c r="P2">
-        <v>9263531000</v>
+        <v>16087500200</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>5600</v>
       </c>
       <c r="E3">
-        <v>33237591000</v>
+        <v>31093037700</v>
       </c>
       <c r="F3">
-        <v>60807715000</v>
+        <v>59048176300</v>
       </c>
       <c r="G3">
         <v>105905000</v>
@@ -528,13 +528,13 @@
         <v>5517100</v>
       </c>
       <c r="I3">
-        <v>94151211000</v>
+        <v>90247119000</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-01T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>277757749000</v>
+        <v>251996236300</v>
       </c>
       <c r="L3">
         <v>17690400</v>
@@ -543,13 +543,13 @@
         <v>1674300</v>
       </c>
       <c r="N3">
-        <v>27570124000</v>
+        <v>27955138600</v>
       </c>
       <c r="O3">
         <v>1324500</v>
       </c>
       <c r="P3">
-        <v>36833655000</v>
+        <v>44042638800</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>25300</v>
       </c>
       <c r="E4">
-        <v>56657955000</v>
+        <v>53922093600</v>
       </c>
       <c r="F4">
-        <v>64101376000</v>
+        <v>58654328500</v>
       </c>
       <c r="G4">
-        <v>397631000</v>
+        <v>394234400</v>
       </c>
       <c r="H4">
         <v>7187100</v>
       </c>
       <c r="I4">
-        <v>121156962000</v>
+        <v>112970656500</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-01T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>398914711000</v>
+        <v>364966892800</v>
       </c>
       <c r="L4">
         <v>24877500</v>
@@ -593,13 +593,13 @@
         <v>679000</v>
       </c>
       <c r="N4">
-        <v>7443421000</v>
+        <v>4732234900</v>
       </c>
       <c r="O4">
         <v>2003500</v>
       </c>
       <c r="P4">
-        <v>44277076000</v>
+        <v>48774873700</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>82600</v>
       </c>
       <c r="E5">
-        <v>57374576000</v>
+        <v>51865690400</v>
       </c>
       <c r="F5">
-        <v>63549596000</v>
+        <v>58912437800</v>
       </c>
       <c r="G5">
-        <v>1176957000</v>
+        <v>886048200</v>
       </c>
       <c r="H5">
         <v>7238000</v>
       </c>
       <c r="I5">
-        <v>122101129000</v>
+        <v>111664176400</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-01T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>521015840000</v>
+        <v>476631069200</v>
       </c>
       <c r="L5">
         <v>32115500</v>
@@ -643,13 +643,13 @@
         <v>560400</v>
       </c>
       <c r="N5">
-        <v>6175020000</v>
+        <v>7046747400</v>
       </c>
       <c r="O5">
         <v>2563900</v>
       </c>
       <c r="P5">
-        <v>50452096000</v>
+        <v>55821621100</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>11300</v>
       </c>
       <c r="E6">
-        <v>79403033000</v>
+        <v>72601741100</v>
       </c>
       <c r="F6">
-        <v>38808731000</v>
+        <v>36285756500</v>
       </c>
       <c r="G6">
-        <v>349177000</v>
+        <v>214312000</v>
       </c>
       <c r="H6">
         <v>7029900</v>
       </c>
       <c r="I6">
-        <v>118560941000</v>
+        <v>109101809600</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-01T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>639576781000</v>
+        <v>585732878800</v>
       </c>
       <c r="L6">
         <v>39145400</v>
@@ -693,13 +693,13 @@
         <v>-2357200</v>
       </c>
       <c r="N6">
-        <v>-40594302000</v>
+        <v>-36315984600</v>
       </c>
       <c r="O6">
         <v>206700</v>
       </c>
       <c r="P6">
-        <v>9857794000</v>
+        <v>19505636500</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>32800</v>
       </c>
       <c r="E7">
-        <v>85144514000</v>
+        <v>78854610200</v>
       </c>
       <c r="F7">
-        <v>31768415000</v>
+        <v>28534052600</v>
       </c>
       <c r="G7">
-        <v>625740000</v>
+        <v>389476500</v>
       </c>
       <c r="H7">
         <v>6857100</v>
       </c>
       <c r="I7">
-        <v>117538669000</v>
+        <v>107778139300</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-01T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>757115450000</v>
+        <v>693511018100</v>
       </c>
       <c r="L7">
         <v>46002500</v>
@@ -743,13 +743,13 @@
         <v>-2541500</v>
       </c>
       <c r="N7">
-        <v>-53376099000</v>
+        <v>-50320557600</v>
       </c>
       <c r="O7">
         <v>-2334800</v>
       </c>
       <c r="P7">
-        <v>-43518305000</v>
+        <v>-30814921100</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>3900</v>
       </c>
       <c r="E8">
-        <v>63855063000</v>
+        <v>62106313500</v>
       </c>
       <c r="F8">
-        <v>41357697000</v>
+        <v>37792465800</v>
       </c>
       <c r="G8">
         <v>144711000</v>
@@ -778,13 +778,13 @@
         <v>5910900</v>
       </c>
       <c r="I8">
-        <v>105357471000</v>
+        <v>100043490300</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-01T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>862472921000</v>
+        <v>793554508400</v>
       </c>
       <c r="L8">
         <v>51913400</v>
@@ -793,13 +793,13 @@
         <v>-1465600</v>
       </c>
       <c r="N8">
-        <v>-22497366000</v>
+        <v>-24313847700</v>
       </c>
       <c r="O8">
         <v>-3800400</v>
       </c>
       <c r="P8">
-        <v>-66015671000</v>
+        <v>-55128768800</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>24900</v>
       </c>
       <c r="E9">
-        <v>49753746000</v>
+        <v>44066638800</v>
       </c>
       <c r="F9">
-        <v>28080614000</v>
+        <v>24986011700</v>
       </c>
       <c r="G9">
         <v>367226000</v>
@@ -828,13 +828,13 @@
         <v>4340700</v>
       </c>
       <c r="I9">
-        <v>78201586000</v>
+        <v>69419876500</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-01T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>940674507000</v>
+        <v>862974384900</v>
       </c>
       <c r="L9">
         <v>56254100</v>
@@ -843,13 +843,13 @@
         <v>-1097000</v>
       </c>
       <c r="N9">
-        <v>-21673132000</v>
+        <v>-19080627100</v>
       </c>
       <c r="O9">
         <v>-4897400</v>
       </c>
       <c r="P9">
-        <v>-87688803000</v>
+        <v>-74209395900</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>10800</v>
       </c>
       <c r="E10">
-        <v>44352739000</v>
+        <v>39732763600</v>
       </c>
       <c r="F10">
-        <v>41807905000</v>
+        <v>37543573600</v>
       </c>
       <c r="G10">
         <v>211050000</v>
@@ -878,13 +878,13 @@
         <v>4784000</v>
       </c>
       <c r="I10">
-        <v>86371694000</v>
+        <v>77487387200</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-01T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1027046201000</v>
+        <v>940461772100</v>
       </c>
       <c r="L10">
         <v>61038100</v>
@@ -893,13 +893,13 @@
         <v>-583800</v>
       </c>
       <c r="N10">
-        <v>-2544834000</v>
+        <v>-2189190000</v>
       </c>
       <c r="O10">
         <v>-5481200</v>
       </c>
       <c r="P10">
-        <v>-90233637000</v>
+        <v>-76398585900</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>19300</v>
       </c>
       <c r="E11">
-        <v>34206386000</v>
+        <v>30970225400</v>
       </c>
       <c r="F11">
-        <v>59616352000</v>
+        <v>53388785800</v>
       </c>
       <c r="G11">
-        <v>228348000</v>
+        <v>212863500</v>
       </c>
       <c r="H11">
         <v>4737000</v>
       </c>
       <c r="I11">
-        <v>94051086000</v>
+        <v>84571874700</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-01T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1121097287000</v>
+        <v>1025033646800</v>
       </c>
       <c r="L11">
         <v>65775100</v>
@@ -943,13 +943,13 @@
         <v>921100</v>
       </c>
       <c r="N11">
-        <v>25409966000</v>
+        <v>22418560400</v>
       </c>
       <c r="O11">
         <v>-4560100</v>
       </c>
       <c r="P11">
-        <v>-64823671000</v>
+        <v>-53980025500</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>5700</v>
       </c>
       <c r="E12">
-        <v>29855819000</v>
+        <v>27377599700</v>
       </c>
       <c r="F12">
-        <v>63766056000</v>
+        <v>51505329000</v>
       </c>
       <c r="G12">
         <v>96043000</v>
@@ -978,13 +978,13 @@
         <v>4897100</v>
       </c>
       <c r="I12">
-        <v>93717918000</v>
+        <v>78978971700</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-01T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1214815205000</v>
+        <v>1104012618500</v>
       </c>
       <c r="L12">
         <v>70672200</v>
@@ -993,13 +993,13 @@
         <v>1321000</v>
       </c>
       <c r="N12">
-        <v>33910237000</v>
+        <v>24127729300</v>
       </c>
       <c r="O12">
         <v>-3239100</v>
       </c>
       <c r="P12">
-        <v>-30913434000</v>
+        <v>-29852296200</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>19600</v>
       </c>
       <c r="E13">
-        <v>27237787000</v>
+        <v>24690337000</v>
       </c>
       <c r="F13">
-        <v>93022698000</v>
+        <v>88260764700</v>
       </c>
       <c r="G13">
         <v>232991000</v>
@@ -1028,13 +1028,13 @@
         <v>6910400</v>
       </c>
       <c r="I13">
-        <v>120493476000</v>
+        <v>113184092700</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-01T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1335308681000</v>
+        <v>1217196711200</v>
       </c>
       <c r="L13">
         <v>77582600</v>
@@ -1043,13 +1043,13 @@
         <v>3276200</v>
       </c>
       <c r="N13">
-        <v>65784911000</v>
+        <v>63570427700</v>
       </c>
       <c r="O13">
         <v>37100</v>
       </c>
       <c r="P13">
-        <v>34871477000</v>
+        <v>33718131500</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>1500</v>
       </c>
       <c r="E14">
-        <v>40366299000</v>
+        <v>39322443900</v>
       </c>
       <c r="F14">
-        <v>95856281000</v>
+        <v>85706341100</v>
       </c>
       <c r="G14">
-        <v>26448000</v>
+        <v>24250200</v>
       </c>
       <c r="H14">
         <v>7561500</v>
       </c>
       <c r="I14">
-        <v>136249028000</v>
+        <v>125053035200</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-01T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1471557709000</v>
+        <v>1342249746400</v>
       </c>
       <c r="L14">
         <v>85144100</v>
@@ -1093,13 +1093,13 @@
         <v>2913400</v>
       </c>
       <c r="N14">
-        <v>55489982000</v>
+        <v>46383897200</v>
       </c>
       <c r="O14">
         <v>2950500</v>
       </c>
       <c r="P14">
-        <v>90361459000</v>
+        <v>80102028700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>44800</v>
       </c>
       <c r="E15">
-        <v>38487383000</v>
+        <v>34698475700</v>
       </c>
       <c r="F15">
-        <v>101461796000</v>
+        <v>91287280700</v>
       </c>
       <c r="G15">
         <v>2106939000</v>
@@ -1128,13 +1128,13 @@
         <v>7681600</v>
       </c>
       <c r="I15">
-        <v>142056118000</v>
+        <v>128092695400</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-01T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1613613827000</v>
+        <v>1470342441800</v>
       </c>
       <c r="L15">
         <v>92825700</v>
@@ -1143,13 +1143,13 @@
         <v>3523800</v>
       </c>
       <c r="N15">
-        <v>62974413000</v>
+        <v>56588805000</v>
       </c>
       <c r="O15">
         <v>6474300</v>
       </c>
       <c r="P15">
-        <v>153335872000</v>
+        <v>136690833700</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>2000</v>
       </c>
       <c r="E16">
-        <v>35747448000</v>
+        <v>33848748600</v>
       </c>
       <c r="F16">
-        <v>139192359000</v>
+        <v>128550311700</v>
       </c>
       <c r="G16">
-        <v>79430000</v>
+        <v>60548900</v>
       </c>
       <c r="H16">
         <v>9384300</v>
       </c>
       <c r="I16">
-        <v>175019237000</v>
+        <v>162459609200</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-01T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1788633064000</v>
+        <v>1632802051000</v>
       </c>
       <c r="L16">
         <v>102210000</v>
@@ -1193,13 +1193,13 @@
         <v>5521300</v>
       </c>
       <c r="N16">
-        <v>103444911000</v>
+        <v>94701563100</v>
       </c>
       <c r="O16">
         <v>11995600</v>
       </c>
       <c r="P16">
-        <v>256780783000</v>
+        <v>231392396800</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>38600</v>
       </c>
       <c r="E17">
-        <v>58709967000</v>
+        <v>50775809100</v>
       </c>
       <c r="F17">
-        <v>75301960000</v>
+        <v>69973693600</v>
       </c>
       <c r="G17">
-        <v>560210000</v>
+        <v>513656600</v>
       </c>
       <c r="H17">
         <v>7283400</v>
       </c>
       <c r="I17">
-        <v>134572137000</v>
+        <v>121263159300</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-01T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1923205201000</v>
+        <v>1754065210300</v>
       </c>
       <c r="L17">
         <v>109493400</v>
@@ -1243,13 +1243,13 @@
         <v>1515000</v>
       </c>
       <c r="N17">
-        <v>16591993000</v>
+        <v>19197884500</v>
       </c>
       <c r="O17">
         <v>13510600</v>
       </c>
       <c r="P17">
-        <v>273372776000</v>
+        <v>250590281300</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>10900</v>
       </c>
       <c r="E18">
-        <v>67677653000</v>
+        <v>60649787900</v>
       </c>
       <c r="F18">
-        <v>53351824000</v>
+        <v>41992494700</v>
       </c>
       <c r="G18">
         <v>112144000</v>
@@ -1278,13 +1278,13 @@
         <v>7131400</v>
       </c>
       <c r="I18">
-        <v>121141621000</v>
+        <v>102754426600</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-01T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2044346822000</v>
+        <v>1856819636900</v>
       </c>
       <c r="L18">
         <v>116624800</v>
@@ -1293,13 +1293,13 @@
         <v>-1012300</v>
       </c>
       <c r="N18">
-        <v>-14325829000</v>
+        <v>-18657293200</v>
       </c>
       <c r="O18">
         <v>12498300</v>
       </c>
       <c r="P18">
-        <v>259046947000</v>
+        <v>231932988100</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>2500</v>
       </c>
       <c r="E19">
-        <v>95998959000</v>
+        <v>83558911500</v>
       </c>
       <c r="F19">
-        <v>39717923000</v>
+        <v>29193957500</v>
       </c>
       <c r="G19">
         <v>65885000</v>
@@ -1328,13 +1328,13 @@
         <v>6866800</v>
       </c>
       <c r="I19">
-        <v>135782767000</v>
+        <v>112818754000</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-01T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2180129589000</v>
+        <v>1969638390900</v>
       </c>
       <c r="L19">
         <v>123491600</v>
@@ -1343,13 +1343,13 @@
         <v>-2752100</v>
       </c>
       <c r="N19">
-        <v>-56281036000</v>
+        <v>-54364954000</v>
       </c>
       <c r="O19">
         <v>9746200</v>
       </c>
       <c r="P19">
-        <v>202765911000</v>
+        <v>177568034100</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>5800</v>
       </c>
       <c r="E20">
-        <v>60773410000</v>
+        <v>56393993800</v>
       </c>
       <c r="F20">
-        <v>43062796000</v>
+        <v>24504872500</v>
       </c>
       <c r="G20">
         <v>211665000</v>
@@ -1378,13 +1378,13 @@
         <v>5944800</v>
       </c>
       <c r="I20">
-        <v>104047871000</v>
+        <v>81110531300</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-01T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2284177460000</v>
+        <v>2050748922200</v>
       </c>
       <c r="L20">
         <v>129436400</v>
@@ -1393,13 +1393,13 @@
         <v>-1272400</v>
       </c>
       <c r="N20">
-        <v>-17710614000</v>
+        <v>-31889121300</v>
       </c>
       <c r="O20">
         <v>8473800</v>
       </c>
       <c r="P20">
-        <v>185055297000</v>
+        <v>145678912800</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>25500</v>
       </c>
       <c r="E21">
-        <v>51760149000</v>
+        <v>41180938800</v>
       </c>
       <c r="F21">
-        <v>30568186000</v>
+        <v>23586274900</v>
       </c>
       <c r="G21">
         <v>593861000</v>
@@ -1428,13 +1428,13 @@
         <v>4669600</v>
       </c>
       <c r="I21">
-        <v>82922196000</v>
+        <v>65361074700</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-01T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2367099656000</v>
+        <v>2116109996900</v>
       </c>
       <c r="L21">
         <v>134106000</v>
@@ -1443,13 +1443,13 @@
         <v>-1359700</v>
       </c>
       <c r="N21">
-        <v>-21191963000</v>
+        <v>-17594663900</v>
       </c>
       <c r="O21">
         <v>7114100</v>
       </c>
       <c r="P21">
-        <v>163863334000</v>
+        <v>128084248900</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>17800</v>
       </c>
       <c r="E22">
-        <v>51629610000</v>
+        <v>48863079300</v>
       </c>
       <c r="F22">
-        <v>27237192000</v>
+        <v>24525706200</v>
       </c>
       <c r="G22">
-        <v>259370000</v>
+        <v>201527900</v>
       </c>
       <c r="H22">
         <v>4581000</v>
       </c>
       <c r="I22">
-        <v>79126172000</v>
+        <v>73590313400</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-01T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2446225828000</v>
+        <v>2189700310300</v>
       </c>
       <c r="L22">
         <v>138687000</v>
@@ -1493,13 +1493,13 @@
         <v>-1105000</v>
       </c>
       <c r="N22">
-        <v>-24392418000</v>
+        <v>-24337373100</v>
       </c>
       <c r="O22">
         <v>6009100</v>
       </c>
       <c r="P22">
-        <v>139470916000</v>
+        <v>103746875800</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>32200</v>
       </c>
       <c r="E23">
-        <v>53313398000</v>
+        <v>47307709700</v>
       </c>
       <c r="F23">
-        <v>35780697000</v>
+        <v>31305576600</v>
       </c>
       <c r="G23">
         <v>824488000</v>
@@ -1528,13 +1528,13 @@
         <v>4962600</v>
       </c>
       <c r="I23">
-        <v>89918583000</v>
+        <v>79437774300</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-01T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2536144411000</v>
+        <v>2269138084600</v>
       </c>
       <c r="L23">
         <v>143649600</v>
@@ -1543,13 +1543,13 @@
         <v>-1032200</v>
       </c>
       <c r="N23">
-        <v>-17532701000</v>
+        <v>-16002133100</v>
       </c>
       <c r="O23">
         <v>4976900</v>
       </c>
       <c r="P23">
-        <v>121938215000</v>
+        <v>87744742700</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>8900</v>
       </c>
       <c r="E24">
-        <v>37803953000</v>
+        <v>35230628900</v>
       </c>
       <c r="F24">
-        <v>41382791000</v>
+        <v>34582498100</v>
       </c>
       <c r="G24">
-        <v>352370000</v>
+        <v>275946500</v>
       </c>
       <c r="H24">
         <v>4199200</v>
       </c>
       <c r="I24">
-        <v>79539114000</v>
+        <v>70089073500</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-01T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2615683525000</v>
+        <v>2339227158100</v>
       </c>
       <c r="L24">
         <v>147848800</v>
@@ -1593,13 +1593,13 @@
         <v>-521300</v>
       </c>
       <c r="N24">
-        <v>3578838000</v>
+        <v>-648130800</v>
       </c>
       <c r="O24">
         <v>4455600</v>
       </c>
       <c r="P24">
-        <v>125517053000</v>
+        <v>87096611900</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>3400</v>
       </c>
       <c r="E25">
-        <v>33867686000</v>
+        <v>28949708900</v>
       </c>
       <c r="F25">
-        <v>42505937000</v>
+        <v>39531214700</v>
       </c>
       <c r="G25">
-        <v>41394000</v>
+        <v>37797600</v>
       </c>
       <c r="H25">
         <v>4385800</v>
       </c>
       <c r="I25">
-        <v>76415017000</v>
+        <v>68518721200</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-01T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2692098542000</v>
+        <v>2407745879300</v>
       </c>
       <c r="L25">
         <v>152234600</v>
@@ -1643,13 +1643,13 @@
         <v>208600</v>
       </c>
       <c r="N25">
-        <v>8638251000</v>
+        <v>10581505800</v>
       </c>
       <c r="O25">
         <v>4664200</v>
       </c>
       <c r="P25">
-        <v>134155304000</v>
+        <v>97678117700</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>9700</v>
       </c>
       <c r="E26">
-        <v>36594889000</v>
+        <v>31945742800</v>
       </c>
       <c r="F26">
-        <v>37344999000</v>
+        <v>35376069900</v>
       </c>
       <c r="G26">
         <v>213900000</v>
@@ -1678,13 +1678,13 @@
         <v>3872300</v>
       </c>
       <c r="I26">
-        <v>74153788000</v>
+        <v>67535712700</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-01T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2766252330000</v>
+        <v>2475281592000</v>
       </c>
       <c r="L26">
         <v>156106900</v>
@@ -1693,13 +1693,13 @@
         <v>422200</v>
       </c>
       <c r="N26">
-        <v>750110000</v>
+        <v>3430327100</v>
       </c>
       <c r="O26">
         <v>5086400</v>
       </c>
       <c r="P26">
-        <v>134905414000</v>
+        <v>101108444800</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>2000</v>
       </c>
       <c r="E27">
-        <v>44114501000</v>
+        <v>40501118000</v>
       </c>
       <c r="F27">
-        <v>24563533000</v>
+        <v>21318181600</v>
       </c>
       <c r="G27">
         <v>42290000</v>
@@ -1728,13 +1728,13 @@
         <v>3566600</v>
       </c>
       <c r="I27">
-        <v>68720324000</v>
+        <v>61861589600</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-01T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2834972654000</v>
+        <v>2537143181600</v>
       </c>
       <c r="L27">
         <v>159673500</v>
@@ -1743,13 +1743,13 @@
         <v>-732800</v>
       </c>
       <c r="N27">
-        <v>-19550968000</v>
+        <v>-19182936400</v>
       </c>
       <c r="O27">
         <v>4353600</v>
       </c>
       <c r="P27">
-        <v>115354446000</v>
+        <v>81925508400</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>4800</v>
       </c>
       <c r="E28">
-        <v>56308039000</v>
+        <v>52746404200</v>
       </c>
       <c r="F28">
-        <v>19804468000</v>
+        <v>17617257400</v>
       </c>
       <c r="G28">
         <v>50539000</v>
@@ -1778,13 +1778,13 @@
         <v>4392800</v>
       </c>
       <c r="I28">
-        <v>76163046000</v>
+        <v>70414200600</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-01T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2911135700000</v>
+        <v>2607557382200</v>
       </c>
       <c r="L28">
         <v>164066300</v>
@@ -1793,13 +1793,13 @@
         <v>-1722600</v>
       </c>
       <c r="N28">
-        <v>-36503571000</v>
+        <v>-35129146800</v>
       </c>
       <c r="O28">
         <v>2631000</v>
       </c>
       <c r="P28">
-        <v>78850875000</v>
+        <v>46796361600</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>24300</v>
       </c>
       <c r="E29">
-        <v>53942172000</v>
+        <v>51042974100</v>
       </c>
       <c r="F29">
-        <v>28941571000</v>
+        <v>26417497600</v>
       </c>
       <c r="G29">
         <v>423630000</v>
@@ -1828,13 +1828,13 @@
         <v>4899600</v>
       </c>
       <c r="I29">
-        <v>83307373000</v>
+        <v>77884101700</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-01T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2994443073000</v>
+        <v>2685441483900</v>
       </c>
       <c r="L29">
         <v>168965900</v>
@@ -1843,13 +1843,13 @@
         <v>-1895700</v>
       </c>
       <c r="N29">
-        <v>-25000601000</v>
+        <v>-24625476500</v>
       </c>
       <c r="O29">
         <v>735300</v>
       </c>
       <c r="P29">
-        <v>53850274000</v>
+        <v>22170885100</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>2000</v>
       </c>
       <c r="E30">
-        <v>39518200000</v>
+        <v>26931199600</v>
       </c>
       <c r="F30">
-        <v>22696246000</v>
+        <v>21531911500</v>
       </c>
       <c r="G30">
         <v>18743000.000000004</v>
@@ -1878,13 +1878,13 @@
         <v>3750800</v>
       </c>
       <c r="I30">
-        <v>62233189000</v>
+        <v>48481854100</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-01T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3056676262000</v>
+        <v>2733923338000</v>
       </c>
       <c r="L30">
         <v>172716700</v>
@@ -1893,13 +1893,13 @@
         <v>-1249000</v>
       </c>
       <c r="N30">
-        <v>-16821954000</v>
+        <v>-5399288100</v>
       </c>
       <c r="O30">
         <v>-513700</v>
       </c>
       <c r="P30">
-        <v>37028320000</v>
+        <v>16771597000</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>2500</v>
       </c>
       <c r="E31">
-        <v>33709088000</v>
+        <v>27167835800</v>
       </c>
       <c r="F31">
-        <v>33632573000</v>
+        <v>28659451100</v>
       </c>
       <c r="G31">
         <v>59890000</v>
@@ -1928,13 +1928,13 @@
         <v>3849000</v>
       </c>
       <c r="I31">
-        <v>67401551000</v>
+        <v>55887176900</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-01T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3124077813000</v>
+        <v>2789810514900</v>
       </c>
       <c r="L31">
         <v>176565700</v>
@@ -1943,13 +1943,13 @@
         <v>193100</v>
       </c>
       <c r="N31">
-        <v>-76515000</v>
+        <v>1491615300</v>
       </c>
       <c r="O31">
         <v>-320600</v>
       </c>
       <c r="P31">
-        <v>36951805000</v>
+        <v>18263212300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>10400</v>
       </c>
       <c r="E32">
-        <v>28107425000</v>
+        <v>25151883500</v>
       </c>
       <c r="F32">
-        <v>24988774000</v>
+        <v>23319045400</v>
       </c>
       <c r="G32">
         <v>212927000</v>
@@ -1978,13 +1978,13 @@
         <v>3178300</v>
       </c>
       <c r="I32">
-        <v>53309126000</v>
+        <v>48683855900</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-01T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3177386939000</v>
+        <v>2838494370800</v>
       </c>
       <c r="L32">
         <v>179744000</v>
@@ -1993,13 +1993,13 @@
         <v>-129300</v>
       </c>
       <c r="N32">
-        <v>-3118651000</v>
+        <v>-1832838100</v>
       </c>
       <c r="O32">
         <v>-449900</v>
       </c>
       <c r="P32">
-        <v>33833154000</v>
+        <v>16430374200</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>500</v>
       </c>
       <c r="E33">
-        <v>31550600000</v>
+        <v>30284767100</v>
       </c>
       <c r="F33">
-        <v>47623676000</v>
+        <v>38306202800</v>
       </c>
       <c r="G33">
         <v>15530000</v>
@@ -2028,13 +2028,13 @@
         <v>4439300</v>
       </c>
       <c r="I33">
-        <v>79189806000</v>
+        <v>68606499900</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-01T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3256576745000</v>
+        <v>2907100870700</v>
       </c>
       <c r="L33">
         <v>184183300</v>
@@ -2043,13 +2043,13 @@
         <v>828200</v>
       </c>
       <c r="N33">
-        <v>16073076000</v>
+        <v>8021435700</v>
       </c>
       <c r="O33">
         <v>378300</v>
       </c>
       <c r="P33">
-        <v>49906230000</v>
+        <v>24451809900</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>3700</v>
       </c>
       <c r="E34">
-        <v>27710516000</v>
+        <v>25323405500</v>
       </c>
       <c r="F34">
-        <v>42527700000</v>
+        <v>33611325300</v>
       </c>
       <c r="G34">
-        <v>143864000</v>
+        <v>136871000</v>
       </c>
       <c r="H34">
         <v>3653600</v>
       </c>
       <c r="I34">
-        <v>70382080000</v>
+        <v>59071601800</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-01T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3326958825000</v>
+        <v>2966172472500</v>
       </c>
       <c r="L34">
         <v>187836900</v>
@@ -2093,13 +2093,13 @@
         <v>741900</v>
       </c>
       <c r="N34">
-        <v>14817184000</v>
+        <v>8287919800</v>
       </c>
       <c r="O34">
         <v>1120200</v>
       </c>
       <c r="P34">
-        <v>64723414000</v>
+        <v>32739729700</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>4800</v>
       </c>
       <c r="E35">
-        <v>27048894000</v>
+        <v>21931916100</v>
       </c>
       <c r="F35">
-        <v>47603452000</v>
+        <v>43111648300</v>
       </c>
       <c r="G35">
-        <v>151100000</v>
+        <v>147703400</v>
       </c>
       <c r="H35">
         <v>4213500</v>
       </c>
       <c r="I35">
-        <v>74803446000</v>
+        <v>65191267800</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-01T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3401762271000</v>
+        <v>3031363740300</v>
       </c>
       <c r="L35">
         <v>192050400</v>
@@ -2143,13 +2143,13 @@
         <v>969100</v>
       </c>
       <c r="N35">
-        <v>20554558000</v>
+        <v>21179732200</v>
       </c>
       <c r="O35">
         <v>2089300</v>
       </c>
       <c r="P35">
-        <v>85277972000</v>
+        <v>53919461900</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>3600</v>
       </c>
       <c r="E36">
-        <v>31016215000</v>
+        <v>26391544300</v>
       </c>
       <c r="F36">
-        <v>33403217000</v>
+        <v>24737491400</v>
       </c>
       <c r="G36">
         <v>80770000</v>
@@ -2178,13 +2178,13 @@
         <v>3224000</v>
       </c>
       <c r="I36">
-        <v>64500202000</v>
+        <v>51209805700</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-01T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3466262473000</v>
+        <v>3082573546000</v>
       </c>
       <c r="L36">
         <v>195274400</v>
@@ -2193,13 +2193,13 @@
         <v>130000</v>
       </c>
       <c r="N36">
-        <v>2387002000</v>
+        <v>-1654052900</v>
       </c>
       <c r="O36">
         <v>2219300</v>
       </c>
       <c r="P36">
-        <v>87664974000</v>
+        <v>52265409000</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>4700</v>
       </c>
       <c r="E37">
-        <v>24865372000</v>
+        <v>21775864600</v>
       </c>
       <c r="F37">
-        <v>34186200000</v>
+        <v>27477815100</v>
       </c>
       <c r="G37">
         <v>250520000</v>
@@ -2228,13 +2228,13 @@
         <v>3175900</v>
       </c>
       <c r="I37">
-        <v>59302092000</v>
+        <v>49504199700</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-01T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3525564565000</v>
+        <v>3132077745700</v>
       </c>
       <c r="L37">
         <v>198450300</v>
@@ -2243,13 +2243,13 @@
         <v>431600</v>
       </c>
       <c r="N37">
-        <v>9320828000</v>
+        <v>5701950500</v>
       </c>
       <c r="O37">
         <v>2650900</v>
       </c>
       <c r="P37">
-        <v>96985802000</v>
+        <v>57967359500</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>300</v>
       </c>
       <c r="E38">
-        <v>32610973000</v>
+        <v>28743344500</v>
       </c>
       <c r="F38">
-        <v>52018770000</v>
+        <v>38633568600</v>
       </c>
       <c r="G38">
         <v>2498000</v>
@@ -2278,13 +2278,13 @@
         <v>5100800</v>
       </c>
       <c r="I38">
-        <v>84632241000</v>
+        <v>67379411100</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-01T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3610196806000</v>
+        <v>3199457156800</v>
       </c>
       <c r="L38">
         <v>203551100</v>
@@ -2293,13 +2293,13 @@
         <v>1505100</v>
       </c>
       <c r="N38">
-        <v>19407797000</v>
+        <v>9890224100</v>
       </c>
       <c r="O38">
         <v>4156000</v>
       </c>
       <c r="P38">
-        <v>116393599000</v>
+        <v>67857583600</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>1300</v>
       </c>
       <c r="E39">
-        <v>33468080000</v>
+        <v>27129125300</v>
       </c>
       <c r="F39">
-        <v>54355394000</v>
+        <v>50744608400</v>
       </c>
       <c r="G39">
         <v>22345000</v>
@@ -2328,13 +2328,13 @@
         <v>4568100</v>
       </c>
       <c r="I39">
-        <v>87845819000</v>
+        <v>77896078700</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-01T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3698042625000</v>
+        <v>3277353235500</v>
       </c>
       <c r="L39">
         <v>208119200</v>
@@ -2343,13 +2343,13 @@
         <v>1304000</v>
       </c>
       <c r="N39">
-        <v>20887314000</v>
+        <v>23615483100</v>
       </c>
       <c r="O39">
         <v>5460000</v>
       </c>
       <c r="P39">
-        <v>137280913000</v>
+        <v>91473066700</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>9800</v>
       </c>
       <c r="E40">
-        <v>47998967000</v>
+        <v>42581290100</v>
       </c>
       <c r="F40">
-        <v>33406780000</v>
+        <v>30226063900</v>
       </c>
       <c r="G40">
         <v>159080000</v>
@@ -2378,13 +2378,13 @@
         <v>4567800</v>
       </c>
       <c r="I40">
-        <v>81564827000</v>
+        <v>72966434000</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-01T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3779607452000</v>
+        <v>3350319669500</v>
       </c>
       <c r="L40">
         <v>212687000</v>
@@ -2393,13 +2393,13 @@
         <v>-417000</v>
       </c>
       <c r="N40">
-        <v>-14592187000</v>
+        <v>-12355226200</v>
       </c>
       <c r="O40">
         <v>5043000</v>
       </c>
       <c r="P40">
-        <v>122688726000</v>
+        <v>79117840500</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>122900</v>
       </c>
       <c r="E41">
-        <v>43696334000</v>
+        <v>33569371100</v>
       </c>
       <c r="F41">
-        <v>47408348000</v>
+        <v>47127629000</v>
       </c>
       <c r="G41">
         <v>1715460000</v>
@@ -2428,13 +2428,13 @@
         <v>6797600</v>
       </c>
       <c r="I41">
-        <v>92820142000</v>
+        <v>82412460100</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-01T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3872427594000</v>
+        <v>3432732129600</v>
       </c>
       <c r="L41">
         <v>219484600</v>
@@ -2443,13 +2443,13 @@
         <v>2171900</v>
       </c>
       <c r="N41">
-        <v>3712014000</v>
+        <v>13558257900</v>
       </c>
       <c r="O41">
         <v>7214900</v>
       </c>
       <c r="P41">
-        <v>126400740000</v>
+        <v>92676098400</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>9700</v>
       </c>
       <c r="E42">
-        <v>39984290000</v>
+        <v>33059022200</v>
       </c>
       <c r="F42">
-        <v>62797007000</v>
+        <v>58176532100</v>
       </c>
       <c r="G42">
-        <v>363346000</v>
+        <v>360349000</v>
       </c>
       <c r="H42">
         <v>5481200</v>
       </c>
       <c r="I42">
-        <v>103144643000</v>
+        <v>91595903300</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-01T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3975572237000</v>
+        <v>3524328032900</v>
       </c>
       <c r="L42">
         <v>224965800</v>
@@ -2493,13 +2493,13 @@
         <v>851100</v>
       </c>
       <c r="N42">
-        <v>22812717000</v>
+        <v>25117509900</v>
       </c>
       <c r="O42">
         <v>8066000</v>
       </c>
       <c r="P42">
-        <v>149213457000</v>
+        <v>117793608300</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>5000</v>
       </c>
       <c r="E43">
-        <v>35778413000</v>
+        <v>33015179000</v>
       </c>
       <c r="F43">
-        <v>48052379000</v>
+        <v>43083053300</v>
       </c>
       <c r="G43">
         <v>70840000</v>
@@ -2528,13 +2528,13 @@
         <v>5052400</v>
       </c>
       <c r="I43">
-        <v>83901632000</v>
+        <v>76169072300</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-01T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>4059473869000</v>
+        <v>3600497105200</v>
       </c>
       <c r="L43">
         <v>230018200</v>
@@ -2543,13 +2543,13 @@
         <v>1124000</v>
       </c>
       <c r="N43">
-        <v>12273966000</v>
+        <v>10067874300</v>
       </c>
       <c r="O43">
         <v>9190000</v>
       </c>
       <c r="P43">
-        <v>161487423000</v>
+        <v>127861482600</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>44400</v>
       </c>
       <c r="E44">
-        <v>41741803000</v>
+        <v>37995353200</v>
       </c>
       <c r="F44">
-        <v>60630681000</v>
+        <v>58486827000</v>
       </c>
       <c r="G44">
         <v>683348000</v>
@@ -2578,13 +2578,13 @@
         <v>6047300</v>
       </c>
       <c r="I44">
-        <v>103055832000</v>
+        <v>97165528200</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-01T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4162529701000</v>
+        <v>3697662633400</v>
       </c>
       <c r="L44">
         <v>236065500</v>
@@ -2593,13 +2593,13 @@
         <v>1454100</v>
       </c>
       <c r="N44">
-        <v>18888878000</v>
+        <v>20491473800</v>
       </c>
       <c r="O44">
         <v>10644100</v>
       </c>
       <c r="P44">
-        <v>180376301000</v>
+        <v>148352956400</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>75300</v>
       </c>
       <c r="E45">
-        <v>92901022000</v>
+        <v>84430800700</v>
       </c>
       <c r="F45">
-        <v>48473727000</v>
+        <v>40340268600</v>
       </c>
       <c r="G45">
         <v>1475103000</v>
@@ -2628,13 +2628,13 @@
         <v>7486800</v>
       </c>
       <c r="I45">
-        <v>142849852000</v>
+        <v>126246172300</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-01T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>4305379553000</v>
+        <v>3823908805700</v>
       </c>
       <c r="L45">
         <v>243552300</v>
@@ -2643,13 +2643,13 @@
         <v>-514500</v>
       </c>
       <c r="N45">
-        <v>-44427295000</v>
+        <v>-44090532100</v>
       </c>
       <c r="O45">
         <v>10129600</v>
       </c>
       <c r="P45">
-        <v>135949006000</v>
+        <v>104262424300</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>21200</v>
       </c>
       <c r="E46">
-        <v>121473156000</v>
+        <v>111877061700</v>
       </c>
       <c r="F46">
-        <v>16587360000</v>
+        <v>15077871000</v>
       </c>
       <c r="G46">
-        <v>511205000</v>
+        <v>401315000</v>
       </c>
       <c r="H46">
         <v>7755300</v>
       </c>
       <c r="I46">
-        <v>138571721000</v>
+        <v>127356247700</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-01T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4443951274000</v>
+        <v>3951265053400</v>
       </c>
       <c r="L46">
         <v>251307600</v>
@@ -2693,13 +2693,13 @@
         <v>-5529100</v>
       </c>
       <c r="N46">
-        <v>-104885796000</v>
+        <v>-96799190700</v>
       </c>
       <c r="O46">
         <v>4600500</v>
       </c>
       <c r="P46">
-        <v>31063210000</v>
+        <v>7463233600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>23900</v>
       </c>
       <c r="E47">
-        <v>103054759000</v>
+        <v>95437583800</v>
       </c>
       <c r="F47">
-        <v>20691870000</v>
+        <v>19193070300</v>
       </c>
       <c r="G47">
         <v>276944000</v>
@@ -2728,13 +2728,13 @@
         <v>8193100</v>
       </c>
       <c r="I47">
-        <v>124023573000</v>
+        <v>114907598100</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-01T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4567974847000</v>
+        <v>4066172651500</v>
       </c>
       <c r="L47">
         <v>259500700</v>
@@ -2743,13 +2743,13 @@
         <v>-5568800</v>
       </c>
       <c r="N47">
-        <v>-82362889000</v>
+        <v>-76244513500</v>
       </c>
       <c r="O47">
         <v>-968300</v>
       </c>
       <c r="P47">
-        <v>-51299679000</v>
+        <v>-68781279900</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>5600</v>
       </c>
       <c r="E48">
-        <v>54785181000</v>
+        <v>51643725600</v>
       </c>
       <c r="F48">
-        <v>21619012000</v>
+        <v>19968064600</v>
       </c>
       <c r="G48">
         <v>221797000</v>
@@ -2778,13 +2778,13 @@
         <v>4604100</v>
       </c>
       <c r="I48">
-        <v>76625990000</v>
+        <v>71833587200</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-01T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4644600837000</v>
+        <v>4138006238700</v>
       </c>
       <c r="L48">
         <v>264104800</v>
@@ -2793,13 +2793,13 @@
         <v>-2103300</v>
       </c>
       <c r="N48">
-        <v>-33166169000</v>
+        <v>-31675661000</v>
       </c>
       <c r="O48">
         <v>-3071600</v>
       </c>
       <c r="P48">
-        <v>-84465848000</v>
+        <v>-100456940900</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>6600</v>
       </c>
       <c r="E49">
-        <v>51316929000</v>
+        <v>45067784400</v>
       </c>
       <c r="F49">
-        <v>38177286000</v>
+        <v>35708956800</v>
       </c>
       <c r="G49">
         <v>132166000</v>
@@ -2828,13 +2828,13 @@
         <v>5458300</v>
       </c>
       <c r="I49">
-        <v>89626381000</v>
+        <v>80908907200</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-01T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4734227218000</v>
+        <v>4218915145900</v>
       </c>
       <c r="L49">
         <v>269563100</v>
@@ -2843,13 +2843,13 @@
         <v>-938300</v>
       </c>
       <c r="N49">
-        <v>-13139643000</v>
+        <v>-9358827600</v>
       </c>
       <c r="O49">
         <v>-4009900</v>
       </c>
       <c r="P49">
-        <v>-97605491000</v>
+        <v>-109815768500</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>6700</v>
       </c>
       <c r="E50">
-        <v>62893036000</v>
+        <v>59471860600</v>
       </c>
       <c r="F50">
-        <v>30091641000</v>
+        <v>26707928100</v>
       </c>
       <c r="G50">
         <v>121639000</v>
@@ -2878,13 +2878,13 @@
         <v>5117800</v>
       </c>
       <c r="I50">
-        <v>93106316000</v>
+        <v>86301427700</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-01T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4827333534000</v>
+        <v>4305216573600</v>
       </c>
       <c r="L50">
         <v>274680900</v>
@@ -2893,13 +2893,13 @@
         <v>-1563300</v>
       </c>
       <c r="N50">
-        <v>-32801395000</v>
+        <v>-32763932500</v>
       </c>
       <c r="O50">
         <v>-5573200</v>
       </c>
       <c r="P50">
-        <v>-130406886000</v>
+        <v>-142579701000</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>8000</v>
       </c>
       <c r="E51">
-        <v>75678678000</v>
+        <v>71556304500</v>
       </c>
       <c r="F51">
-        <v>25006689000</v>
+        <v>24383912400</v>
       </c>
       <c r="G51">
         <v>117728000</v>
@@ -2928,13 +2928,13 @@
         <v>5994900</v>
       </c>
       <c r="I51">
-        <v>100803095000</v>
+        <v>96057944900</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-01T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4928136629000</v>
+        <v>4401274518500</v>
       </c>
       <c r="L51">
         <v>280675800</v>
@@ -2943,13 +2943,13 @@
         <v>-2815700</v>
       </c>
       <c r="N51">
-        <v>-50671989000</v>
+        <v>-47172392100</v>
       </c>
       <c r="O51">
         <v>-8388900</v>
       </c>
       <c r="P51">
-        <v>-181078875000</v>
+        <v>-189752093100</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>1700</v>
       </c>
       <c r="E52">
-        <v>58737660000</v>
+        <v>54811789800</v>
       </c>
       <c r="F52">
-        <v>28819967000</v>
+        <v>27183904700</v>
       </c>
       <c r="G52">
         <v>85875000</v>
@@ -2978,13 +2978,13 @@
         <v>4940000</v>
       </c>
       <c r="I52">
-        <v>87643502000</v>
+        <v>82081569500</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-01T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>5015780131000</v>
+        <v>4483356088000</v>
       </c>
       <c r="L52">
         <v>285615800</v>
@@ -2993,13 +2993,13 @@
         <v>-1659900</v>
       </c>
       <c r="N52">
-        <v>-29917693000</v>
+        <v>-27627885100</v>
       </c>
       <c r="O52">
         <v>-10048800</v>
       </c>
       <c r="P52">
-        <v>-210996568000</v>
+        <v>-217379978200</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>8000</v>
       </c>
       <c r="E53">
-        <v>50760404000</v>
+        <v>44863007300</v>
       </c>
       <c r="F53">
-        <v>24428055000</v>
+        <v>22077408000</v>
       </c>
       <c r="G53">
-        <v>162390000</v>
+        <v>160791600</v>
       </c>
       <c r="H53">
         <v>4719000</v>
       </c>
       <c r="I53">
-        <v>75350849000</v>
+        <v>67101206900</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-01T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>5091130980000</v>
+        <v>4550457294900</v>
       </c>
       <c r="L53">
         <v>290334800</v>
@@ -3043,13 +3043,13 @@
         <v>-1521600</v>
       </c>
       <c r="N53">
-        <v>-26332349000</v>
+        <v>-22785599300</v>
       </c>
       <c r="O53">
         <v>-11570400</v>
       </c>
       <c r="P53">
-        <v>-237328917000</v>
+        <v>-240165577500</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>2400</v>
       </c>
       <c r="E54">
-        <v>33534583000</v>
+        <v>31113806200</v>
       </c>
       <c r="F54">
-        <v>27996781000</v>
+        <v>26691187900</v>
       </c>
       <c r="G54">
         <v>119460000</v>
@@ -3078,13 +3078,13 @@
         <v>3491800</v>
       </c>
       <c r="I54">
-        <v>61650824000</v>
+        <v>57924454100</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-01T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>5152781804000</v>
+        <v>4608381749000</v>
       </c>
       <c r="L54">
         <v>293826600</v>
@@ -3093,13 +3093,13 @@
         <v>-634600</v>
       </c>
       <c r="N54">
-        <v>-5537802000</v>
+        <v>-4422618300</v>
       </c>
       <c r="O54">
         <v>-12205000</v>
       </c>
       <c r="P54">
-        <v>-242866719000</v>
+        <v>-244588195800</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>8000</v>
       </c>
       <c r="E55">
-        <v>46794529000</v>
+        <v>43618907800</v>
       </c>
       <c r="F55">
-        <v>23619301000</v>
+        <v>20946276700</v>
       </c>
       <c r="G55">
         <v>31212000</v>
@@ -3128,13 +3128,13 @@
         <v>3761800</v>
       </c>
       <c r="I55">
-        <v>70445042000</v>
+        <v>64596396500</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-01T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>5223226846000</v>
+        <v>4672978145500</v>
       </c>
       <c r="L55">
         <v>297588400</v>
@@ -3143,13 +3143,13 @@
         <v>-1225600</v>
       </c>
       <c r="N55">
-        <v>-23175228000</v>
+        <v>-22672631100</v>
       </c>
       <c r="O55">
         <v>-13430600</v>
       </c>
       <c r="P55">
-        <v>-266041947000</v>
+        <v>-267260826900</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>2900</v>
       </c>
       <c r="E56">
-        <v>28261707000</v>
+        <v>26905264800</v>
       </c>
       <c r="F56">
-        <v>32357247000</v>
+        <v>29683823100</v>
       </c>
       <c r="G56">
         <v>127550000</v>
@@ -3178,13 +3178,13 @@
         <v>3508700</v>
       </c>
       <c r="I56">
-        <v>60746504000</v>
+        <v>56716637900</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-01T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>5283973350000</v>
+        <v>4729694783400</v>
       </c>
       <c r="L56">
         <v>301097100</v>
@@ -3193,13 +3193,13 @@
         <v>301200</v>
       </c>
       <c r="N56">
-        <v>4095540000</v>
+        <v>2778558300</v>
       </c>
       <c r="O56">
         <v>-13129400</v>
       </c>
       <c r="P56">
-        <v>-261946407000</v>
+        <v>-264482268600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>2600</v>
       </c>
       <c r="E57">
-        <v>54318859000</v>
+        <v>52096583500</v>
       </c>
       <c r="F57">
-        <v>15001445000</v>
+        <v>13712235500</v>
       </c>
       <c r="G57">
         <v>66565000</v>
@@ -3228,13 +3228,13 @@
         <v>3719300</v>
       </c>
       <c r="I57">
-        <v>69386869000</v>
+        <v>65875384000</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-01T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>5353360219000</v>
+        <v>4795570167400</v>
       </c>
       <c r="L57">
         <v>304816400</v>
@@ -3243,13 +3243,13 @@
         <v>-2311700</v>
       </c>
       <c r="N57">
-        <v>-39317414000</v>
+        <v>-38384348000</v>
       </c>
       <c r="O57">
         <v>-15441100</v>
       </c>
       <c r="P57">
-        <v>-301263821000</v>
+        <v>-302866616600</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>108600</v>
       </c>
       <c r="E58">
-        <v>28322632000</v>
+        <v>27654500800</v>
       </c>
       <c r="F58">
-        <v>32217270000</v>
+        <v>24968725800</v>
       </c>
       <c r="G58">
         <v>765220000</v>
@@ -3278,13 +3278,13 @@
         <v>3619600</v>
       </c>
       <c r="I58">
-        <v>61305122000</v>
+        <v>53388446600</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-01T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>5414665341000</v>
+        <v>4848958614000</v>
       </c>
       <c r="L58">
         <v>308436000</v>
@@ -3293,13 +3293,13 @@
         <v>267400</v>
       </c>
       <c r="N58">
-        <v>3894638000</v>
+        <v>-2685775000</v>
       </c>
       <c r="O58">
         <v>-15173700</v>
       </c>
       <c r="P58">
-        <v>-297369183000</v>
+        <v>-305552391600</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>18400</v>
       </c>
       <c r="E59">
-        <v>29190235000</v>
+        <v>28794131500</v>
       </c>
       <c r="F59">
-        <v>30873437000</v>
+        <v>26756258300</v>
       </c>
       <c r="G59">
         <v>239403000</v>
@@ -3328,13 +3328,13 @@
         <v>3619600</v>
       </c>
       <c r="I59">
-        <v>60303075000</v>
+        <v>55789792800</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-01T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>5474968416000</v>
+        <v>4904748406800</v>
       </c>
       <c r="L59">
         <v>312055600</v>
@@ -3343,13 +3343,13 @@
         <v>-204600</v>
       </c>
       <c r="N59">
-        <v>1683202000</v>
+        <v>-2037873200</v>
       </c>
       <c r="O59">
         <v>-15378300</v>
       </c>
       <c r="P59">
-        <v>-295685981000</v>
+        <v>-307590264800</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>14900</v>
       </c>
       <c r="E60">
-        <v>25140594000</v>
+        <v>24251783700</v>
       </c>
       <c r="F60">
-        <v>45067594000</v>
+        <v>43355607700</v>
       </c>
       <c r="G60">
         <v>311916000</v>
@@ -3378,13 +3378,13 @@
         <v>3956500</v>
       </c>
       <c r="I60">
-        <v>70520104000</v>
+        <v>67919307400</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-01T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>5545488520000</v>
+        <v>4972667714200</v>
       </c>
       <c r="L60">
         <v>316012100</v>
@@ -3393,13 +3393,13 @@
         <v>839200</v>
       </c>
       <c r="N60">
-        <v>19927000000</v>
+        <v>19103824000</v>
       </c>
       <c r="O60">
         <v>-14539100</v>
       </c>
       <c r="P60">
-        <v>-275758981000</v>
+        <v>-288486440800</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>8200</v>
       </c>
       <c r="E61">
-        <v>26221587000</v>
+        <v>25874134800</v>
       </c>
       <c r="F61">
-        <v>43039136000</v>
+        <v>37589890700</v>
       </c>
       <c r="G61">
         <v>200030000</v>
@@ -3428,13 +3428,13 @@
         <v>3725600</v>
       </c>
       <c r="I61">
-        <v>69460753000</v>
+        <v>63664055500</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-01T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>5614949273000</v>
+        <v>5036331769700</v>
       </c>
       <c r="L61">
         <v>319737700</v>
@@ -3443,13 +3443,13 @@
         <v>613200</v>
       </c>
       <c r="N61">
-        <v>16817549000</v>
+        <v>11715755900</v>
       </c>
       <c r="O61">
         <v>-13925900</v>
       </c>
       <c r="P61">
-        <v>-258941432000</v>
+        <v>-276770684900</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>1700</v>
       </c>
       <c r="E62">
-        <v>31620027000</v>
+        <v>30040707900</v>
       </c>
       <c r="F62">
-        <v>18877016000</v>
+        <v>16927267700</v>
       </c>
       <c r="G62">
         <v>44545000</v>
@@ -3478,13 +3478,13 @@
         <v>2881700</v>
       </c>
       <c r="I62">
-        <v>50541588000</v>
+        <v>47012520600</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-01T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>5665490861000</v>
+        <v>5083344290300</v>
       </c>
       <c r="L62">
         <v>322619400</v>
@@ -3493,13 +3493,13 @@
         <v>-535400</v>
       </c>
       <c r="N62">
-        <v>-12743011000</v>
+        <v>-13113440200</v>
       </c>
       <c r="O62">
         <v>-14461300</v>
       </c>
       <c r="P62">
-        <v>-271684443000</v>
+        <v>-289884125100</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>23800</v>
       </c>
       <c r="E63">
-        <v>28994611000</v>
+        <v>26354453800</v>
       </c>
       <c r="F63">
-        <v>20239074000</v>
+        <v>16700316300</v>
       </c>
       <c r="G63">
         <v>168221000</v>
@@ -3528,13 +3528,13 @@
         <v>2737400</v>
       </c>
       <c r="I63">
-        <v>49401906000</v>
+        <v>43222991100</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-01T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>5714892767000</v>
+        <v>5126567281400</v>
       </c>
       <c r="L63">
         <v>325356800</v>
@@ -3543,13 +3543,13 @@
         <v>-706200</v>
       </c>
       <c r="N63">
-        <v>-8755537000</v>
+        <v>-9654137500</v>
       </c>
       <c r="O63">
         <v>-15167500</v>
       </c>
       <c r="P63">
-        <v>-280439980000</v>
+        <v>-299538262600</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>2300</v>
       </c>
       <c r="E64">
-        <v>42731771000</v>
+        <v>40113392000</v>
       </c>
       <c r="F64">
-        <v>18387374000</v>
+        <v>17156805800</v>
       </c>
       <c r="G64">
         <v>28140000</v>
@@ -3578,13 +3578,13 @@
         <v>3315600</v>
       </c>
       <c r="I64">
-        <v>61147285000</v>
+        <v>57298337800</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-01T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>5776040052000</v>
+        <v>5183865619200</v>
       </c>
       <c r="L64">
         <v>328672400</v>
@@ -3593,13 +3593,13 @@
         <v>-1158900</v>
       </c>
       <c r="N64">
-        <v>-24344397000</v>
+        <v>-22956586200</v>
       </c>
       <c r="O64">
         <v>-16326400</v>
       </c>
       <c r="P64">
-        <v>-304784377000</v>
+        <v>-322494848800</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>8200</v>
       </c>
       <c r="E65">
-        <v>63082648000</v>
+        <v>58910724100</v>
       </c>
       <c r="F65">
-        <v>14007851000</v>
+        <v>12087173600</v>
       </c>
       <c r="G65">
-        <v>118902000</v>
+        <v>113707200</v>
       </c>
       <c r="H65">
         <v>4258100</v>
       </c>
       <c r="I65">
-        <v>77209401000</v>
+        <v>71111604900</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-01T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>5853249453000</v>
+        <v>5254977224100</v>
       </c>
       <c r="L65">
         <v>332930500</v>
@@ -3643,13 +3643,13 @@
         <v>-2223900</v>
       </c>
       <c r="N65">
-        <v>-49074797000</v>
+        <v>-46823550500</v>
       </c>
       <c r="O65">
         <v>-18550300</v>
       </c>
       <c r="P65">
-        <v>-353859174000</v>
+        <v>-369318399300</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>3800</v>
       </c>
       <c r="E66">
-        <v>32459939000</v>
+        <v>31012288100</v>
       </c>
       <c r="F66">
-        <v>22632948000</v>
+        <v>17663022900</v>
       </c>
       <c r="G66">
         <v>72525000</v>
@@ -3678,13 +3678,13 @@
         <v>3048200</v>
       </c>
       <c r="I66">
-        <v>55165412000</v>
+        <v>48747836000</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-01T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>5908414865000</v>
+        <v>5303725060100</v>
       </c>
       <c r="L66">
         <v>335978700</v>
@@ -3693,13 +3693,13 @@
         <v>-557200</v>
       </c>
       <c r="N66">
-        <v>-9826991000</v>
+        <v>-13349265200</v>
       </c>
       <c r="O66">
         <v>-19107500</v>
       </c>
       <c r="P66">
-        <v>-363686165000</v>
+        <v>-382667664500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>10300</v>
       </c>
       <c r="E67">
-        <v>52848859000</v>
+        <v>51160848700</v>
       </c>
       <c r="F67">
-        <v>11397569000</v>
+        <v>10158609200</v>
       </c>
       <c r="G67">
         <v>218753000</v>
@@ -3728,13 +3728,13 @@
         <v>3543100</v>
       </c>
       <c r="I67">
-        <v>64465181000</v>
+        <v>61538210900</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-01T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>5972880046000</v>
+        <v>5365263271000</v>
       </c>
       <c r="L67">
         <v>339521800</v>
@@ -3743,13 +3743,13 @@
         <v>-2302800</v>
       </c>
       <c r="N67">
-        <v>-41451290000</v>
+        <v>-41002239500</v>
       </c>
       <c r="O67">
         <v>-21410300</v>
       </c>
       <c r="P67">
-        <v>-405137455000</v>
+        <v>-423669904000</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>12700</v>
       </c>
       <c r="E68">
-        <v>75211967000</v>
+        <v>72154227800</v>
       </c>
       <c r="F68">
-        <v>13742806000</v>
+        <v>12709540300</v>
       </c>
       <c r="G68">
         <v>356884000</v>
@@ -3778,13 +3778,13 @@
         <v>4731900</v>
       </c>
       <c r="I68">
-        <v>89311657000</v>
+        <v>85220652100</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-01T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>6062191703000</v>
+        <v>5450483923100</v>
       </c>
       <c r="L68">
         <v>344253700</v>
@@ -3793,13 +3793,13 @@
         <v>-3193600</v>
       </c>
       <c r="N68">
-        <v>-61469161000</v>
+        <v>-59444687500</v>
       </c>
       <c r="O68">
         <v>-24603900</v>
       </c>
       <c r="P68">
-        <v>-466606616000</v>
+        <v>-483114591500</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>2600</v>
       </c>
       <c r="E69">
-        <v>59667864000</v>
+        <v>56569165800</v>
       </c>
       <c r="F69">
-        <v>20777041000</v>
+        <v>19468251100</v>
       </c>
       <c r="G69">
-        <v>52027000</v>
+        <v>44434600</v>
       </c>
       <c r="H69">
         <v>4271400</v>
       </c>
       <c r="I69">
-        <v>80496932000</v>
+        <v>76081851500</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-01T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>6142688635000</v>
+        <v>5526565774600</v>
       </c>
       <c r="L69">
         <v>348525100</v>
@@ -3843,13 +3843,13 @@
         <v>-2376000</v>
       </c>
       <c r="N69">
-        <v>-38890823000</v>
+        <v>-37100914700</v>
       </c>
       <c r="O69">
         <v>-26979900</v>
       </c>
       <c r="P69">
-        <v>-505497439000</v>
+        <v>-520215506200</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>350000</v>
       </c>
       <c r="E70">
-        <v>206668682000</v>
+        <v>201665989700</v>
       </c>
       <c r="F70">
-        <v>81029624000</v>
+        <v>75799759100</v>
       </c>
       <c r="G70">
-        <v>6413510000</v>
+        <v>6184639100</v>
       </c>
       <c r="H70">
         <v>17302600</v>
       </c>
       <c r="I70">
-        <v>294111816000</v>
+        <v>283650387900</v>
       </c>
       <c r="J70" t="str">
         <v>2023-02-01T13:00:00.000Z</v>
       </c>
       <c r="K70">
-        <v>6436800451000</v>
+        <v>5810216162500</v>
       </c>
       <c r="L70">
         <v>365827700</v>
@@ -3893,13 +3893,13 @@
         <v>-7508800</v>
       </c>
       <c r="N70">
-        <v>-125639058000</v>
+        <v>-125866230600</v>
       </c>
       <c r="O70">
         <v>-34488700</v>
       </c>
       <c r="P70">
-        <v>-631136497000</v>
+        <v>-646081736800</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>16600</v>
       </c>
       <c r="E71">
-        <v>75673100000</v>
+        <v>70925252600</v>
       </c>
       <c r="F71">
-        <v>39186483000</v>
+        <v>35944028700</v>
       </c>
       <c r="G71">
         <v>522036000</v>
@@ -3928,13 +3928,13 @@
         <v>6767400</v>
       </c>
       <c r="I71">
-        <v>115381619000</v>
+        <v>107391317300</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-01T13:02:00.000Z</v>
       </c>
       <c r="K71">
-        <v>6552182070000</v>
+        <v>5917607479800</v>
       </c>
       <c r="L71">
         <v>372595100</v>
@@ -3943,13 +3943,13 @@
         <v>-2538400</v>
       </c>
       <c r="N71">
-        <v>-36486617000</v>
+        <v>-34981223900</v>
       </c>
       <c r="O71">
         <v>-37027100</v>
       </c>
       <c r="P71">
-        <v>-667623114000</v>
+        <v>-681062960700</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>2300</v>
       </c>
       <c r="E72">
-        <v>48338124000</v>
+        <v>41921846700</v>
       </c>
       <c r="F72">
-        <v>52462176000</v>
+        <v>49139302200</v>
       </c>
       <c r="G72">
-        <v>75136000</v>
+        <v>29981200</v>
       </c>
       <c r="H72">
         <v>5654900</v>
       </c>
       <c r="I72">
-        <v>100875436000</v>
+        <v>91091130100</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-01T13:04:00.000Z</v>
       </c>
       <c r="K72">
-        <v>6653057506000</v>
+        <v>6008698609900</v>
       </c>
       <c r="L72">
         <v>378250000</v>
@@ -3993,13 +3993,13 @@
         <v>-344000</v>
       </c>
       <c r="N72">
-        <v>4124052000</v>
+        <v>7217455500</v>
       </c>
       <c r="O72">
         <v>-37371100</v>
       </c>
       <c r="P72">
-        <v>-663499062000</v>
+        <v>-673845505200</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>18300</v>
       </c>
       <c r="E73">
-        <v>54962058000</v>
+        <v>53556864600</v>
       </c>
       <c r="F73">
-        <v>38616136000</v>
+        <v>36603950200</v>
       </c>
       <c r="G73">
         <v>211612000</v>
@@ -4028,13 +4028,13 @@
         <v>5147400</v>
       </c>
       <c r="I73">
-        <v>93789806000</v>
+        <v>90372426800</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-01T13:06:00.000Z</v>
       </c>
       <c r="K73">
-        <v>6746847312000</v>
+        <v>6099071036700</v>
       </c>
       <c r="L73">
         <v>383397400</v>
@@ -4043,13 +4043,13 @@
         <v>-904300</v>
       </c>
       <c r="N73">
-        <v>-16345922000</v>
+        <v>-16952914400</v>
       </c>
       <c r="O73">
         <v>-38275400</v>
       </c>
       <c r="P73">
-        <v>-679844984000</v>
+        <v>-690798419600</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>300</v>
       </c>
       <c r="E74">
-        <v>38449718000</v>
+        <v>34019352800</v>
       </c>
       <c r="F74">
-        <v>34972733000</v>
+        <v>33315891500</v>
       </c>
       <c r="G74">
         <v>13575000</v>
@@ -4078,13 +4078,13 @@
         <v>4046300</v>
       </c>
       <c r="I74">
-        <v>73436026000</v>
+        <v>67348819300</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-01T13:08:00.000Z</v>
       </c>
       <c r="K74">
-        <v>6820283338000</v>
+        <v>6166419856000</v>
       </c>
       <c r="L74">
         <v>387443700</v>
@@ -4093,13 +4093,13 @@
         <v>-389000</v>
       </c>
       <c r="N74">
-        <v>-3476985000</v>
+        <v>-703461300</v>
       </c>
       <c r="O74">
         <v>-38664400</v>
       </c>
       <c r="P74">
-        <v>-683321969000</v>
+        <v>-691501880900</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>7000</v>
       </c>
       <c r="E75">
-        <v>49267362000</v>
+        <v>48281349000</v>
       </c>
       <c r="F75">
-        <v>56228429000</v>
+        <v>54504254900</v>
       </c>
       <c r="G75">
         <v>133314000</v>
@@ -4128,13 +4128,13 @@
         <v>5716700</v>
       </c>
       <c r="I75">
-        <v>105629105000</v>
+        <v>102918917900</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-01T13:10:00.000Z</v>
       </c>
       <c r="K75">
-        <v>6925912443000</v>
+        <v>6269338773900</v>
       </c>
       <c r="L75">
         <v>393160400</v>
@@ -4143,13 +4143,13 @@
         <v>127900</v>
       </c>
       <c r="N75">
-        <v>6961067000</v>
+        <v>6222905900</v>
       </c>
       <c r="O75">
         <v>-38536500</v>
       </c>
       <c r="P75">
-        <v>-676360902000</v>
+        <v>-685278975000</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>7500</v>
       </c>
       <c r="E76">
-        <v>49555557000</v>
+        <v>47357956800</v>
       </c>
       <c r="F76">
-        <v>35273803000</v>
+        <v>33438440200</v>
       </c>
       <c r="G76">
-        <v>126670000</v>
+        <v>123772900</v>
       </c>
       <c r="H76">
         <v>4877100</v>
       </c>
       <c r="I76">
-        <v>84956030000</v>
+        <v>80920169900</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-01T13:12:00.000Z</v>
       </c>
       <c r="K76">
-        <v>7010868473000</v>
+        <v>6350258943800</v>
       </c>
       <c r="L76">
         <v>398037500</v>
@@ -4193,13 +4193,13 @@
         <v>-923200</v>
       </c>
       <c r="N76">
-        <v>-14281754000</v>
+        <v>-13919516600</v>
       </c>
       <c r="O76">
         <v>-39459700</v>
       </c>
       <c r="P76">
-        <v>-690642656000</v>
+        <v>-699198491600</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>14900</v>
       </c>
       <c r="E77">
-        <v>29422025000</v>
+        <v>27366182900</v>
       </c>
       <c r="F77">
-        <v>56061243000</v>
+        <v>52806501000</v>
       </c>
       <c r="G77">
         <v>618646000</v>
@@ -4228,13 +4228,13 @@
         <v>4627300</v>
       </c>
       <c r="I77">
-        <v>86101914000</v>
+        <v>80791329900</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-01T13:14:00.000Z</v>
       </c>
       <c r="K77">
-        <v>7096970387000</v>
+        <v>6431050273700</v>
       </c>
       <c r="L77">
         <v>402664800</v>
@@ -4243,13 +4243,13 @@
         <v>1266800</v>
       </c>
       <c r="N77">
-        <v>26639218000</v>
+        <v>25440318100</v>
       </c>
       <c r="O77">
         <v>-38192900</v>
       </c>
       <c r="P77">
-        <v>-664003438000</v>
+        <v>-673758173500</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>23700</v>
       </c>
       <c r="E78">
-        <v>29257681000</v>
+        <v>27545195200</v>
       </c>
       <c r="F78">
-        <v>43179422000</v>
+        <v>41978024600</v>
       </c>
       <c r="G78">
-        <v>301330000</v>
+        <v>298932400</v>
       </c>
       <c r="H78">
         <v>4097800</v>
       </c>
       <c r="I78">
-        <v>72738433000</v>
+        <v>69822152200</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-01T13:16:00.000Z</v>
       </c>
       <c r="K78">
-        <v>7169708820000</v>
+        <v>6500872425900</v>
       </c>
       <c r="L78">
         <v>406762600</v>
@@ -4293,13 +4293,13 @@
         <v>855100</v>
       </c>
       <c r="N78">
-        <v>13921741000</v>
+        <v>14432829400</v>
       </c>
       <c r="O78">
         <v>-37337800</v>
       </c>
       <c r="P78">
-        <v>-650081697000</v>
+        <v>-659325344100</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>14500</v>
       </c>
       <c r="E79">
-        <v>34935569000</v>
+        <v>33511094900</v>
       </c>
       <c r="F79">
-        <v>36685446000</v>
+        <v>35215017900</v>
       </c>
       <c r="G79">
         <v>216060000</v>
@@ -4328,13 +4328,13 @@
         <v>3905600</v>
       </c>
       <c r="I79">
-        <v>71837075000</v>
+        <v>68942172800</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-01T13:18:00.000Z</v>
       </c>
       <c r="K79">
-        <v>7241545895000</v>
+        <v>6569814598700</v>
       </c>
       <c r="L79">
         <v>410668200</v>
@@ -4343,13 +4343,13 @@
         <v>519100</v>
       </c>
       <c r="N79">
-        <v>1749877000</v>
+        <v>1703923000</v>
       </c>
       <c r="O79">
         <v>-36818700</v>
       </c>
       <c r="P79">
-        <v>-648331820000</v>
+        <v>-657621421100</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>4800</v>
       </c>
       <c r="E80">
-        <v>42782255000</v>
+        <v>40477961600</v>
       </c>
       <c r="F80">
-        <v>53067673000</v>
+        <v>51719922100</v>
       </c>
       <c r="G80">
-        <v>41475000</v>
+        <v>37678800</v>
       </c>
       <c r="H80">
         <v>5559200</v>
       </c>
       <c r="I80">
-        <v>95891403000</v>
+        <v>92235562500</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-01T13:20:00.000Z</v>
       </c>
       <c r="K80">
-        <v>7337437298000</v>
+        <v>6662050161200</v>
       </c>
       <c r="L80">
         <v>416227400</v>
@@ -4393,13 +4393,13 @@
         <v>1002600</v>
       </c>
       <c r="N80">
-        <v>10285418000</v>
+        <v>11241960500</v>
       </c>
       <c r="O80">
         <v>-35816100</v>
       </c>
       <c r="P80">
-        <v>-638046402000</v>
+        <v>-646379460600</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>9400</v>
       </c>
       <c r="E81">
-        <v>31909050000</v>
+        <v>30186574200</v>
       </c>
       <c r="F81">
-        <v>51161487000</v>
+        <v>48984566100</v>
       </c>
       <c r="G81">
         <v>188240000</v>
@@ -4428,13 +4428,13 @@
         <v>4658700</v>
       </c>
       <c r="I81">
-        <v>83258777000</v>
+        <v>79359380300</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-01T13:22:00.000Z</v>
       </c>
       <c r="K81">
-        <v>7420696075000</v>
+        <v>6741409541500</v>
       </c>
       <c r="L81">
         <v>420886100</v>
@@ -4443,13 +4443,13 @@
         <v>929300</v>
       </c>
       <c r="N81">
-        <v>19252437000</v>
+        <v>18797991900</v>
       </c>
       <c r="O81">
         <v>-34886800</v>
       </c>
       <c r="P81">
-        <v>-618793965000</v>
+        <v>-627581468700</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>45000</v>
       </c>
       <c r="E82">
-        <v>32604787000</v>
+        <v>30279914200</v>
       </c>
       <c r="F82">
-        <v>39196414000</v>
+        <v>37704607300</v>
       </c>
       <c r="G82">
         <v>886991000</v>
@@ -4478,13 +4478,13 @@
         <v>3959100</v>
       </c>
       <c r="I82">
-        <v>72688192000</v>
+        <v>68871512500</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-01T13:24:00.000Z</v>
       </c>
       <c r="K82">
-        <v>7493384267000</v>
+        <v>6810281054000</v>
       </c>
       <c r="L82">
         <v>424845200</v>
@@ -4493,13 +4493,13 @@
         <v>361300</v>
       </c>
       <c r="N82">
-        <v>6591627000</v>
+        <v>7424693100</v>
       </c>
       <c r="O82">
         <v>-34525500</v>
       </c>
       <c r="P82">
-        <v>-612202338000</v>
+        <v>-620156775600</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>2800</v>
       </c>
       <c r="E83">
-        <v>26981551000</v>
+        <v>25115918500</v>
       </c>
       <c r="F83">
-        <v>51775134000</v>
+        <v>46553560800</v>
       </c>
       <c r="G83">
         <v>72171000</v>
@@ -4528,13 +4528,13 @@
         <v>4248400</v>
       </c>
       <c r="I83">
-        <v>78828856000</v>
+        <v>71741650300</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-01T13:26:00.000Z</v>
       </c>
       <c r="K83">
-        <v>7572213123000</v>
+        <v>6882022704300</v>
       </c>
       <c r="L83">
         <v>429093600</v>
@@ -4543,13 +4543,13 @@
         <v>1431400</v>
       </c>
       <c r="N83">
-        <v>24793583000</v>
+        <v>21437642300</v>
       </c>
       <c r="O83">
         <v>-33094100</v>
       </c>
       <c r="P83">
-        <v>-587408755000</v>
+        <v>-598719133300</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>13900</v>
       </c>
       <c r="E84">
-        <v>30582356000</v>
+        <v>28706433800</v>
       </c>
       <c r="F84">
-        <v>50560938000</v>
+        <v>44960244300</v>
       </c>
       <c r="G84">
-        <v>372775000</v>
+        <v>291656200</v>
       </c>
       <c r="H84">
         <v>3937300</v>
       </c>
       <c r="I84">
-        <v>81516069000</v>
+        <v>73958334300</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-01T13:28:00.000Z</v>
       </c>
       <c r="K84">
-        <v>7653729192000</v>
+        <v>6955981038600</v>
       </c>
       <c r="L84">
         <v>433030900</v>
@@ -4593,13 +4593,13 @@
         <v>698000</v>
       </c>
       <c r="N84">
-        <v>19978582000</v>
+        <v>16253810500</v>
       </c>
       <c r="O84">
         <v>-32396100</v>
       </c>
       <c r="P84">
-        <v>-567430173000</v>
+        <v>-582465322800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>2100</v>
       </c>
       <c r="E85">
-        <v>24735537000</v>
+        <v>23183590500</v>
       </c>
       <c r="F85">
-        <v>81199484000</v>
+        <v>72085307300</v>
       </c>
       <c r="G85">
         <v>15992000</v>
@@ -4628,13 +4628,13 @@
         <v>5096800</v>
       </c>
       <c r="I85">
-        <v>105951013000</v>
+        <v>95284889800</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-01T13:30:00.000Z</v>
       </c>
       <c r="K85">
-        <v>7759680205000</v>
+        <v>7051265928400</v>
       </c>
       <c r="L85">
         <v>438127700</v>
@@ -4643,13 +4643,13 @@
         <v>2577700</v>
       </c>
       <c r="N85">
-        <v>56463947000</v>
+        <v>48901716800</v>
       </c>
       <c r="O85">
         <v>-29818400</v>
       </c>
       <c r="P85">
-        <v>-510966226000</v>
+        <v>-533563606000</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>27300</v>
       </c>
       <c r="E86">
-        <v>21202163000</v>
+        <v>18597270500</v>
       </c>
       <c r="F86">
-        <v>109675454000</v>
+        <v>88318732100</v>
       </c>
       <c r="G86">
         <v>597270000</v>
@@ -4678,13 +4678,13 @@
         <v>7242100</v>
       </c>
       <c r="I86">
-        <v>131474887000</v>
+        <v>107513272600</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-01T13:32:00.000Z</v>
       </c>
       <c r="K86">
-        <v>7891155092000</v>
+        <v>7158779201000</v>
       </c>
       <c r="L86">
         <v>445369800</v>
@@ -4693,13 +4693,13 @@
         <v>5137400</v>
       </c>
       <c r="N86">
-        <v>88473291000</v>
+        <v>69721461600</v>
       </c>
       <c r="O86">
         <v>-24681000</v>
       </c>
       <c r="P86">
-        <v>-422492935000</v>
+        <v>-463842144400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>8400</v>
       </c>
       <c r="E87">
-        <v>27096343000</v>
+        <v>24758183500</v>
       </c>
       <c r="F87">
-        <v>78412380000</v>
+        <v>77247546000</v>
       </c>
       <c r="G87">
         <v>171733000</v>
@@ -4728,13 +4728,13 @@
         <v>6069800</v>
       </c>
       <c r="I87">
-        <v>105680456000</v>
+        <v>102177462500</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-01T13:34:00.000Z</v>
       </c>
       <c r="K87">
-        <v>7996835548000</v>
+        <v>7260956663500</v>
       </c>
       <c r="L87">
         <v>451439600</v>
@@ -4743,13 +4743,13 @@
         <v>3164400</v>
       </c>
       <c r="N87">
-        <v>51316037000</v>
+        <v>52489362500</v>
       </c>
       <c r="O87">
         <v>-21516600</v>
       </c>
       <c r="P87">
-        <v>-371176898000</v>
+        <v>-411352781900</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>9900</v>
       </c>
       <c r="E88">
-        <v>30659362000</v>
+        <v>28879743400</v>
       </c>
       <c r="F88">
-        <v>78530341000</v>
+        <v>74016859000</v>
       </c>
       <c r="G88">
         <v>117904000</v>
@@ -4778,13 +4778,13 @@
         <v>6112200</v>
       </c>
       <c r="I88">
-        <v>109307607000</v>
+        <v>103014506400</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-01T13:36:00.000Z</v>
       </c>
       <c r="K88">
-        <v>8106143155000</v>
+        <v>7363971169900</v>
       </c>
       <c r="L88">
         <v>457551800</v>
@@ -4793,13 +4793,13 @@
         <v>2897300</v>
       </c>
       <c r="N88">
-        <v>47870979000</v>
+        <v>45137115600</v>
       </c>
       <c r="O88">
         <v>-18619300</v>
       </c>
       <c r="P88">
-        <v>-323305919000</v>
+        <v>-366215666300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>27000</v>
       </c>
       <c r="E89">
-        <v>48993569000</v>
+        <v>48051611900</v>
       </c>
       <c r="F89">
-        <v>58961404000</v>
+        <v>56356411600</v>
       </c>
       <c r="G89">
         <v>232792000</v>
@@ -4828,13 +4828,13 @@
         <v>6134300</v>
       </c>
       <c r="I89">
-        <v>108187765000</v>
+        <v>104640815500</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-01T13:38:00.000Z</v>
       </c>
       <c r="K89">
-        <v>8214330920000</v>
+        <v>7468611985400</v>
       </c>
       <c r="L89">
         <v>463686100</v>
@@ -4843,13 +4843,13 @@
         <v>184500</v>
       </c>
       <c r="N89">
-        <v>9967835000</v>
+        <v>8304799700</v>
       </c>
       <c r="O89">
         <v>-18434800</v>
       </c>
       <c r="P89">
-        <v>-313338084000</v>
+        <v>-357910866600</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>33000</v>
       </c>
       <c r="E90">
-        <v>45623118000</v>
+        <v>43967275500</v>
       </c>
       <c r="F90">
-        <v>55531687000</v>
+        <v>51251571400</v>
       </c>
       <c r="G90">
-        <v>355600000</v>
+        <v>353202400</v>
       </c>
       <c r="H90">
         <v>5630600</v>
       </c>
       <c r="I90">
-        <v>101510405000</v>
+        <v>95572049300</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-01T13:40:00.000Z</v>
       </c>
       <c r="K90">
-        <v>8315841325000</v>
+        <v>7564184034700</v>
       </c>
       <c r="L90">
         <v>469316700</v>
@@ -4893,13 +4893,13 @@
         <v>256600</v>
       </c>
       <c r="N90">
-        <v>9908569000</v>
+        <v>7284295900</v>
       </c>
       <c r="O90">
         <v>-18178200</v>
       </c>
       <c r="P90">
-        <v>-303429515000</v>
+        <v>-350626570700</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>105600</v>
       </c>
       <c r="E91">
-        <v>56503031000</v>
+        <v>54236799500</v>
       </c>
       <c r="F91">
-        <v>55899854000</v>
+        <v>50608450700</v>
       </c>
       <c r="G91">
         <v>1663159000</v>
@@ -4928,13 +4928,13 @@
         <v>5637600</v>
       </c>
       <c r="I91">
-        <v>114066044000</v>
+        <v>106508409200</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-01T13:42:00.000Z</v>
       </c>
       <c r="K91">
-        <v>8429907369000</v>
+        <v>7670692443900</v>
       </c>
       <c r="L91">
         <v>474954300</v>
@@ -4943,13 +4943,13 @@
         <v>-192000</v>
       </c>
       <c r="N91">
-        <v>-603177000</v>
+        <v>-3628348800</v>
       </c>
       <c r="O91">
         <v>-18370200</v>
       </c>
       <c r="P91">
-        <v>-304032692000</v>
+        <v>-354254919500</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>92100</v>
       </c>
       <c r="E92">
-        <v>68697442000</v>
+        <v>59316931900</v>
       </c>
       <c r="F92">
-        <v>74468110000</v>
+        <v>54070927600</v>
       </c>
       <c r="G92">
         <v>1587726000</v>
@@ -4978,13 +4978,13 @@
         <v>6577200</v>
       </c>
       <c r="I92">
-        <v>144753278000</v>
+        <v>114975585500</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-01T13:44:00.000Z</v>
       </c>
       <c r="K92">
-        <v>8574660647000</v>
+        <v>7785668029400</v>
       </c>
       <c r="L92">
         <v>481531500</v>
@@ -4993,13 +4993,13 @@
         <v>38700</v>
       </c>
       <c r="N92">
-        <v>5770668000</v>
+        <v>-5246004300</v>
       </c>
       <c r="O92">
         <v>-18331500</v>
       </c>
       <c r="P92">
-        <v>-298262024000</v>
+        <v>-359500923800</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>13500</v>
       </c>
       <c r="E93">
-        <v>40433186000</v>
+        <v>38326794500</v>
       </c>
       <c r="F93">
-        <v>54579880000</v>
+        <v>38726749000</v>
       </c>
       <c r="G93">
         <v>247833000</v>
@@ -5028,13 +5028,13 @@
         <v>5044600</v>
       </c>
       <c r="I93">
-        <v>95260899000</v>
+        <v>77301376500</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-01T13:46:00.000Z</v>
       </c>
       <c r="K93">
-        <v>8669921546000</v>
+        <v>7862969405900</v>
       </c>
       <c r="L93">
         <v>486576100</v>
@@ -5043,13 +5043,13 @@
         <v>426100</v>
       </c>
       <c r="N93">
-        <v>14146694000</v>
+        <v>399954500</v>
       </c>
       <c r="O93">
         <v>-17905400</v>
       </c>
       <c r="P93">
-        <v>-284115330000</v>
+        <v>-359100969300</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>14800</v>
       </c>
       <c r="E94">
-        <v>52860112000</v>
+        <v>47142735100</v>
       </c>
       <c r="F94">
-        <v>59021427000</v>
+        <v>39949218300</v>
       </c>
       <c r="G94">
         <v>669380000</v>
@@ -5078,13 +5078,13 @@
         <v>5431600</v>
       </c>
       <c r="I94">
-        <v>112550919000</v>
+        <v>87761333400</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-01T13:48:00.000Z</v>
       </c>
       <c r="K94">
-        <v>8782472465000</v>
+        <v>7950730739300</v>
       </c>
       <c r="L94">
         <v>492007700</v>
@@ -5093,13 +5093,13 @@
         <v>-63400</v>
       </c>
       <c r="N94">
-        <v>6161315000</v>
+        <v>-7193516800</v>
       </c>
       <c r="O94">
         <v>-17968800</v>
       </c>
       <c r="P94">
-        <v>-277954015000</v>
+        <v>-366294486100</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>42700</v>
       </c>
       <c r="E95">
-        <v>170123781000</v>
+        <v>157447769700</v>
       </c>
       <c r="F95">
-        <v>32219930000</v>
+        <v>29897354900</v>
       </c>
       <c r="G95">
-        <v>989018000</v>
+        <v>881126000</v>
       </c>
       <c r="H95">
         <v>10444000</v>
       </c>
       <c r="I95">
-        <v>203332729000</v>
+        <v>188226250600</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-01T13:50:00.000Z</v>
       </c>
       <c r="K95">
-        <v>8985805194000</v>
+        <v>8138956989900</v>
       </c>
       <c r="L95">
         <v>502451700</v>
@@ -5143,13 +5143,13 @@
         <v>-6919500</v>
       </c>
       <c r="N95">
-        <v>-137903851000</v>
+        <v>-127550414800</v>
       </c>
       <c r="O95">
         <v>-24888300</v>
       </c>
       <c r="P95">
-        <v>-415857866000</v>
+        <v>-493844900900</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>40900</v>
       </c>
       <c r="E96">
-        <v>226409581000</v>
+        <v>217928570500</v>
       </c>
       <c r="F96">
-        <v>34590655000</v>
+        <v>33878168200</v>
       </c>
       <c r="G96">
-        <v>842721000</v>
+        <v>829933800</v>
       </c>
       <c r="H96">
         <v>15361800</v>
       </c>
       <c r="I96">
-        <v>261842957000</v>
+        <v>252636672500</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-01T13:52:00.000Z</v>
       </c>
       <c r="K96">
-        <v>9247648151000</v>
+        <v>8391593662400</v>
       </c>
       <c r="L96">
         <v>517813500</v>
@@ -5193,13 +5193,13 @@
         <v>-11444300</v>
       </c>
       <c r="N96">
-        <v>-191818926000</v>
+        <v>-184050402300</v>
       </c>
       <c r="O96">
         <v>-36332600</v>
       </c>
       <c r="P96">
-        <v>-607676792000</v>
+        <v>-677895303200</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>133400</v>
       </c>
       <c r="E97">
-        <v>183959272000</v>
+        <v>178612823800</v>
       </c>
       <c r="F97">
-        <v>43198736000</v>
+        <v>41164772000</v>
       </c>
       <c r="G97">
-        <v>2453633000</v>
+        <v>2442843800</v>
       </c>
       <c r="H97">
         <v>13060100</v>
       </c>
       <c r="I97">
-        <v>229611641000</v>
+        <v>222220439600</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-01T13:54:00.000Z</v>
       </c>
       <c r="K97">
-        <v>9477259792000</v>
+        <v>8613814102000</v>
       </c>
       <c r="L97">
         <v>530873600</v>
@@ -5243,13 +5243,13 @@
         <v>-8104300</v>
       </c>
       <c r="N97">
-        <v>-140760536000</v>
+        <v>-137448051800</v>
       </c>
       <c r="O97">
         <v>-44436900</v>
       </c>
       <c r="P97">
-        <v>-748437328000</v>
+        <v>-815343355000</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>56700</v>
       </c>
       <c r="E98">
-        <v>112481274000</v>
+        <v>103747516500</v>
       </c>
       <c r="F98">
-        <v>54688192000</v>
+        <v>52185597100</v>
       </c>
       <c r="G98">
-        <v>639364000</v>
+        <v>540263200</v>
       </c>
       <c r="H98">
         <v>9570300</v>
       </c>
       <c r="I98">
-        <v>167808830000</v>
+        <v>156473376800</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-01T13:56:00.000Z</v>
       </c>
       <c r="K98">
-        <v>9645068622000</v>
+        <v>8770287478800</v>
       </c>
       <c r="L98">
         <v>540443900</v>
@@ -5293,13 +5293,13 @@
         <v>-3784400</v>
       </c>
       <c r="N98">
-        <v>-57793082000</v>
+        <v>-51561919400</v>
       </c>
       <c r="O98">
         <v>-48221300</v>
       </c>
       <c r="P98">
-        <v>-806230410000</v>
+        <v>-866905274400</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>11900</v>
       </c>
       <c r="E99">
-        <v>53346860000</v>
+        <v>46783330100</v>
       </c>
       <c r="F99">
-        <v>61774767000</v>
+        <v>58428416700</v>
       </c>
       <c r="G99">
-        <v>132338000</v>
+        <v>128441900</v>
       </c>
       <c r="H99">
         <v>6187700</v>
       </c>
       <c r="I99">
-        <v>115253965000</v>
+        <v>105340188700</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-01T13:58:00.000Z</v>
       </c>
       <c r="K99">
-        <v>9760322587000</v>
+        <v>8875627667500</v>
       </c>
       <c r="L99">
         <v>546631600</v>
@@ -5343,13 +5343,13 @@
         <v>322800</v>
       </c>
       <c r="N99">
-        <v>8427907000</v>
+        <v>11645086600</v>
       </c>
       <c r="O99">
         <v>-47898500</v>
       </c>
       <c r="P99">
-        <v>-797802503000</v>
+        <v>-855260187800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>70900</v>
       </c>
       <c r="E100">
-        <v>303772291000</v>
+        <v>252716398000</v>
       </c>
       <c r="F100">
-        <v>48611360000</v>
+        <v>45285988700</v>
       </c>
       <c r="G100">
-        <v>2624303000</v>
+        <v>2534892500</v>
       </c>
       <c r="H100">
         <v>17980300</v>
       </c>
       <c r="I100">
-        <v>355007954000</v>
+        <v>300537279200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-01T14:00:00.000Z</v>
       </c>
       <c r="K100">
-        <v>10115330541000</v>
+        <v>9176164946700</v>
       </c>
       <c r="L100">
         <v>564611900</v>
@@ -5393,13 +5393,13 @@
         <v>-12656800</v>
       </c>
       <c r="N100">
-        <v>-255160931000</v>
+        <v>-207430409300</v>
       </c>
       <c r="O100">
         <v>-60555300</v>
       </c>
       <c r="P100">
-        <v>-1052963434000</v>
+        <v>-1062690597100</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>228500</v>
       </c>
       <c r="E101">
-        <v>331210468000</v>
+        <v>278349082300</v>
       </c>
       <c r="F101">
-        <v>60197823000</v>
+        <v>54689037300</v>
       </c>
       <c r="G101">
-        <v>3860810000</v>
+        <v>3817153700</v>
       </c>
       <c r="H101">
         <v>23634500</v>
       </c>
       <c r="I101">
-        <v>395269101000</v>
+        <v>336855273300</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-01T14:02:00.000Z</v>
       </c>
       <c r="K101">
-        <v>10510599642000</v>
+        <v>9513020220000</v>
       </c>
       <c r="L101">
         <v>588246400</v>
@@ -5443,13 +5443,13 @@
         <v>-17209800</v>
       </c>
       <c r="N101">
-        <v>-271012645000</v>
+        <v>-223660045000</v>
       </c>
       <c r="O101">
         <v>-77765100</v>
       </c>
       <c r="P101">
-        <v>-1323976079000</v>
+        <v>-1286350642100</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>175600</v>
       </c>
       <c r="E102">
-        <v>212959864000</v>
+        <v>198977260600</v>
       </c>
       <c r="F102">
-        <v>68266685000</v>
+        <v>64946508500</v>
       </c>
       <c r="G102">
-        <v>3025870000</v>
+        <v>2983912000</v>
       </c>
       <c r="H102">
         <v>17448700</v>
       </c>
       <c r="I102">
-        <v>284252419000</v>
+        <v>266907681100</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-01T14:04:00.000Z</v>
       </c>
       <c r="K102">
-        <v>10794852061000</v>
+        <v>9779927901100</v>
       </c>
       <c r="L102">
         <v>605695100</v>
@@ -5493,13 +5493,13 @@
         <v>-8690500</v>
       </c>
       <c r="N102">
-        <v>-144693179000</v>
+        <v>-134030752100</v>
       </c>
       <c r="O102">
         <v>-86455600</v>
       </c>
       <c r="P102">
-        <v>-1468669258000</v>
+        <v>-1420381394200</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>112700</v>
       </c>
       <c r="E103">
-        <v>186501334000</v>
+        <v>157954409500</v>
       </c>
       <c r="F103">
-        <v>92571186000</v>
+        <v>80120649000</v>
       </c>
       <c r="G103">
-        <v>3028070000</v>
+        <v>3000098000</v>
       </c>
       <c r="H103">
         <v>18065500</v>
       </c>
       <c r="I103">
-        <v>282100590000</v>
+        <v>241075156500</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-01T14:06:00.000Z</v>
       </c>
       <c r="K103">
-        <v>11076952651000</v>
+        <v>10021003057600</v>
       </c>
       <c r="L103">
         <v>623760600</v>
@@ -5543,13 +5543,13 @@
         <v>-6405000</v>
       </c>
       <c r="N103">
-        <v>-93930148000</v>
+        <v>-77833760500</v>
       </c>
       <c r="O103">
         <v>-92860600</v>
       </c>
       <c r="P103">
-        <v>-1562599406000</v>
+        <v>-1498215154700</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>93500</v>
       </c>
       <c r="E104">
-        <v>80899610000</v>
+        <v>71839079600</v>
       </c>
       <c r="F104">
-        <v>107448622000</v>
+        <v>92065620400</v>
       </c>
       <c r="G104">
         <v>1828755000</v>
@@ -5578,13 +5578,13 @@
         <v>11457700</v>
       </c>
       <c r="I104">
-        <v>190176987000</v>
+        <v>165733455000</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-01T14:08:00.000Z</v>
       </c>
       <c r="K104">
-        <v>11267129638000</v>
+        <v>10186736512600</v>
       </c>
       <c r="L104">
         <v>635218300</v>
@@ -5593,13 +5593,13 @@
         <v>1941200</v>
       </c>
       <c r="N104">
-        <v>26549012000</v>
+        <v>20226540800</v>
       </c>
       <c r="O104">
         <v>-90919400</v>
       </c>
       <c r="P104">
-        <v>-1536050394000</v>
+        <v>-1477988613900</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>38300</v>
       </c>
       <c r="E105">
-        <v>52772016000</v>
+        <v>43166930700</v>
       </c>
       <c r="F105">
-        <v>93098451000</v>
+        <v>87470584500</v>
       </c>
       <c r="G105">
         <v>445754000</v>
@@ -5628,13 +5628,13 @@
         <v>8369000</v>
       </c>
       <c r="I105">
-        <v>146316221000</v>
+        <v>131083269200</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-01T14:10:00.000Z</v>
       </c>
       <c r="K105">
-        <v>11413445859000</v>
+        <v>10317819781800</v>
       </c>
       <c r="L105">
         <v>643587300</v>
@@ -5643,13 +5643,13 @@
         <v>2453700</v>
       </c>
       <c r="N105">
-        <v>40326435000</v>
+        <v>44303653800</v>
       </c>
       <c r="O105">
         <v>-88465700</v>
       </c>
       <c r="P105">
-        <v>-1495723959000</v>
+        <v>-1433684960100</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>35100</v>
       </c>
       <c r="E106">
-        <v>117061830000</v>
+        <v>99953055900</v>
       </c>
       <c r="F106">
-        <v>64831179000</v>
+        <v>61881431700</v>
       </c>
       <c r="G106">
-        <v>680127000</v>
+        <v>669437700</v>
       </c>
       <c r="H106">
         <v>10004400</v>
       </c>
       <c r="I106">
-        <v>182573136000</v>
+        <v>162503925300</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-01T14:12:00.000Z</v>
       </c>
       <c r="K106">
-        <v>11596018995000</v>
+        <v>10480323707100</v>
       </c>
       <c r="L106">
         <v>653591700</v>
@@ -5693,13 +5693,13 @@
         <v>-2349100</v>
       </c>
       <c r="N106">
-        <v>-52230651000</v>
+        <v>-38071624200</v>
       </c>
       <c r="O106">
         <v>-90814800</v>
       </c>
       <c r="P106">
-        <v>-1547954610000</v>
+        <v>-1471756584300</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>225100</v>
       </c>
       <c r="E107">
-        <v>289233693000</v>
+        <v>263997954000</v>
       </c>
       <c r="F107">
-        <v>35366143000</v>
+        <v>33100111300</v>
       </c>
       <c r="G107">
-        <v>4551529000</v>
+        <v>4482997600</v>
       </c>
       <c r="H107">
         <v>17774900</v>
       </c>
       <c r="I107">
-        <v>329151365000</v>
+        <v>301581062900</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-01T14:14:00.000Z</v>
       </c>
       <c r="K107">
-        <v>11925170360000</v>
+        <v>10781904770000</v>
       </c>
       <c r="L107">
         <v>671366600</v>
@@ -5743,13 +5743,13 @@
         <v>-13624200</v>
       </c>
       <c r="N107">
-        <v>-253867550000</v>
+        <v>-230897842700</v>
       </c>
       <c r="O107">
         <v>-104439000</v>
       </c>
       <c r="P107">
-        <v>-1801822160000</v>
+        <v>-1702654427000</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>594700</v>
       </c>
       <c r="E108">
-        <v>555425919000</v>
+        <v>459781159500</v>
       </c>
       <c r="F108">
-        <v>85506388000</v>
+        <v>76239064600</v>
       </c>
       <c r="G108">
-        <v>10869611000</v>
+        <v>10643936900</v>
       </c>
       <c r="H108">
         <v>39784700</v>
       </c>
       <c r="I108">
-        <v>651801918000</v>
+        <v>546664161000</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-01T14:16:00.000Z</v>
       </c>
       <c r="K108">
-        <v>12576972278000</v>
+        <v>11328568931000</v>
       </c>
       <c r="L108">
         <v>711151300</v>
@@ -5793,13 +5793,13 @@
         <v>-28565600</v>
       </c>
       <c r="N108">
-        <v>-469919531000</v>
+        <v>-383542094900</v>
       </c>
       <c r="O108">
         <v>-133004600</v>
       </c>
       <c r="P108">
-        <v>-2271741691000</v>
+        <v>-2086196521900</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>918500</v>
       </c>
       <c r="E109">
-        <v>565345287000</v>
+        <v>489089219400</v>
       </c>
       <c r="F109">
-        <v>140616738000</v>
+        <v>132712350300</v>
       </c>
       <c r="G109">
-        <v>15847269000</v>
+        <v>13904813400</v>
       </c>
       <c r="H109">
         <v>44981600</v>
       </c>
       <c r="I109">
-        <v>721809294000</v>
+        <v>635706383100</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-01T14:18:00.000Z</v>
       </c>
       <c r="K109">
-        <v>13298781572000</v>
+        <v>11964275314100</v>
       </c>
       <c r="L109">
         <v>756132900</v>
@@ -5843,13 +5843,13 @@
         <v>-26821500</v>
       </c>
       <c r="N109">
-        <v>-424728549000</v>
+        <v>-356376869100</v>
       </c>
       <c r="O109">
         <v>-159826100</v>
       </c>
       <c r="P109">
-        <v>-2696470240000</v>
+        <v>-2442573391000</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>241400</v>
       </c>
       <c r="E110">
-        <v>298689635000</v>
+        <v>278881363100</v>
       </c>
       <c r="F110">
-        <v>129797454000</v>
+        <v>125336919000</v>
       </c>
       <c r="G110">
         <v>3892790000</v>
@@ -5878,13 +5878,13 @@
         <v>26660600</v>
       </c>
       <c r="I110">
-        <v>432379879000</v>
+        <v>408111072100</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-01T14:20:00.000Z</v>
       </c>
       <c r="K110">
-        <v>13731161451000</v>
+        <v>12372386386200</v>
       </c>
       <c r="L110">
         <v>782793500</v>
@@ -5893,13 +5893,13 @@
         <v>-9504200</v>
       </c>
       <c r="N110">
-        <v>-168892181000</v>
+        <v>-153544444100</v>
       </c>
       <c r="O110">
         <v>-169330300</v>
       </c>
       <c r="P110">
-        <v>-2865362421000</v>
+        <v>-2596117835100</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>158000</v>
       </c>
       <c r="E111">
-        <v>179031234000</v>
+        <v>168401374500</v>
       </c>
       <c r="F111">
-        <v>170872542000</v>
+        <v>148734202500</v>
       </c>
       <c r="G111">
-        <v>2745201000</v>
+        <v>2714032200</v>
       </c>
       <c r="H111">
         <v>21465600</v>
       </c>
       <c r="I111">
-        <v>352648977000</v>
+        <v>319849609200</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-01T14:22:00.000Z</v>
       </c>
       <c r="K111">
-        <v>14083810428000</v>
+        <v>12692235995400</v>
       </c>
       <c r="L111">
         <v>804259100</v>
@@ -5943,13 +5943,13 @@
         <v>-547000</v>
       </c>
       <c r="N111">
-        <v>-8158692000</v>
+        <v>-19667172000</v>
       </c>
       <c r="O111">
         <v>-169877300</v>
       </c>
       <c r="P111">
-        <v>-2873521113000</v>
+        <v>-2615785007100</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>117800</v>
       </c>
       <c r="E112">
-        <v>123752154000</v>
+        <v>111151567200</v>
       </c>
       <c r="F112">
-        <v>152706988000</v>
+        <v>143432471800</v>
       </c>
       <c r="G112">
-        <v>1504603000</v>
+        <v>1381925800</v>
       </c>
       <c r="H112">
         <v>17998400</v>
       </c>
       <c r="I112">
-        <v>277963745000</v>
+        <v>255965964800</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-01T14:24:00.000Z</v>
       </c>
       <c r="K112">
-        <v>14361774173000</v>
+        <v>12948201960200</v>
       </c>
       <c r="L112">
         <v>822257500</v>
@@ -5993,13 +5993,13 @@
         <v>2102200</v>
       </c>
       <c r="N112">
-        <v>28954834000</v>
+        <v>32280904600</v>
       </c>
       <c r="O112">
         <v>-167775100</v>
       </c>
       <c r="P112">
-        <v>-2844566279000</v>
+        <v>-2583504102500</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>178800</v>
       </c>
       <c r="E113">
-        <v>127368231000</v>
+        <v>112119195300</v>
       </c>
       <c r="F113">
-        <v>140424224000</v>
+        <v>123244720700</v>
       </c>
       <c r="G113">
-        <v>3784112000</v>
+        <v>3527568800</v>
       </c>
       <c r="H113">
         <v>16335700</v>
       </c>
       <c r="I113">
-        <v>271576567000</v>
+        <v>238891484800</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-01T14:26:00.000Z</v>
       </c>
       <c r="K113">
-        <v>14633350740000</v>
+        <v>13187093445000</v>
       </c>
       <c r="L113">
         <v>838593200</v>
@@ -6043,13 +6043,13 @@
         <v>879700</v>
       </c>
       <c r="N113">
-        <v>13055993000</v>
+        <v>11125525400</v>
       </c>
       <c r="O113">
         <v>-166895400</v>
       </c>
       <c r="P113">
-        <v>-2831510286000</v>
+        <v>-2572378577100</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>265000</v>
       </c>
       <c r="E114">
-        <v>232111935000</v>
+        <v>200571806700</v>
       </c>
       <c r="F114">
-        <v>116966537000</v>
+        <v>111099609800</v>
       </c>
       <c r="G114">
-        <v>5095395000</v>
+        <v>5013277200</v>
       </c>
       <c r="H114">
         <v>20924900</v>
       </c>
       <c r="I114">
-        <v>354173867000</v>
+        <v>316684693700</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-01T14:28:00.000Z</v>
       </c>
       <c r="K114">
-        <v>14987524607000</v>
+        <v>13503778138700</v>
       </c>
       <c r="L114">
         <v>859518100</v>
@@ -6093,13 +6093,13 @@
         <v>-6185900</v>
       </c>
       <c r="N114">
-        <v>-115145398000</v>
+        <v>-89472196900</v>
       </c>
       <c r="O114">
         <v>-173081300</v>
       </c>
       <c r="P114">
-        <v>-2946655684000</v>
+        <v>-2661850774000</v>
       </c>
     </row>
     <row r="115">
@@ -6134,7 +6134,7 @@
         <v>2023-02-01T14:30:00.000Z</v>
       </c>
       <c r="K115">
-        <v>14987540557000</v>
+        <v>13503794088700</v>
       </c>
       <c r="L115">
         <v>859518600</v>
@@ -6149,7 +6149,7 @@
         <v>-173081000</v>
       </c>
       <c r="P115">
-        <v>-2946642284000</v>
+        <v>-2661837374000</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>44748100</v>
       </c>
       <c r="E116">
-        <v>301809082000</v>
+        <v>269301721900</v>
       </c>
       <c r="F116">
-        <v>313299761000</v>
+        <v>300521951600</v>
       </c>
       <c r="G116">
-        <v>741498981000</v>
+        <v>683332006200</v>
       </c>
       <c r="H116">
         <v>77190200</v>
       </c>
       <c r="I116">
-        <v>1356607824000</v>
+        <v>1253155679700</v>
       </c>
       <c r="J116" t="str">
         <v>2023-02-01T14:44:00.000Z</v>
       </c>
       <c r="K116">
-        <v>16344148381000</v>
+        <v>14756949768400</v>
       </c>
       <c r="L116">
         <v>936708800</v>
@@ -6193,13 +6193,13 @@
         <v>1385100</v>
       </c>
       <c r="N116">
-        <v>11490679000</v>
+        <v>31220229700</v>
       </c>
       <c r="O116">
         <v>-171695900</v>
       </c>
       <c r="P116">
-        <v>-2935151605000</v>
+        <v>-2630617144300</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230201/VNINDEX_HOSE_5p_20230201.xlsx
+++ b/name/vnindex/20230201/VNINDEX_HOSE_5p_20230201.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>16087500200</v>
       </c>
+      <c r="Q2">
+        <v>65828136700</v>
+      </c>
+      <c r="R2">
+        <v>49740636500</v>
+      </c>
+      <c r="S2">
+        <v>3715800</v>
+      </c>
+      <c r="T2">
+        <v>4065600</v>
+      </c>
+      <c r="U2">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V2">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W2">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X2">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y2">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z2">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA2">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB2">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>44042638800</v>
       </c>
+      <c r="Q3">
+        <v>124876313000</v>
+      </c>
+      <c r="R3">
+        <v>80833674200</v>
+      </c>
+      <c r="S3">
+        <v>7308700</v>
+      </c>
+      <c r="T3">
+        <v>5984200</v>
+      </c>
+      <c r="U3">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V3">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W3">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X3">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y3">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z3">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA3">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB3">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC3">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>48774873700</v>
       </c>
+      <c r="Q4">
+        <v>183530641500</v>
+      </c>
+      <c r="R4">
+        <v>134755767800</v>
+      </c>
+      <c r="S4">
+        <v>11229100</v>
+      </c>
+      <c r="T4">
+        <v>9225600</v>
+      </c>
+      <c r="U4">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V4">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W4">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X4">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y4">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z4">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA4">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB4">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC4">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>55821621100</v>
       </c>
+      <c r="Q5">
+        <v>242443079300</v>
+      </c>
+      <c r="R5">
+        <v>186621458200</v>
+      </c>
+      <c r="S5">
+        <v>15087000</v>
+      </c>
+      <c r="T5">
+        <v>12523100</v>
+      </c>
+      <c r="U5">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V5">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W5">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X5">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y5">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z5">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA5">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB5">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC5">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>19505636500</v>
       </c>
+      <c r="Q6">
+        <v>278728835800</v>
+      </c>
+      <c r="R6">
+        <v>259223199300</v>
+      </c>
+      <c r="S6">
+        <v>17417700</v>
+      </c>
+      <c r="T6">
+        <v>17211000</v>
+      </c>
+      <c r="U6">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V6">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W6">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X6">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y6">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z6">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA6">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB6">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC6">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-30814921100</v>
       </c>
+      <c r="Q7">
+        <v>307262888400</v>
+      </c>
+      <c r="R7">
+        <v>338077809500</v>
+      </c>
+      <c r="S7">
+        <v>19559100</v>
+      </c>
+      <c r="T7">
+        <v>21893900</v>
+      </c>
+      <c r="U7">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V7">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W7">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X7">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y7">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z7">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA7">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB7">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC7">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-55128768800</v>
       </c>
+      <c r="Q8">
+        <v>345055354200</v>
+      </c>
+      <c r="R8">
+        <v>400184123000</v>
+      </c>
+      <c r="S8">
+        <v>21779800</v>
+      </c>
+      <c r="T8">
+        <v>25580200</v>
+      </c>
+      <c r="U8">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V8">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W8">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X8">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y8">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z8">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA8">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB8">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC8">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-74209395900</v>
       </c>
+      <c r="Q9">
+        <v>370041365900</v>
+      </c>
+      <c r="R9">
+        <v>444250761800</v>
+      </c>
+      <c r="S9">
+        <v>23389200</v>
+      </c>
+      <c r="T9">
+        <v>28286600</v>
+      </c>
+      <c r="U9">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V9">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W9">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X9">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y9">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z9">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA9">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB9">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC9">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-76398585900</v>
       </c>
+      <c r="Q10">
+        <v>407584939500</v>
+      </c>
+      <c r="R10">
+        <v>483983525400</v>
+      </c>
+      <c r="S10">
+        <v>25483900</v>
+      </c>
+      <c r="T10">
+        <v>30965100</v>
+      </c>
+      <c r="U10">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V10">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W10">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X10">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y10">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z10">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA10">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB10">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC10">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-53980025500</v>
       </c>
+      <c r="Q11">
+        <v>460973725300</v>
+      </c>
+      <c r="R11">
+        <v>514953750800</v>
+      </c>
+      <c r="S11">
+        <v>28303300</v>
+      </c>
+      <c r="T11">
+        <v>32863400</v>
+      </c>
+      <c r="U11">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V11">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W11">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X11">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y11">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z11">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA11">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB11">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-29852296200</v>
       </c>
+      <c r="Q12">
+        <v>512479054300</v>
+      </c>
+      <c r="R12">
+        <v>542331350500</v>
+      </c>
+      <c r="S12">
+        <v>31409500</v>
+      </c>
+      <c r="T12">
+        <v>34648600</v>
+      </c>
+      <c r="U12">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V12">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W12">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X12">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y12">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z12">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA12">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB12">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC12">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>33718131500</v>
       </c>
+      <c r="Q13">
+        <v>600739819000</v>
+      </c>
+      <c r="R13">
+        <v>567021687500</v>
+      </c>
+      <c r="S13">
+        <v>36493000</v>
+      </c>
+      <c r="T13">
+        <v>36455900</v>
+      </c>
+      <c r="U13">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V13">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W13">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X13">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y13">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z13">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA13">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB13">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC13">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>80102028700</v>
       </c>
+      <c r="Q14">
+        <v>686446160100</v>
+      </c>
+      <c r="R14">
+        <v>606344131400</v>
+      </c>
+      <c r="S14">
+        <v>41729700</v>
+      </c>
+      <c r="T14">
+        <v>38779200</v>
+      </c>
+      <c r="U14">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V14">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W14">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X14">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y14">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z14">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA14">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB14">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>136690833700</v>
       </c>
+      <c r="Q15">
+        <v>777733440800</v>
+      </c>
+      <c r="R15">
+        <v>641042607100</v>
+      </c>
+      <c r="S15">
+        <v>47310000</v>
+      </c>
+      <c r="T15">
+        <v>40835700</v>
+      </c>
+      <c r="U15">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V15">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W15">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X15">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y15">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z15">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA15">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB15">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>231392396800</v>
       </c>
+      <c r="Q16">
+        <v>906283752500</v>
+      </c>
+      <c r="R16">
+        <v>674891355700</v>
+      </c>
+      <c r="S16">
+        <v>54761800</v>
+      </c>
+      <c r="T16">
+        <v>42766200</v>
+      </c>
+      <c r="U16">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V16">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W16">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X16">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y16">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z16">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA16">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB16">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC16">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>250590281300</v>
       </c>
+      <c r="Q17">
+        <v>976257446100</v>
+      </c>
+      <c r="R17">
+        <v>725667164800</v>
+      </c>
+      <c r="S17">
+        <v>59141700</v>
+      </c>
+      <c r="T17">
+        <v>45631100</v>
+      </c>
+      <c r="U17">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V17">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W17">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X17">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y17">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z17">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA17">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB17">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC17">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>231932988100</v>
       </c>
+      <c r="Q18">
+        <v>1018249940800</v>
+      </c>
+      <c r="R18">
+        <v>786316952700</v>
+      </c>
+      <c r="S18">
+        <v>62195800</v>
+      </c>
+      <c r="T18">
+        <v>49697500</v>
+      </c>
+      <c r="U18">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V18">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W18">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X18">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y18">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z18">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA18">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB18">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC18">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>177568034100</v>
       </c>
+      <c r="Q19">
+        <v>1047443898300</v>
+      </c>
+      <c r="R19">
+        <v>869875864200</v>
+      </c>
+      <c r="S19">
+        <v>64251900</v>
+      </c>
+      <c r="T19">
+        <v>54505700</v>
+      </c>
+      <c r="U19">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V19">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W19">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X19">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y19">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z19">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA19">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB19">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC19">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>145678912800</v>
       </c>
+      <c r="Q20">
+        <v>1071948770800</v>
+      </c>
+      <c r="R20">
+        <v>926269858000</v>
+      </c>
+      <c r="S20">
+        <v>66585200</v>
+      </c>
+      <c r="T20">
+        <v>58111400</v>
+      </c>
+      <c r="U20">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V20">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W20">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X20">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y20">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z20">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA20">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB20">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC20">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>128084248900</v>
       </c>
+      <c r="Q21">
+        <v>1095535045700</v>
+      </c>
+      <c r="R21">
+        <v>967450796800</v>
+      </c>
+      <c r="S21">
+        <v>68227400</v>
+      </c>
+      <c r="T21">
+        <v>61113300</v>
+      </c>
+      <c r="U21">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V21">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W21">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X21">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y21">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z21">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA21">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB21">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC21">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>103746875800</v>
       </c>
+      <c r="Q22">
+        <v>1120060751900</v>
+      </c>
+      <c r="R22">
+        <v>1016313876100</v>
+      </c>
+      <c r="S22">
+        <v>69956500</v>
+      </c>
+      <c r="T22">
+        <v>63947400</v>
+      </c>
+      <c r="U22">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V22">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W22">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X22">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y22">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z22">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA22">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB22">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC22">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>87744742700</v>
       </c>
+      <c r="Q23">
+        <v>1151366328500</v>
+      </c>
+      <c r="R23">
+        <v>1063621585800</v>
+      </c>
+      <c r="S23">
+        <v>71905600</v>
+      </c>
+      <c r="T23">
+        <v>66928700</v>
+      </c>
+      <c r="U23">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V23">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W23">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X23">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y23">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z23">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA23">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB23">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC23">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>87096611900</v>
       </c>
+      <c r="Q24">
+        <v>1185948826600</v>
+      </c>
+      <c r="R24">
+        <v>1098852214700</v>
+      </c>
+      <c r="S24">
+        <v>73740100</v>
+      </c>
+      <c r="T24">
+        <v>69284500</v>
+      </c>
+      <c r="U24">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V24">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W24">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X24">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y24">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z24">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA24">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB24">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>97678117700</v>
       </c>
+      <c r="Q25">
+        <v>1225480041300</v>
+      </c>
+      <c r="R25">
+        <v>1127801923600</v>
+      </c>
+      <c r="S25">
+        <v>76035600</v>
+      </c>
+      <c r="T25">
+        <v>71371400</v>
+      </c>
+      <c r="U25">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V25">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W25">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X25">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y25">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z25">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA25">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB25">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>101108444800</v>
       </c>
+      <c r="Q26">
+        <v>1260856111200</v>
+      </c>
+      <c r="R26">
+        <v>1159747666400</v>
+      </c>
+      <c r="S26">
+        <v>78178000</v>
+      </c>
+      <c r="T26">
+        <v>73091600</v>
+      </c>
+      <c r="U26">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V26">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W26">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X26">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y26">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z26">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA26">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB26">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC26">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>81925508400</v>
       </c>
+      <c r="Q27">
+        <v>1282174292800</v>
+      </c>
+      <c r="R27">
+        <v>1200248784400</v>
+      </c>
+      <c r="S27">
+        <v>79593900</v>
+      </c>
+      <c r="T27">
+        <v>75240300</v>
+      </c>
+      <c r="U27">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V27">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W27">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X27">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y27">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z27">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA27">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB27">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC27">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>46796361600</v>
       </c>
+      <c r="Q28">
+        <v>1299791550200</v>
+      </c>
+      <c r="R28">
+        <v>1252995188600</v>
+      </c>
+      <c r="S28">
+        <v>80926600</v>
+      </c>
+      <c r="T28">
+        <v>78295600</v>
+      </c>
+      <c r="U28">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V28">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W28">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X28">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y28">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z28">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA28">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB28">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC28">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>22170885100</v>
       </c>
+      <c r="Q29">
+        <v>1326209047800</v>
+      </c>
+      <c r="R29">
+        <v>1304038162700</v>
+      </c>
+      <c r="S29">
+        <v>82416400</v>
+      </c>
+      <c r="T29">
+        <v>81681100</v>
+      </c>
+      <c r="U29">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V29">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W29">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X29">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y29">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z29">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA29">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB29">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC29">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>16771597000</v>
       </c>
+      <c r="Q30">
+        <v>1347740959300</v>
+      </c>
+      <c r="R30">
+        <v>1330969362300</v>
+      </c>
+      <c r="S30">
+        <v>83666300</v>
+      </c>
+      <c r="T30">
+        <v>84180000</v>
+      </c>
+      <c r="U30">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V30">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W30">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X30">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y30">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z30">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA30">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB30">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC30">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>18263212300</v>
       </c>
+      <c r="Q31">
+        <v>1376400410400</v>
+      </c>
+      <c r="R31">
+        <v>1358137198100</v>
+      </c>
+      <c r="S31">
+        <v>85686100</v>
+      </c>
+      <c r="T31">
+        <v>86006700</v>
+      </c>
+      <c r="U31">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V31">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W31">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X31">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y31">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z31">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA31">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB31">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC31">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>16430374200</v>
       </c>
+      <c r="Q32">
+        <v>1399719455800</v>
+      </c>
+      <c r="R32">
+        <v>1383289081600</v>
+      </c>
+      <c r="S32">
+        <v>87205400</v>
+      </c>
+      <c r="T32">
+        <v>87655300</v>
+      </c>
+      <c r="U32">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V32">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W32">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X32">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y32">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z32">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA32">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB32">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC32">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>24451809900</v>
       </c>
+      <c r="Q33">
+        <v>1438025658600</v>
+      </c>
+      <c r="R33">
+        <v>1413573848700</v>
+      </c>
+      <c r="S33">
+        <v>89838900</v>
+      </c>
+      <c r="T33">
+        <v>89460600</v>
+      </c>
+      <c r="U33">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V33">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W33">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X33">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y33">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z33">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA33">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB33">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC33">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>32739729700</v>
       </c>
+      <c r="Q34">
+        <v>1471636983900</v>
+      </c>
+      <c r="R34">
+        <v>1438897254200</v>
+      </c>
+      <c r="S34">
+        <v>92034800</v>
+      </c>
+      <c r="T34">
+        <v>90914600</v>
+      </c>
+      <c r="U34">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V34">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W34">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X34">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y34">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z34">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA34">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB34">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC34">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>53919461900</v>
       </c>
+      <c r="Q35">
+        <v>1514748632200</v>
+      </c>
+      <c r="R35">
+        <v>1460829170300</v>
+      </c>
+      <c r="S35">
+        <v>94623700</v>
+      </c>
+      <c r="T35">
+        <v>92534400</v>
+      </c>
+      <c r="U35">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V35">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W35">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X35">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y35">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z35">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA35">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB35">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC35">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>52265409000</v>
       </c>
+      <c r="Q36">
+        <v>1539486123600</v>
+      </c>
+      <c r="R36">
+        <v>1487220714600</v>
+      </c>
+      <c r="S36">
+        <v>96298900</v>
+      </c>
+      <c r="T36">
+        <v>94079600</v>
+      </c>
+      <c r="U36">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V36">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W36">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X36">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y36">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z36">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA36">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB36">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC36">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>57967359500</v>
       </c>
+      <c r="Q37">
+        <v>1566963938700</v>
+      </c>
+      <c r="R37">
+        <v>1508996579200</v>
+      </c>
+      <c r="S37">
+        <v>98100300</v>
+      </c>
+      <c r="T37">
+        <v>95449400</v>
+      </c>
+      <c r="U37">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V37">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W37">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X37">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y37">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z37">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA37">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB37">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC37">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>67857583600</v>
       </c>
+      <c r="Q38">
+        <v>1605597507300</v>
+      </c>
+      <c r="R38">
+        <v>1537739923700</v>
+      </c>
+      <c r="S38">
+        <v>101403100</v>
+      </c>
+      <c r="T38">
+        <v>97247100</v>
+      </c>
+      <c r="U38">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V38">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W38">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X38">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y38">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z38">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA38">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB38">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC38">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>91473066700</v>
       </c>
+      <c r="Q39">
+        <v>1656342115700</v>
+      </c>
+      <c r="R39">
+        <v>1564869049000</v>
+      </c>
+      <c r="S39">
+        <v>104338500</v>
+      </c>
+      <c r="T39">
+        <v>98878500</v>
+      </c>
+      <c r="U39">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V39">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W39">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X39">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y39">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z39">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA39">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB39">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>79117840500</v>
       </c>
+      <c r="Q40">
+        <v>1686568179600</v>
+      </c>
+      <c r="R40">
+        <v>1607450339100</v>
+      </c>
+      <c r="S40">
+        <v>106409000</v>
+      </c>
+      <c r="T40">
+        <v>101366000</v>
+      </c>
+      <c r="U40">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V40">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W40">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X40">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y40">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z40">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA40">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB40">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC40">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>92676098400</v>
       </c>
+      <c r="Q41">
+        <v>1733695808600</v>
+      </c>
+      <c r="R41">
+        <v>1641019710200</v>
+      </c>
+      <c r="S41">
+        <v>110832300</v>
+      </c>
+      <c r="T41">
+        <v>103617400</v>
+      </c>
+      <c r="U41">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V41">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W41">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X41">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y41">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z41">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA41">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB41">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC41">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>117793608300</v>
       </c>
+      <c r="Q42">
+        <v>1791872340700</v>
+      </c>
+      <c r="R42">
+        <v>1674078732400</v>
+      </c>
+      <c r="S42">
+        <v>113993600</v>
+      </c>
+      <c r="T42">
+        <v>105927600</v>
+      </c>
+      <c r="U42">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V42">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W42">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X42">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y42">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z42">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA42">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB42">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC42">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>127861482600</v>
       </c>
+      <c r="Q43">
+        <v>1834955394000</v>
+      </c>
+      <c r="R43">
+        <v>1707093911400</v>
+      </c>
+      <c r="S43">
+        <v>117079300</v>
+      </c>
+      <c r="T43">
+        <v>107889300</v>
+      </c>
+      <c r="U43">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V43">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W43">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X43">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y43">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z43">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA43">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB43">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC43">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>148352956400</v>
       </c>
+      <c r="Q44">
+        <v>1893442221000</v>
+      </c>
+      <c r="R44">
+        <v>1745089264600</v>
+      </c>
+      <c r="S44">
+        <v>120807800</v>
+      </c>
+      <c r="T44">
+        <v>110163700</v>
+      </c>
+      <c r="U44">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V44">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W44">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X44">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y44">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z44">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA44">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB44">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC44">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>104262424300</v>
       </c>
+      <c r="Q45">
+        <v>1933782489600</v>
+      </c>
+      <c r="R45">
+        <v>1829520065300</v>
+      </c>
+      <c r="S45">
+        <v>124256300</v>
+      </c>
+      <c r="T45">
+        <v>114126700</v>
+      </c>
+      <c r="U45">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V45">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W45">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X45">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y45">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z45">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA45">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB45">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC45">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>7463233600</v>
       </c>
+      <c r="Q46">
+        <v>1948860360600</v>
+      </c>
+      <c r="R46">
+        <v>1941397127000</v>
+      </c>
+      <c r="S46">
+        <v>125358800</v>
+      </c>
+      <c r="T46">
+        <v>120758300</v>
+      </c>
+      <c r="U46">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V46">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W46">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X46">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y46">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z46">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA46">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB46">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC46">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-68781279900</v>
       </c>
+      <c r="Q47">
+        <v>1968053430900</v>
+      </c>
+      <c r="R47">
+        <v>2036834710800</v>
+      </c>
+      <c r="S47">
+        <v>126659000</v>
+      </c>
+      <c r="T47">
+        <v>127627300</v>
+      </c>
+      <c r="U47">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V47">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W47">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X47">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y47">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z47">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA47">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB47">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC47">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-100456940900</v>
       </c>
+      <c r="Q48">
+        <v>1988021495500</v>
+      </c>
+      <c r="R48">
+        <v>2088478436400</v>
+      </c>
+      <c r="S48">
+        <v>127906600</v>
+      </c>
+      <c r="T48">
+        <v>130978200</v>
+      </c>
+      <c r="U48">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V48">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W48">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X48">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y48">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z48">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA48">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB48">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC48">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-109815768500</v>
       </c>
+      <c r="Q49">
+        <v>2023730452300</v>
+      </c>
+      <c r="R49">
+        <v>2133546220800</v>
+      </c>
+      <c r="S49">
+        <v>130163300</v>
+      </c>
+      <c r="T49">
+        <v>134173200</v>
+      </c>
+      <c r="U49">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V49">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W49">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X49">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y49">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z49">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA49">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB49">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC49">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-142579701000</v>
       </c>
+      <c r="Q50">
+        <v>2050438380400</v>
+      </c>
+      <c r="R50">
+        <v>2193018081400</v>
+      </c>
+      <c r="S50">
+        <v>131937200</v>
+      </c>
+      <c r="T50">
+        <v>137510400</v>
+      </c>
+      <c r="U50">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V50">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W50">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X50">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y50">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z50">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA50">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB50">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC50">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-189752093100</v>
       </c>
+      <c r="Q51">
+        <v>2074822292800</v>
+      </c>
+      <c r="R51">
+        <v>2264574385900</v>
+      </c>
+      <c r="S51">
+        <v>133522800</v>
+      </c>
+      <c r="T51">
+        <v>141911700</v>
+      </c>
+      <c r="U51">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V51">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W51">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X51">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y51">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z51">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA51">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB51">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC51">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-217379978200</v>
       </c>
+      <c r="Q52">
+        <v>2102006197500</v>
+      </c>
+      <c r="R52">
+        <v>2319386175700</v>
+      </c>
+      <c r="S52">
+        <v>135162000</v>
+      </c>
+      <c r="T52">
+        <v>145210800</v>
+      </c>
+      <c r="U52">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V52">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W52">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X52">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y52">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z52">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA52">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB52">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC52">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-240165577500</v>
       </c>
+      <c r="Q53">
+        <v>2124083605500</v>
+      </c>
+      <c r="R53">
+        <v>2364249183000</v>
+      </c>
+      <c r="S53">
+        <v>136756700</v>
+      </c>
+      <c r="T53">
+        <v>148327100</v>
+      </c>
+      <c r="U53">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V53">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W53">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X53">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y53">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z53">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA53">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB53">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-244588195800</v>
       </c>
+      <c r="Q54">
+        <v>2150774793400</v>
+      </c>
+      <c r="R54">
+        <v>2395362989200</v>
+      </c>
+      <c r="S54">
+        <v>138184100</v>
+      </c>
+      <c r="T54">
+        <v>150389100</v>
+      </c>
+      <c r="U54">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V54">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W54">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X54">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y54">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z54">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA54">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB54">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC54">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-267260826900</v>
       </c>
+      <c r="Q55">
+        <v>2171721070100</v>
+      </c>
+      <c r="R55">
+        <v>2438981897000</v>
+      </c>
+      <c r="S55">
+        <v>139448200</v>
+      </c>
+      <c r="T55">
+        <v>152878800</v>
+      </c>
+      <c r="U55">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V55">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W55">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X55">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y55">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z55">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA55">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB55">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-264482268600</v>
       </c>
+      <c r="Q56">
+        <v>2201404893200</v>
+      </c>
+      <c r="R56">
+        <v>2465887161800</v>
+      </c>
+      <c r="S56">
+        <v>141351700</v>
+      </c>
+      <c r="T56">
+        <v>154481100</v>
+      </c>
+      <c r="U56">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V56">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W56">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X56">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y56">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z56">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA56">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB56">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC56">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-302866616600</v>
       </c>
+      <c r="Q57">
+        <v>2215117128700</v>
+      </c>
+      <c r="R57">
+        <v>2517983745300</v>
+      </c>
+      <c r="S57">
+        <v>142054200</v>
+      </c>
+      <c r="T57">
+        <v>157495300</v>
+      </c>
+      <c r="U57">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V57">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W57">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X57">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y57">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z57">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA57">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB57">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC57">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-305552391600</v>
       </c>
+      <c r="Q58">
+        <v>2240085854500</v>
+      </c>
+      <c r="R58">
+        <v>2545638246100</v>
+      </c>
+      <c r="S58">
+        <v>143943400</v>
+      </c>
+      <c r="T58">
+        <v>159117100</v>
+      </c>
+      <c r="U58">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V58">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W58">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X58">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y58">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z58">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA58">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB58">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC58">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-307590264800</v>
       </c>
+      <c r="Q59">
+        <v>2266842112800</v>
+      </c>
+      <c r="R59">
+        <v>2574432377600</v>
+      </c>
+      <c r="S59">
+        <v>145641700</v>
+      </c>
+      <c r="T59">
+        <v>161020000</v>
+      </c>
+      <c r="U59">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V59">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W59">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X59">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y59">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z59">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA59">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB59">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC59">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-288486440800</v>
       </c>
+      <c r="Q60">
+        <v>2310197720500</v>
+      </c>
+      <c r="R60">
+        <v>2598684161300</v>
+      </c>
+      <c r="S60">
+        <v>148032100</v>
+      </c>
+      <c r="T60">
+        <v>162571200</v>
+      </c>
+      <c r="U60">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V60">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W60">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X60">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y60">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z60">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA60">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB60">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC60">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-276770684900</v>
       </c>
+      <c r="Q61">
+        <v>2347787611200</v>
+      </c>
+      <c r="R61">
+        <v>2624558296100</v>
+      </c>
+      <c r="S61">
+        <v>150197400</v>
+      </c>
+      <c r="T61">
+        <v>164123300</v>
+      </c>
+      <c r="U61">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V61">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W61">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X61">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y61">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z61">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA61">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB61">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC61">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-289884125100</v>
       </c>
+      <c r="Q62">
+        <v>2364714878900</v>
+      </c>
+      <c r="R62">
+        <v>2654599004000</v>
+      </c>
+      <c r="S62">
+        <v>151369700</v>
+      </c>
+      <c r="T62">
+        <v>165831000</v>
+      </c>
+      <c r="U62">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V62">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W62">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X62">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y62">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z62">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA62">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB62">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC62">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-299538262600</v>
       </c>
+      <c r="Q63">
+        <v>2381415195200</v>
+      </c>
+      <c r="R63">
+        <v>2680953457800</v>
+      </c>
+      <c r="S63">
+        <v>152373400</v>
+      </c>
+      <c r="T63">
+        <v>167540900</v>
+      </c>
+      <c r="U63">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V63">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W63">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X63">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y63">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z63">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA63">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB63">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC63">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-322494848800</v>
       </c>
+      <c r="Q64">
+        <v>2398572001000</v>
+      </c>
+      <c r="R64">
+        <v>2721066849800</v>
+      </c>
+      <c r="S64">
+        <v>153450600</v>
+      </c>
+      <c r="T64">
+        <v>169777000</v>
+      </c>
+      <c r="U64">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V64">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W64">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X64">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y64">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z64">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA64">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB64">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-369318399300</v>
       </c>
+      <c r="Q65">
+        <v>2410659174600</v>
+      </c>
+      <c r="R65">
+        <v>2779977573900</v>
+      </c>
+      <c r="S65">
+        <v>154463600</v>
+      </c>
+      <c r="T65">
+        <v>173013900</v>
+      </c>
+      <c r="U65">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V65">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W65">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X65">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y65">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z65">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA65">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB65">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC65">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-382667664500</v>
       </c>
+      <c r="Q66">
+        <v>2428322197500</v>
+      </c>
+      <c r="R66">
+        <v>2810989862000</v>
+      </c>
+      <c r="S66">
+        <v>155707200</v>
+      </c>
+      <c r="T66">
+        <v>174814700</v>
+      </c>
+      <c r="U66">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V66">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W66">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X66">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y66">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z66">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA66">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB66">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC66">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-423669904000</v>
       </c>
+      <c r="Q67">
+        <v>2438480806700</v>
+      </c>
+      <c r="R67">
+        <v>2862150710700</v>
+      </c>
+      <c r="S67">
+        <v>156322200</v>
+      </c>
+      <c r="T67">
+        <v>177732500</v>
+      </c>
+      <c r="U67">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V67">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W67">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X67">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y67">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z67">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA67">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB67">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC67">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-483114591500</v>
       </c>
+      <c r="Q68">
+        <v>2451190347000</v>
+      </c>
+      <c r="R68">
+        <v>2934304938500</v>
+      </c>
+      <c r="S68">
+        <v>157085000</v>
+      </c>
+      <c r="T68">
+        <v>181688900</v>
+      </c>
+      <c r="U68">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V68">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W68">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X68">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y68">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z68">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA68">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB68">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC68">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-520215506200</v>
       </c>
+      <c r="Q69">
+        <v>2470658598100</v>
+      </c>
+      <c r="R69">
+        <v>2990874104300</v>
+      </c>
+      <c r="S69">
+        <v>158031400</v>
+      </c>
+      <c r="T69">
+        <v>185011300</v>
+      </c>
+      <c r="U69">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V69">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W69">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X69">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y69">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z69">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA69">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB69">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC69">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-646081736800</v>
       </c>
+      <c r="Q70">
+        <v>2546458357200</v>
+      </c>
+      <c r="R70">
+        <v>3192540094000</v>
+      </c>
+      <c r="S70">
+        <v>162753300</v>
+      </c>
+      <c r="T70">
+        <v>197242000</v>
+      </c>
+      <c r="U70">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V70">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W70">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X70">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y70">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z70">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA70">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB70">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC70">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-681062960700</v>
       </c>
+      <c r="Q71">
+        <v>2582402385900</v>
+      </c>
+      <c r="R71">
+        <v>3263465346600</v>
+      </c>
+      <c r="S71">
+        <v>164859500</v>
+      </c>
+      <c r="T71">
+        <v>201886600</v>
+      </c>
+      <c r="U71">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V71">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W71">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X71">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y71">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z71">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA71">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB71">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC71">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-673845505200</v>
       </c>
+      <c r="Q72">
+        <v>2631541688100</v>
+      </c>
+      <c r="R72">
+        <v>3305387193300</v>
+      </c>
+      <c r="S72">
+        <v>167513800</v>
+      </c>
+      <c r="T72">
+        <v>204884900</v>
+      </c>
+      <c r="U72">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V72">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W72">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X72">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y72">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z72">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA72">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB72">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC72">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-690798419600</v>
       </c>
+      <c r="Q73">
+        <v>2668145638300</v>
+      </c>
+      <c r="R73">
+        <v>3358944057900</v>
+      </c>
+      <c r="S73">
+        <v>169626200</v>
+      </c>
+      <c r="T73">
+        <v>207901600</v>
+      </c>
+      <c r="U73">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V73">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W73">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X73">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y73">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z73">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA73">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB73">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC73">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-691501880900</v>
       </c>
+      <c r="Q74">
+        <v>2701461529800</v>
+      </c>
+      <c r="R74">
+        <v>3392963410700</v>
+      </c>
+      <c r="S74">
+        <v>171454700</v>
+      </c>
+      <c r="T74">
+        <v>210119100</v>
+      </c>
+      <c r="U74">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V74">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W74">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X74">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y74">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z74">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA74">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB74">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-685278975000</v>
       </c>
+      <c r="Q75">
+        <v>2755965784700</v>
+      </c>
+      <c r="R75">
+        <v>3441244759700</v>
+      </c>
+      <c r="S75">
+        <v>174373500</v>
+      </c>
+      <c r="T75">
+        <v>212910000</v>
+      </c>
+      <c r="U75">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V75">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W75">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X75">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y75">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z75">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA75">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB75">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC75">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-699198491600</v>
       </c>
+      <c r="Q76">
+        <v>2789404224900</v>
+      </c>
+      <c r="R76">
+        <v>3488602716500</v>
+      </c>
+      <c r="S76">
+        <v>176346700</v>
+      </c>
+      <c r="T76">
+        <v>215806400</v>
+      </c>
+      <c r="U76">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V76">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W76">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X76">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y76">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z76">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA76">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB76">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC76">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-673758173500</v>
       </c>
+      <c r="Q77">
+        <v>2842210725900</v>
+      </c>
+      <c r="R77">
+        <v>3515968899400</v>
+      </c>
+      <c r="S77">
+        <v>179286300</v>
+      </c>
+      <c r="T77">
+        <v>217479200</v>
+      </c>
+      <c r="U77">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V77">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W77">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X77">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y77">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z77">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA77">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB77">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC77">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-659325344100</v>
       </c>
+      <c r="Q78">
+        <v>2884188750500</v>
+      </c>
+      <c r="R78">
+        <v>3543514094600</v>
+      </c>
+      <c r="S78">
+        <v>181750900</v>
+      </c>
+      <c r="T78">
+        <v>219088700</v>
+      </c>
+      <c r="U78">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V78">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W78">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X78">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y78">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z78">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA78">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB78">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC78">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-657621421100</v>
       </c>
+      <c r="Q79">
+        <v>2919403768400</v>
+      </c>
+      <c r="R79">
+        <v>3577025189500</v>
+      </c>
+      <c r="S79">
+        <v>183956000</v>
+      </c>
+      <c r="T79">
+        <v>220774700</v>
+      </c>
+      <c r="U79">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V79">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W79">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X79">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y79">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z79">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA79">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB79">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC79">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-646379460600</v>
       </c>
+      <c r="Q80">
+        <v>2971123690500</v>
+      </c>
+      <c r="R80">
+        <v>3617503151100</v>
+      </c>
+      <c r="S80">
+        <v>187234500</v>
+      </c>
+      <c r="T80">
+        <v>223050600</v>
+      </c>
+      <c r="U80">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V80">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W80">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X80">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y80">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z80">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA80">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB80">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC80">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-627581468700</v>
       </c>
+      <c r="Q81">
+        <v>3020108256600</v>
+      </c>
+      <c r="R81">
+        <v>3647689725300</v>
+      </c>
+      <c r="S81">
+        <v>190023800</v>
+      </c>
+      <c r="T81">
+        <v>224910600</v>
+      </c>
+      <c r="U81">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V81">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W81">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X81">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y81">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z81">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA81">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB81">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC81">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-620156775600</v>
       </c>
+      <c r="Q82">
+        <v>3057812863900</v>
+      </c>
+      <c r="R82">
+        <v>3677969639500</v>
+      </c>
+      <c r="S82">
+        <v>192161500</v>
+      </c>
+      <c r="T82">
+        <v>226687000</v>
+      </c>
+      <c r="U82">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V82">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W82">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X82">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y82">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z82">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA82">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB82">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC82">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-598719133300</v>
       </c>
+      <c r="Q83">
+        <v>3104366424700</v>
+      </c>
+      <c r="R83">
+        <v>3703085558000</v>
+      </c>
+      <c r="S83">
+        <v>195000000</v>
+      </c>
+      <c r="T83">
+        <v>228094100</v>
+      </c>
+      <c r="U83">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V83">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W83">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X83">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y83">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z83">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA83">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB83">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC83">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-582465322800</v>
       </c>
+      <c r="Q84">
+        <v>3149326669000</v>
+      </c>
+      <c r="R84">
+        <v>3731791991800</v>
+      </c>
+      <c r="S84">
+        <v>197310700</v>
+      </c>
+      <c r="T84">
+        <v>229706800</v>
+      </c>
+      <c r="U84">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V84">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W84">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X84">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y84">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z84">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA84">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB84">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC84">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-533563606000</v>
       </c>
+      <c r="Q85">
+        <v>3221411976300</v>
+      </c>
+      <c r="R85">
+        <v>3754975582300</v>
+      </c>
+      <c r="S85">
+        <v>201146900</v>
+      </c>
+      <c r="T85">
+        <v>230965300</v>
+      </c>
+      <c r="U85">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V85">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W85">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X85">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y85">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z85">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA85">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB85">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC85">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-463842144400</v>
       </c>
+      <c r="Q86">
+        <v>3309730708400</v>
+      </c>
+      <c r="R86">
+        <v>3773572852800</v>
+      </c>
+      <c r="S86">
+        <v>207323000</v>
+      </c>
+      <c r="T86">
+        <v>232004000</v>
+      </c>
+      <c r="U86">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V86">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W86">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X86">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y86">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z86">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA86">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB86">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC86">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-411352781900</v>
       </c>
+      <c r="Q87">
+        <v>3386978254400</v>
+      </c>
+      <c r="R87">
+        <v>3798331036300</v>
+      </c>
+      <c r="S87">
+        <v>211935900</v>
+      </c>
+      <c r="T87">
+        <v>233452500</v>
+      </c>
+      <c r="U87">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V87">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W87">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X87">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y87">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z87">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA87">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB87">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC87">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-366215666300</v>
       </c>
+      <c r="Q88">
+        <v>3460995113400</v>
+      </c>
+      <c r="R88">
+        <v>3827210779700</v>
+      </c>
+      <c r="S88">
+        <v>216435700</v>
+      </c>
+      <c r="T88">
+        <v>235055000</v>
+      </c>
+      <c r="U88">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V88">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W88">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X88">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y88">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z88">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA88">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB88">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-357910866600</v>
       </c>
+      <c r="Q89">
+        <v>3517351525000</v>
+      </c>
+      <c r="R89">
+        <v>3875262391600</v>
+      </c>
+      <c r="S89">
+        <v>219581600</v>
+      </c>
+      <c r="T89">
+        <v>238016400</v>
+      </c>
+      <c r="U89">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V89">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W89">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X89">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y89">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z89">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA89">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB89">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC89">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-350626570700</v>
       </c>
+      <c r="Q90">
+        <v>3568603096400</v>
+      </c>
+      <c r="R90">
+        <v>3919229667100</v>
+      </c>
+      <c r="S90">
+        <v>222508700</v>
+      </c>
+      <c r="T90">
+        <v>240686900</v>
+      </c>
+      <c r="U90">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V90">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W90">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X90">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y90">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z90">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA90">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB90">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC90">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-354254919500</v>
       </c>
+      <c r="Q91">
+        <v>3619211547100</v>
+      </c>
+      <c r="R91">
+        <v>3973466466600</v>
+      </c>
+      <c r="S91">
+        <v>225178700</v>
+      </c>
+      <c r="T91">
+        <v>243548900</v>
+      </c>
+      <c r="U91">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V91">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W91">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X91">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y91">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z91">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA91">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB91">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC91">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-359500923800</v>
       </c>
+      <c r="Q92">
+        <v>3673282474700</v>
+      </c>
+      <c r="R92">
+        <v>4032783398500</v>
+      </c>
+      <c r="S92">
+        <v>228440600</v>
+      </c>
+      <c r="T92">
+        <v>246772100</v>
+      </c>
+      <c r="U92">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V92">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W92">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X92">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y92">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z92">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA92">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB92">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC92">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-359100969300</v>
       </c>
+      <c r="Q93">
+        <v>3712009223700</v>
+      </c>
+      <c r="R93">
+        <v>4071110193000</v>
+      </c>
+      <c r="S93">
+        <v>231169200</v>
+      </c>
+      <c r="T93">
+        <v>249074600</v>
+      </c>
+      <c r="U93">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V93">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W93">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X93">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y93">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z93">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA93">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB93">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-366294486100</v>
       </c>
+      <c r="Q94">
+        <v>3751958442000</v>
+      </c>
+      <c r="R94">
+        <v>4118252928100</v>
+      </c>
+      <c r="S94">
+        <v>233845900</v>
+      </c>
+      <c r="T94">
+        <v>251814700</v>
+      </c>
+      <c r="U94">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V94">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W94">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X94">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y94">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z94">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA94">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB94">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC94">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-493844900900</v>
       </c>
+      <c r="Q95">
+        <v>3781855796900</v>
+      </c>
+      <c r="R95">
+        <v>4275700697800</v>
+      </c>
+      <c r="S95">
+        <v>235586800</v>
+      </c>
+      <c r="T95">
+        <v>260475100</v>
+      </c>
+      <c r="U95">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V95">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W95">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X95">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y95">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z95">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA95">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB95">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC95">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-677895303200</v>
       </c>
+      <c r="Q96">
+        <v>3815733965100</v>
+      </c>
+      <c r="R96">
+        <v>4493629268300</v>
+      </c>
+      <c r="S96">
+        <v>237525100</v>
+      </c>
+      <c r="T96">
+        <v>273857700</v>
+      </c>
+      <c r="U96">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V96">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W96">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X96">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y96">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z96">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA96">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB96">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC96">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-815343355000</v>
       </c>
+      <c r="Q97">
+        <v>3856898737100</v>
+      </c>
+      <c r="R97">
+        <v>4672242092100</v>
+      </c>
+      <c r="S97">
+        <v>239936300</v>
+      </c>
+      <c r="T97">
+        <v>284373200</v>
+      </c>
+      <c r="U97">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V97">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W97">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X97">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y97">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z97">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA97">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB97">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC97">
+        <v>6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-866905274400</v>
       </c>
+      <c r="Q98">
+        <v>3909084334200</v>
+      </c>
+      <c r="R98">
+        <v>4775989608600</v>
+      </c>
+      <c r="S98">
+        <v>242800900</v>
+      </c>
+      <c r="T98">
+        <v>291022200</v>
+      </c>
+      <c r="U98">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V98">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W98">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X98">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y98">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z98">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA98">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB98">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC98">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-855260187800</v>
       </c>
+      <c r="Q99">
+        <v>3967512750900</v>
+      </c>
+      <c r="R99">
+        <v>4822772938700</v>
+      </c>
+      <c r="S99">
+        <v>246050200</v>
+      </c>
+      <c r="T99">
+        <v>293948700</v>
+      </c>
+      <c r="U99">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V99">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W99">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X99">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y99">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z99">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA99">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB99">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC99">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-1062690597100</v>
       </c>
+      <c r="Q100">
+        <v>4012798739600</v>
+      </c>
+      <c r="R100">
+        <v>5075489336700</v>
+      </c>
+      <c r="S100">
+        <v>248676500</v>
+      </c>
+      <c r="T100">
+        <v>309231800</v>
+      </c>
+      <c r="U100">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V100">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W100">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X100">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y100">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z100">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA100">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB100">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC100">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-1286350642100</v>
       </c>
+      <c r="Q101">
+        <v>4067487776900</v>
+      </c>
+      <c r="R101">
+        <v>5353838419000</v>
+      </c>
+      <c r="S101">
+        <v>251774600</v>
+      </c>
+      <c r="T101">
+        <v>329539700</v>
+      </c>
+      <c r="U101">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V101">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W101">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X101">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y101">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z101">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA101">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB101">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC101">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-1420381394200</v>
       </c>
+      <c r="Q102">
+        <v>4132434285400</v>
+      </c>
+      <c r="R102">
+        <v>5552815679600</v>
+      </c>
+      <c r="S102">
+        <v>256065900</v>
+      </c>
+      <c r="T102">
+        <v>342521500</v>
+      </c>
+      <c r="U102">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V102">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W102">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X102">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y102">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z102">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA102">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB102">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC102">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-1498215154700</v>
       </c>
+      <c r="Q103">
+        <v>4212554934400</v>
+      </c>
+      <c r="R103">
+        <v>5710770089100</v>
+      </c>
+      <c r="S103">
+        <v>261839800</v>
+      </c>
+      <c r="T103">
+        <v>354700400</v>
+      </c>
+      <c r="U103">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V103">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W103">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X103">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y103">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z103">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA103">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB103">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC103">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-1477988613900</v>
       </c>
+      <c r="Q104">
+        <v>4304620554800</v>
+      </c>
+      <c r="R104">
+        <v>5782609168700</v>
+      </c>
+      <c r="S104">
+        <v>268492500</v>
+      </c>
+      <c r="T104">
+        <v>359411900</v>
+      </c>
+      <c r="U104">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V104">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W104">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X104">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y104">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z104">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA104">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB104">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC104">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-1433684960100</v>
       </c>
+      <c r="Q105">
+        <v>4392091139300</v>
+      </c>
+      <c r="R105">
+        <v>5825776099400</v>
+      </c>
+      <c r="S105">
+        <v>273884700</v>
+      </c>
+      <c r="T105">
+        <v>362350400</v>
+      </c>
+      <c r="U105">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V105">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W105">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X105">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y105">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z105">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA105">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB105">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC105">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-1471756584300</v>
       </c>
+      <c r="Q106">
+        <v>4453972571000</v>
+      </c>
+      <c r="R106">
+        <v>5925729155300</v>
+      </c>
+      <c r="S106">
+        <v>277694800</v>
+      </c>
+      <c r="T106">
+        <v>368509600</v>
+      </c>
+      <c r="U106">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V106">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W106">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X106">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y106">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z106">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA106">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB106">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC106">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-1702654427000</v>
       </c>
+      <c r="Q107">
+        <v>4487072682300</v>
+      </c>
+      <c r="R107">
+        <v>6189727109300</v>
+      </c>
+      <c r="S107">
+        <v>279657600</v>
+      </c>
+      <c r="T107">
+        <v>384096600</v>
+      </c>
+      <c r="U107">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V107">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W107">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X107">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y107">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z107">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA107">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB107">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC107">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-2086196521900</v>
       </c>
+      <c r="Q108">
+        <v>4563311746900</v>
+      </c>
+      <c r="R108">
+        <v>6649508268800</v>
+      </c>
+      <c r="S108">
+        <v>284969800</v>
+      </c>
+      <c r="T108">
+        <v>417974400</v>
+      </c>
+      <c r="U108">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V108">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W108">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X108">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y108">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z108">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA108">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB108">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC108">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-2442573391000</v>
       </c>
+      <c r="Q109">
+        <v>4696024097200</v>
+      </c>
+      <c r="R109">
+        <v>7138597488200</v>
+      </c>
+      <c r="S109">
+        <v>293590600</v>
+      </c>
+      <c r="T109">
+        <v>453416700</v>
+      </c>
+      <c r="U109">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V109">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W109">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X109">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y109">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z109">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA109">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB109">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC109">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-2596117835100</v>
       </c>
+      <c r="Q110">
+        <v>4821361016200</v>
+      </c>
+      <c r="R110">
+        <v>7417478851300</v>
+      </c>
+      <c r="S110">
+        <v>302048100</v>
+      </c>
+      <c r="T110">
+        <v>471378400</v>
+      </c>
+      <c r="U110">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V110">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W110">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X110">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y110">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z110">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA110">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB110">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC110">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-2615785007100</v>
       </c>
+      <c r="Q111">
+        <v>4970095218700</v>
+      </c>
+      <c r="R111">
+        <v>7585880225800</v>
+      </c>
+      <c r="S111">
+        <v>312428400</v>
+      </c>
+      <c r="T111">
+        <v>482305700</v>
+      </c>
+      <c r="U111">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V111">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W111">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X111">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y111">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z111">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA111">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB111">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC111">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-2583504102500</v>
       </c>
+      <c r="Q112">
+        <v>5113527690500</v>
+      </c>
+      <c r="R112">
+        <v>7697031793000</v>
+      </c>
+      <c r="S112">
+        <v>322419800</v>
+      </c>
+      <c r="T112">
+        <v>490194900</v>
+      </c>
+      <c r="U112">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V112">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W112">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X112">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y112">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z112">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA112">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB112">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC112">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-2572378577100</v>
       </c>
+      <c r="Q113">
+        <v>5236772411200</v>
+      </c>
+      <c r="R113">
+        <v>7809150988300</v>
+      </c>
+      <c r="S113">
+        <v>330938100</v>
+      </c>
+      <c r="T113">
+        <v>497833500</v>
+      </c>
+      <c r="U113">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V113">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W113">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X113">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y113">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z113">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA113">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB113">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC113">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-2661850774000</v>
       </c>
+      <c r="Q114">
+        <v>5347872021000</v>
+      </c>
+      <c r="R114">
+        <v>8009722795000</v>
+      </c>
+      <c r="S114">
+        <v>338175100</v>
+      </c>
+      <c r="T114">
+        <v>511256400</v>
+      </c>
+      <c r="U114">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V114">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W114">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X114">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y114">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z114">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA114">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB114">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC114">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-2661837374000</v>
       </c>
+      <c r="Q115">
+        <v>5347886696000</v>
+      </c>
+      <c r="R115">
+        <v>8009724070000</v>
+      </c>
+      <c r="S115">
+        <v>338175500</v>
+      </c>
+      <c r="T115">
+        <v>511256500</v>
+      </c>
+      <c r="U115">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V115">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W115">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X115">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y115">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z115">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA115">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB115">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,10 +10686,49 @@
       <c r="P116">
         <v>-2630617144300</v>
       </c>
+      <c r="Q116">
+        <v>5648408647600</v>
+      </c>
+      <c r="R116">
+        <v>8279025791900</v>
+      </c>
+      <c r="S116">
+        <v>355089100</v>
+      </c>
+      <c r="T116">
+        <v>526785000</v>
+      </c>
+      <c r="U116">
+        <v>49116596935.7</v>
+      </c>
+      <c r="V116">
+        <v>71991528625.2</v>
+      </c>
+      <c r="W116">
+        <v>128321302333.9</v>
+      </c>
+      <c r="X116">
+        <v>8145293.9</v>
+      </c>
+      <c r="Y116">
+        <v>3087731.3</v>
+      </c>
+      <c r="Z116">
+        <v>4580739.1</v>
+      </c>
+      <c r="AA116">
+        <v>-1493007.8</v>
+      </c>
+      <c r="AB116">
+        <v>-22874931689.6</v>
+      </c>
+      <c r="AC116">
+        <v>1.4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC116"/>
   </ignoredErrors>
 </worksheet>
 </file>